--- a/data/raw/VCAS-rove_time.xlsx
+++ b/data/raw/VCAS-rove_time.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathansalas/R_Projects/VCAS1_prelim_efficiency/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C1A04D-A319-9E4A-B106-DF951740E0B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B650C3-F5CC-D84A-AED5-D6D04C5E4849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" activeTab="1" xr2:uid="{0490BC07-0248-8949-839E-74C08EF47166}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20060" activeTab="1" xr2:uid="{0490BC07-0248-8949-839E-74C08EF47166}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="164">
   <si>
     <t>Here we track total ablation time which I will refer to going forward as rove_time</t>
   </si>
@@ -254,9 +254,6 @@
   </si>
   <si>
     <t>This doesn't work correctly if done across days</t>
-  </si>
-  <si>
-    <t>procedure_time</t>
   </si>
   <si>
     <t>Ablation after VT induction</t>
@@ -864,16 +861,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="91">
-    <dxf>
-      <numFmt numFmtId="26" formatCode="hh:mm:ss"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="h:mm:ss;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="h:mm:ss;@"/>
-    </dxf>
+  <dxfs count="90">
     <dxf>
       <numFmt numFmtId="26" formatCode="hh:mm:ss"/>
     </dxf>
@@ -1118,10 +1106,16 @@
       <numFmt numFmtId="26" formatCode="hh:mm:ss"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <numFmt numFmtId="26" formatCode="hh:mm:ss"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <numFmt numFmtId="164" formatCode="h:mm:ss;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="h:mm:ss;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
@@ -1158,11 +1152,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C55969D0-B28D-F248-8DCD-E81C0E8043BD}" name="Table1" displayName="Table1" ref="A1:H39" totalsRowShown="0">
-  <autoFilter ref="A1:H39" xr:uid="{C55969D0-B28D-F248-8DCD-E81C0E8043BD}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{718012BD-7025-314F-8E4E-E629C18A0C65}" name="subjectId" dataDxfId="90"/>
-    <tableColumn id="7" xr3:uid="{C7BB62FA-ACAE-E548-9F55-EF382289F58E}" name="procedure_time" dataDxfId="89"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C55969D0-B28D-F248-8DCD-E81C0E8043BD}" name="Table1" displayName="Table1" ref="A1:G39" totalsRowShown="0">
+  <autoFilter ref="A1:G39" xr:uid="{C55969D0-B28D-F248-8DCD-E81C0E8043BD}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{718012BD-7025-314F-8E4E-E629C18A0C65}" name="subjectId" dataDxfId="89"/>
     <tableColumn id="2" xr3:uid="{461579DB-75ED-D945-B839-5CC1464620BE}" name="rove_time" dataDxfId="88"/>
     <tableColumn id="8" xr3:uid="{5E0CEC32-C01F-A446-827E-6309FE417F82}" name="dwell_time" dataDxfId="87">
       <calculatedColumnFormula>'1-001'!H35</calculatedColumnFormula>
@@ -1180,9 +1173,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{F5A4CEBC-9F74-3B4A-97EE-FBFC2B092D3F}" name="Table24812" displayName="Table24812" ref="A1:D31" totalsRowShown="0">
   <autoFilter ref="A1:D31" xr:uid="{7DCBAB66-89F8-6F47-8D64-FA0C26924201}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{6B6BD5F2-A455-4741-BE8B-EB4069C30402}" name="start_time" dataDxfId="68"/>
-    <tableColumn id="2" xr3:uid="{1A57601A-180E-3841-905B-984320643C2E}" name="end_time" dataDxfId="67"/>
-    <tableColumn id="3" xr3:uid="{00349B95-06C5-6347-9812-8CE148323ABF}" name="time_diff" dataDxfId="66">
+    <tableColumn id="1" xr3:uid="{6B6BD5F2-A455-4741-BE8B-EB4069C30402}" name="start_time" dataDxfId="65"/>
+    <tableColumn id="2" xr3:uid="{1A57601A-180E-3841-905B-984320643C2E}" name="end_time" dataDxfId="64"/>
+    <tableColumn id="3" xr3:uid="{00349B95-06C5-6347-9812-8CE148323ABF}" name="time_diff" dataDxfId="63">
       <calculatedColumnFormula>Table24812[[#This Row],[end_time]]-Table24812[[#This Row],[start_time]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{F0480389-BE2E-CA47-91C9-281947E722D0}" name="notes"/>
@@ -1195,9 +1188,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{3F78E5F9-8FC7-1747-90FF-3E51FC67A570}" name="Table245153456" displayName="Table245153456" ref="A1:D31" totalsRowShown="0">
   <autoFilter ref="A1:D31" xr:uid="{1A93302E-8621-7D48-88F2-5AC51E7EA3A4}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{F488A4D9-2DF8-D244-AEBC-805EFBE08DF6}" name="start_time" dataDxfId="65"/>
-    <tableColumn id="2" xr3:uid="{ACA4FF7E-238C-8F45-9565-DAD7F42E73B8}" name="end_time" dataDxfId="64"/>
-    <tableColumn id="3" xr3:uid="{F6BC8755-5891-4645-8170-88F754E99AA6}" name="time_diff" dataDxfId="63">
+    <tableColumn id="1" xr3:uid="{F488A4D9-2DF8-D244-AEBC-805EFBE08DF6}" name="start_time" dataDxfId="62"/>
+    <tableColumn id="2" xr3:uid="{ACA4FF7E-238C-8F45-9565-DAD7F42E73B8}" name="end_time" dataDxfId="61"/>
+    <tableColumn id="3" xr3:uid="{F6BC8755-5891-4645-8170-88F754E99AA6}" name="time_diff" dataDxfId="60">
       <calculatedColumnFormula>Table245153456[[#This Row],[end_time]]-Table245153456[[#This Row],[start_time]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{675A7FCC-306A-304D-91DC-89128A249BDF}" name="notes"/>
@@ -1210,9 +1203,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{23DABAA4-E878-7146-A7F3-85DD83F4C855}" name="Table24515345" displayName="Table24515345" ref="A1:D31" totalsRowShown="0">
   <autoFilter ref="A1:D31" xr:uid="{1A93302E-8621-7D48-88F2-5AC51E7EA3A4}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{EE8B83DD-E65E-C441-9E58-95C830211436}" name="start_time" dataDxfId="62"/>
-    <tableColumn id="2" xr3:uid="{F6B57195-8D07-9240-B4C7-E06E1251BBF4}" name="end_time" dataDxfId="61"/>
-    <tableColumn id="3" xr3:uid="{F39F83CF-BB22-E54A-87DA-A8A19D2D22EA}" name="time_diff" dataDxfId="60">
+    <tableColumn id="1" xr3:uid="{EE8B83DD-E65E-C441-9E58-95C830211436}" name="start_time" dataDxfId="59"/>
+    <tableColumn id="2" xr3:uid="{F6B57195-8D07-9240-B4C7-E06E1251BBF4}" name="end_time" dataDxfId="58"/>
+    <tableColumn id="3" xr3:uid="{F39F83CF-BB22-E54A-87DA-A8A19D2D22EA}" name="time_diff" dataDxfId="57">
       <calculatedColumnFormula>Table24515345[[#This Row],[end_time]]-Table24515345[[#This Row],[start_time]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{486CF052-5F91-344A-902D-F2CA7FB8D506}" name="notes"/>
@@ -1225,9 +1218,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{F1C0DDBF-006F-FE45-828C-B8FDAB683C59}" name="Table2451534" displayName="Table2451534" ref="A1:D31" totalsRowShown="0">
   <autoFilter ref="A1:D31" xr:uid="{1A93302E-8621-7D48-88F2-5AC51E7EA3A4}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{AD2DB3ED-B602-8946-99FC-F31C04E30CB1}" name="start_time" dataDxfId="59"/>
-    <tableColumn id="2" xr3:uid="{60EB5449-1ABA-D24F-9AB7-DA92E3458840}" name="end_time" dataDxfId="58"/>
-    <tableColumn id="3" xr3:uid="{0A4C1CEB-45DC-BC4A-B70E-CFFE5BC5F5CD}" name="time_diff" dataDxfId="57">
+    <tableColumn id="1" xr3:uid="{AD2DB3ED-B602-8946-99FC-F31C04E30CB1}" name="start_time" dataDxfId="56"/>
+    <tableColumn id="2" xr3:uid="{60EB5449-1ABA-D24F-9AB7-DA92E3458840}" name="end_time" dataDxfId="55"/>
+    <tableColumn id="3" xr3:uid="{0A4C1CEB-45DC-BC4A-B70E-CFFE5BC5F5CD}" name="time_diff" dataDxfId="54">
       <calculatedColumnFormula>Table2451534[[#This Row],[end_time]]-Table2451534[[#This Row],[start_time]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{48442FEA-2429-4A47-8FCB-D99F912F4A8E}" name="notes"/>
@@ -1240,9 +1233,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{2C87F7CC-7C0F-0642-8F9A-FE038CD3FF1B}" name="Table245153" displayName="Table245153" ref="A1:D31" totalsRowShown="0">
   <autoFilter ref="A1:D31" xr:uid="{1A93302E-8621-7D48-88F2-5AC51E7EA3A4}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{1AC28B04-A977-FD4B-B78A-9DCC5E7EB80F}" name="start_time" dataDxfId="56"/>
-    <tableColumn id="2" xr3:uid="{C3B83CA2-3C6D-EA4A-BA2E-70FD53E04984}" name="end_time" dataDxfId="55"/>
-    <tableColumn id="3" xr3:uid="{4F86D6E1-1D92-8341-A9E9-53EB64E4C5D3}" name="time_diff" dataDxfId="54">
+    <tableColumn id="1" xr3:uid="{1AC28B04-A977-FD4B-B78A-9DCC5E7EB80F}" name="start_time" dataDxfId="53"/>
+    <tableColumn id="2" xr3:uid="{C3B83CA2-3C6D-EA4A-BA2E-70FD53E04984}" name="end_time" dataDxfId="52"/>
+    <tableColumn id="3" xr3:uid="{4F86D6E1-1D92-8341-A9E9-53EB64E4C5D3}" name="time_diff" dataDxfId="51">
       <calculatedColumnFormula>Table245153[[#This Row],[end_time]]-Table245153[[#This Row],[start_time]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{04931610-B628-D646-9B41-7F657DD32595}" name="notes"/>
@@ -1255,9 +1248,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{772A68B7-3577-954E-96AB-3F9F135762FE}" name="Table248" displayName="Table248" ref="A1:D31" totalsRowShown="0">
   <autoFilter ref="A1:D31" xr:uid="{7DCBAB66-89F8-6F47-8D64-FA0C26924201}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{6C1948AC-21BF-BA4D-A66C-95CD6D282814}" name="start_time" dataDxfId="53"/>
-    <tableColumn id="2" xr3:uid="{FCE64BF5-4264-4C43-929C-08AD08C28E78}" name="end_time" dataDxfId="52"/>
-    <tableColumn id="3" xr3:uid="{53FD3C4C-5892-8C4A-80B1-B3228D1980FF}" name="time_diff" dataDxfId="51">
+    <tableColumn id="1" xr3:uid="{6C1948AC-21BF-BA4D-A66C-95CD6D282814}" name="start_time" dataDxfId="50"/>
+    <tableColumn id="2" xr3:uid="{FCE64BF5-4264-4C43-929C-08AD08C28E78}" name="end_time" dataDxfId="49"/>
+    <tableColumn id="3" xr3:uid="{53FD3C4C-5892-8C4A-80B1-B3228D1980FF}" name="time_diff" dataDxfId="48">
       <calculatedColumnFormula>Table248[[#This Row],[end_time]]-Table248[[#This Row],[start_time]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{F22060DE-01C3-9C4C-A473-BCE8D37580D6}" name="notes"/>
@@ -1270,9 +1263,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{D84B3EF0-7875-184B-870A-3642242A31F0}" name="Table2410" displayName="Table2410" ref="A1:D31" totalsRowShown="0">
   <autoFilter ref="A1:D31" xr:uid="{7DCBAB66-89F8-6F47-8D64-FA0C26924201}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{3577E981-DDE4-CC47-8395-6FEE5951473E}" name="start_time" dataDxfId="50"/>
-    <tableColumn id="2" xr3:uid="{14BD1FB2-4172-BE43-8B3C-F4348552D39D}" name="end_time" dataDxfId="49"/>
-    <tableColumn id="3" xr3:uid="{EA005961-FE83-1F48-8259-AAAD2071A3B1}" name="time_diff" dataDxfId="48">
+    <tableColumn id="1" xr3:uid="{3577E981-DDE4-CC47-8395-6FEE5951473E}" name="start_time" dataDxfId="47"/>
+    <tableColumn id="2" xr3:uid="{14BD1FB2-4172-BE43-8B3C-F4348552D39D}" name="end_time" dataDxfId="46"/>
+    <tableColumn id="3" xr3:uid="{EA005961-FE83-1F48-8259-AAAD2071A3B1}" name="time_diff" dataDxfId="45">
       <calculatedColumnFormula>Table2410[[#This Row],[end_time]]-Table2410[[#This Row],[start_time]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{7A57ED91-2446-8F4F-95C2-3088CD96BD62}" name="notes"/>
@@ -1285,9 +1278,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{0A3CEC53-F376-1D4D-846C-0F34B09239B4}" name="Table249" displayName="Table249" ref="A1:D31" totalsRowShown="0">
   <autoFilter ref="A1:D31" xr:uid="{7DCBAB66-89F8-6F47-8D64-FA0C26924201}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{49600F71-5258-BD4C-B040-17EFB93CC626}" name="start_time" dataDxfId="47"/>
-    <tableColumn id="2" xr3:uid="{BDE18332-AF9E-6E4E-B81F-9AB511ACDD6F}" name="end_time" dataDxfId="46"/>
-    <tableColumn id="3" xr3:uid="{8AAE5943-30E3-C746-AE58-07515593AE41}" name="time_diff" dataDxfId="45">
+    <tableColumn id="1" xr3:uid="{49600F71-5258-BD4C-B040-17EFB93CC626}" name="start_time" dataDxfId="44"/>
+    <tableColumn id="2" xr3:uid="{BDE18332-AF9E-6E4E-B81F-9AB511ACDD6F}" name="end_time" dataDxfId="43"/>
+    <tableColumn id="3" xr3:uid="{8AAE5943-30E3-C746-AE58-07515593AE41}" name="time_diff" dataDxfId="42">
       <calculatedColumnFormula>Table249[[#This Row],[end_time]]-Table249[[#This Row],[start_time]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{7880A518-97D3-0D44-977A-E75D9468AB4A}" name="notes"/>
@@ -1300,9 +1293,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{A7ADDBBE-0483-F84D-98C5-791E3CFC3CE4}" name="Table24511" displayName="Table24511" ref="A1:D31" totalsRowShown="0">
   <autoFilter ref="A1:D31" xr:uid="{7DCBAB66-89F8-6F47-8D64-FA0C26924201}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{26C8DC9E-AF52-B74F-997F-91F760434CC8}" name="start_time" dataDxfId="44"/>
-    <tableColumn id="2" xr3:uid="{6083687F-E3D1-0F47-90EE-749E4C68F9D7}" name="end_time" dataDxfId="43"/>
-    <tableColumn id="3" xr3:uid="{11F768A3-7132-674C-8E3C-457C09009AD5}" name="time_diff" dataDxfId="42">
+    <tableColumn id="1" xr3:uid="{26C8DC9E-AF52-B74F-997F-91F760434CC8}" name="start_time" dataDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{6083687F-E3D1-0F47-90EE-749E4C68F9D7}" name="end_time" dataDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{11F768A3-7132-674C-8E3C-457C09009AD5}" name="time_diff" dataDxfId="39">
       <calculatedColumnFormula>Table24511[[#This Row],[end_time]]-Table24511[[#This Row],[start_time]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{6BF25E36-BEFE-334C-B53B-9359DA68008A}" name="notes"/>
@@ -1315,9 +1308,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{039AD6AB-0126-1947-A333-DE36DDA0B7E4}" name="Table245" displayName="Table245" ref="A1:D31" totalsRowShown="0">
   <autoFilter ref="A1:D31" xr:uid="{7DCBAB66-89F8-6F47-8D64-FA0C26924201}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{8C37C915-F94A-5148-A3D1-EE8B899AF7F8}" name="start_time" dataDxfId="41"/>
-    <tableColumn id="2" xr3:uid="{B8735F0A-4AB0-C54D-85C0-1F0A63FA3498}" name="end_time" dataDxfId="40"/>
-    <tableColumn id="3" xr3:uid="{12E891A6-DF38-EE41-AC70-EAADDDA13272}" name="time_diff" dataDxfId="39">
+    <tableColumn id="1" xr3:uid="{8C37C915-F94A-5148-A3D1-EE8B899AF7F8}" name="start_time" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{B8735F0A-4AB0-C54D-85C0-1F0A63FA3498}" name="end_time" dataDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{12E891A6-DF38-EE41-AC70-EAADDDA13272}" name="time_diff" dataDxfId="36">
       <calculatedColumnFormula>Table245[[#This Row],[end_time]]-Table245[[#This Row],[start_time]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{F8493A5C-0C25-FD45-A552-FE369F4F3DAD}" name="notes"/>
@@ -1330,9 +1323,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{1A93302E-8621-7D48-88F2-5AC51E7EA3A4}" name="Table24515" displayName="Table24515" ref="A1:D31" totalsRowShown="0">
   <autoFilter ref="A1:D31" xr:uid="{1A93302E-8621-7D48-88F2-5AC51E7EA3A4}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{4542A81A-297E-DB48-B049-9309ACD42F2B}" name="start_time" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{FC99294C-6B9C-9349-BAD2-0D219F840C1B}" name="end_time" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{DBC27D03-BB8D-904E-8022-8B6335C64879}" name="time_diff" dataDxfId="12">
+    <tableColumn id="1" xr3:uid="{4542A81A-297E-DB48-B049-9309ACD42F2B}" name="start_time" dataDxfId="83"/>
+    <tableColumn id="2" xr3:uid="{FC99294C-6B9C-9349-BAD2-0D219F840C1B}" name="end_time" dataDxfId="82"/>
+    <tableColumn id="3" xr3:uid="{DBC27D03-BB8D-904E-8022-8B6335C64879}" name="time_diff" dataDxfId="81">
       <calculatedColumnFormula>Table24515[[#This Row],[end_time]]-Table24515[[#This Row],[start_time]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{D5223D27-0D62-AC4C-857C-038DCA9594DB}" name="notes"/>
@@ -1345,9 +1338,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{1825D363-0D01-614F-8BB6-B82D0839B62E}" name="Table245154" displayName="Table245154" ref="A1:D31" totalsRowShown="0">
   <autoFilter ref="A1:D31" xr:uid="{1A93302E-8621-7D48-88F2-5AC51E7EA3A4}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{85D813AA-3E14-AA49-8764-1AFB1744F6CB}" name="start_time" dataDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{6FA6C7C4-391C-734C-A912-3190038D77AB}" name="end_time" dataDxfId="37"/>
-    <tableColumn id="3" xr3:uid="{9C4583F8-953A-D04B-AA91-7D77A5FF66F0}" name="time_diff" dataDxfId="36">
+    <tableColumn id="1" xr3:uid="{85D813AA-3E14-AA49-8764-1AFB1744F6CB}" name="start_time" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{6FA6C7C4-391C-734C-A912-3190038D77AB}" name="end_time" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{9C4583F8-953A-D04B-AA91-7D77A5FF66F0}" name="time_diff" dataDxfId="33">
       <calculatedColumnFormula>Table245154[[#This Row],[end_time]]-Table245154[[#This Row],[start_time]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{23A25CAD-E05F-1648-AA7C-0B4BD9C1739D}" name="notes"/>
@@ -1360,9 +1353,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{CE45E49D-73E4-8A4C-B1C1-A5F171222BA6}" name="Table24515416" displayName="Table24515416" ref="A1:D31" totalsRowShown="0">
   <autoFilter ref="A1:D31" xr:uid="{1A93302E-8621-7D48-88F2-5AC51E7EA3A4}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{31B61C1F-509B-C549-8AEF-DF0658F2B96B}" name="start_time" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{091F6D25-E362-ED42-9029-E0BCEEAEA850}" name="end_time" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{318940A5-8075-5D4C-BD68-125D391D783D}" name="time_diff" dataDxfId="33">
+    <tableColumn id="1" xr3:uid="{31B61C1F-509B-C549-8AEF-DF0658F2B96B}" name="start_time" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{091F6D25-E362-ED42-9029-E0BCEEAEA850}" name="end_time" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{318940A5-8075-5D4C-BD68-125D391D783D}" name="time_diff" dataDxfId="30">
       <calculatedColumnFormula>Table24515416[[#This Row],[end_time]]-Table24515416[[#This Row],[start_time]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{4ECB2A10-B67B-D84C-9D70-CB15A16921DE}" name="notes"/>
@@ -1375,9 +1368,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{130F2C16-F9C9-CF46-A41B-03CB1D6467B4}" name="Table2451517181920" displayName="Table2451517181920" ref="A1:D31" totalsRowShown="0">
   <autoFilter ref="A1:D31" xr:uid="{1A93302E-8621-7D48-88F2-5AC51E7EA3A4}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{58637CDA-F3F8-FB4F-825C-C88AA91FAD7B}" name="start_time" dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{1096A82C-CDE7-4340-BAF9-3BAA3098CA7F}" name="end_time" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{02C5EC47-6504-E246-90FC-F20CBBDEB705}" name="time_diff" dataDxfId="30">
+    <tableColumn id="1" xr3:uid="{58637CDA-F3F8-FB4F-825C-C88AA91FAD7B}" name="start_time" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{1096A82C-CDE7-4340-BAF9-3BAA3098CA7F}" name="end_time" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{02C5EC47-6504-E246-90FC-F20CBBDEB705}" name="time_diff" dataDxfId="27">
       <calculatedColumnFormula>Table2451517181920[[#This Row],[end_time]]-Table2451517181920[[#This Row],[start_time]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{1469F086-E8DD-C741-AA69-4E9161FE65C0}" name="notes"/>
@@ -1390,9 +1383,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{1029D1F1-1F5A-3E49-AF78-3C0DC1D2F68D}" name="Table24515171819" displayName="Table24515171819" ref="A1:D31" totalsRowShown="0">
   <autoFilter ref="A1:D31" xr:uid="{1A93302E-8621-7D48-88F2-5AC51E7EA3A4}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{044D31B5-AD7A-E643-B833-0826FB3FF28C}" name="start_time" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{65F326FC-ED53-1A4C-B3DE-07B092115C14}" name="end_time" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{FC649FAA-6E56-154B-8877-A16770D51793}" name="time_diff" dataDxfId="27">
+    <tableColumn id="1" xr3:uid="{044D31B5-AD7A-E643-B833-0826FB3FF28C}" name="start_time" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{65F326FC-ED53-1A4C-B3DE-07B092115C14}" name="end_time" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{FC649FAA-6E56-154B-8877-A16770D51793}" name="time_diff" dataDxfId="24">
       <calculatedColumnFormula>Table24515171819[[#This Row],[end_time]]-Table24515171819[[#This Row],[start_time]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{C770E668-C460-4649-98CE-000E807A6F4C}" name="notes"/>
@@ -1405,9 +1398,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{A8099601-2538-9E41-BA1B-CA228C6B7FD8}" name="Table245151718" displayName="Table245151718" ref="A1:D31" totalsRowShown="0">
   <autoFilter ref="A1:D31" xr:uid="{1A93302E-8621-7D48-88F2-5AC51E7EA3A4}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{152C5995-5BCE-0F4A-AB21-E37E5A45CC96}" name="start_time" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{A314440D-1DAD-F747-8091-26BF031D535E}" name="end_time" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{8038CAE0-AE64-A94A-8EEC-196F11CC42FB}" name="time_diff" dataDxfId="24">
+    <tableColumn id="1" xr3:uid="{152C5995-5BCE-0F4A-AB21-E37E5A45CC96}" name="start_time" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{A314440D-1DAD-F747-8091-26BF031D535E}" name="end_time" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{8038CAE0-AE64-A94A-8EEC-196F11CC42FB}" name="time_diff" dataDxfId="21">
       <calculatedColumnFormula>Table245151718[[#This Row],[end_time]]-Table245151718[[#This Row],[start_time]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{E78FDFD8-421B-4B42-8E66-304EDA7C4631}" name="notes"/>
@@ -1420,9 +1413,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{10879581-5376-9648-90EC-5599AE274B37}" name="Table2451517" displayName="Table2451517" ref="A1:D31" totalsRowShown="0">
   <autoFilter ref="A1:D31" xr:uid="{1A93302E-8621-7D48-88F2-5AC51E7EA3A4}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{2036FDA6-A87D-5C41-84BB-E2DE3418E515}" name="start_time" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{63FAF62F-E02F-9344-92DD-A7835371FD15}" name="end_time" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{84451293-C537-C74D-85BC-080896072B82}" name="time_diff" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{2036FDA6-A87D-5C41-84BB-E2DE3418E515}" name="start_time" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{63FAF62F-E02F-9344-92DD-A7835371FD15}" name="end_time" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{84451293-C537-C74D-85BC-080896072B82}" name="time_diff" dataDxfId="18">
       <calculatedColumnFormula>Table2451517[[#This Row],[end_time]]-Table2451517[[#This Row],[start_time]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{D9D1EDB1-9623-3A44-A4BF-E8857517A4BE}" name="notes"/>
@@ -1435,9 +1428,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{2B4E61D6-F073-DC43-BDFC-32D5D661417D}" name="Table2451521" displayName="Table2451521" ref="A1:D31" totalsRowShown="0">
   <autoFilter ref="A1:D31" xr:uid="{1A93302E-8621-7D48-88F2-5AC51E7EA3A4}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{DBDC0137-E30C-354A-87F0-8FC256EE47DD}" name="start_time" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{F3C9949C-5E56-3043-B895-7F1C223F084C}" name="end_time" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{284C38E6-8B60-FF42-B36D-752AB81A0D3E}" name="time_diff" dataDxfId="18">
+    <tableColumn id="1" xr3:uid="{DBDC0137-E30C-354A-87F0-8FC256EE47DD}" name="start_time" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{F3C9949C-5E56-3043-B895-7F1C223F084C}" name="end_time" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{284C38E6-8B60-FF42-B36D-752AB81A0D3E}" name="time_diff" dataDxfId="15">
       <calculatedColumnFormula>Table2451521[[#This Row],[end_time]]-Table2451521[[#This Row],[start_time]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{997FD67A-B2F8-4047-8AFA-B14BF2F18FC2}" name="notes"/>
@@ -1450,9 +1443,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{BA39C582-8A3B-4040-B00B-B16288D1ADEA}" name="Table245152122" displayName="Table245152122" ref="A1:D31" totalsRowShown="0">
   <autoFilter ref="A1:D31" xr:uid="{1A93302E-8621-7D48-88F2-5AC51E7EA3A4}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{25E83ED4-93AC-F047-AF73-BA3F105A6D0A}" name="start_time" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{F0229387-F330-284C-B4AE-1D5D5E6605D1}" name="end_time" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{FEBDECC5-2779-A649-A021-31F708F52761}" name="time_diff" dataDxfId="15">
+    <tableColumn id="1" xr3:uid="{25E83ED4-93AC-F047-AF73-BA3F105A6D0A}" name="start_time" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{F0229387-F330-284C-B4AE-1D5D5E6605D1}" name="end_time" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{FEBDECC5-2779-A649-A021-31F708F52761}" name="time_diff" dataDxfId="12">
       <calculatedColumnFormula>Table245152122[[#This Row],[end_time]]-Table245152122[[#This Row],[start_time]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{AF082110-2951-F84E-8D3A-9165E0C2C148}" name="notes"/>
@@ -1497,7 +1490,7 @@
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{01F56379-480D-E144-8844-79E29F338160}" name="start_time"/>
     <tableColumn id="2" xr3:uid="{80A1EC3F-97BF-2A42-A823-A672AD58C802}" name="end_time"/>
-    <tableColumn id="3" xr3:uid="{F529491E-B189-F14F-8D98-A6DD0470EB40}" name="time_diff" dataDxfId="83">
+    <tableColumn id="3" xr3:uid="{F529491E-B189-F14F-8D98-A6DD0470EB40}" name="time_diff" dataDxfId="80">
       <calculatedColumnFormula>Table2[[#This Row],[end_time]]-Table2[[#This Row],[start_time]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{DC0F7FFE-563B-3E40-AAB4-A68B98253F92}" name="notes"/>
@@ -1542,7 +1535,7 @@
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{7197966F-DB73-A94E-B2AE-FF5E410916CA}" name="start_time"/>
     <tableColumn id="2" xr3:uid="{615965FE-9104-054A-86EF-13FD1960F3F6}" name="end_time"/>
-    <tableColumn id="3" xr3:uid="{B0854C19-C681-7640-AAB6-06872F731D13}" name="time_diff" dataDxfId="82">
+    <tableColumn id="3" xr3:uid="{B0854C19-C681-7640-AAB6-06872F731D13}" name="time_diff" dataDxfId="79">
       <calculatedColumnFormula>Table213[[#This Row],[end_time]]-Table213[[#This Row],[start_time]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{0469E901-54FA-974D-A28F-40EC1AA491CD}" name="notes"/>
@@ -1555,9 +1548,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{DAC55445-B449-1B46-ADAD-5D1EE6A1BD3D}" name="Table246" displayName="Table246" ref="A1:D31" totalsRowShown="0">
   <autoFilter ref="A1:D31" xr:uid="{7DCBAB66-89F8-6F47-8D64-FA0C26924201}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{54C1AFBA-849B-564E-9383-040E585C368C}" name="start_time" dataDxfId="81"/>
-    <tableColumn id="2" xr3:uid="{45F9645E-00F2-4A47-AB06-DBB721851807}" name="end_time" dataDxfId="80"/>
-    <tableColumn id="3" xr3:uid="{D8F0A3A2-BBC5-6D49-8527-799E99BCFA49}" name="time_diff" dataDxfId="79">
+    <tableColumn id="1" xr3:uid="{54C1AFBA-849B-564E-9383-040E585C368C}" name="start_time" dataDxfId="78"/>
+    <tableColumn id="2" xr3:uid="{45F9645E-00F2-4A47-AB06-DBB721851807}" name="end_time" dataDxfId="77"/>
+    <tableColumn id="3" xr3:uid="{D8F0A3A2-BBC5-6D49-8527-799E99BCFA49}" name="time_diff" dataDxfId="76">
       <calculatedColumnFormula>Table246[[#This Row],[end_time]]-Table246[[#This Row],[start_time]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{838825F0-239B-C440-9C0B-3A9D1E9C0D95}" name="notes"/>
@@ -1572,7 +1565,7 @@
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{97B35572-DA30-684F-B3E5-729DB08045CE}" name="start_time"/>
     <tableColumn id="2" xr3:uid="{CB979489-F330-CB47-ACD8-45591E7E6177}" name="end_time"/>
-    <tableColumn id="3" xr3:uid="{C2A1FF6A-8B35-0348-85B8-BCECB7F2BCFE}" name="time_diff" dataDxfId="78">
+    <tableColumn id="3" xr3:uid="{C2A1FF6A-8B35-0348-85B8-BCECB7F2BCFE}" name="time_diff" dataDxfId="75">
       <calculatedColumnFormula>Table21314[[#This Row],[end_time]]-Table21314[[#This Row],[start_time]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{C144438C-DE22-7644-A5DB-5310B9F06FD7}" name="notes"/>
@@ -1585,9 +1578,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{BB18B32E-8D1B-4E40-800B-981F430F8CDD}" name="Table24515345678" displayName="Table24515345678" ref="A1:D31" totalsRowShown="0">
   <autoFilter ref="A1:D31" xr:uid="{1A93302E-8621-7D48-88F2-5AC51E7EA3A4}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{9D16D395-E4E3-DB45-90F5-E5327318AF10}" name="start_time" dataDxfId="77"/>
-    <tableColumn id="2" xr3:uid="{6060AEBF-3E3A-5A47-BE28-82B21D4A9A71}" name="end_time" dataDxfId="76"/>
-    <tableColumn id="3" xr3:uid="{B44166A9-5F8E-0847-90D8-CD1B96CFFCBD}" name="time_diff" dataDxfId="75">
+    <tableColumn id="1" xr3:uid="{9D16D395-E4E3-DB45-90F5-E5327318AF10}" name="start_time" dataDxfId="74"/>
+    <tableColumn id="2" xr3:uid="{6060AEBF-3E3A-5A47-BE28-82B21D4A9A71}" name="end_time" dataDxfId="73"/>
+    <tableColumn id="3" xr3:uid="{B44166A9-5F8E-0847-90D8-CD1B96CFFCBD}" name="time_diff" dataDxfId="72">
       <calculatedColumnFormula>Table24515345678[[#This Row],[end_time]]-Table24515345678[[#This Row],[start_time]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{622F2CC9-1E07-0745-BD46-0FF8E04F606C}" name="notes"/>
@@ -1600,9 +1593,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{C3F9313B-C284-1146-B033-93DD207396CF}" name="Table2451534567" displayName="Table2451534567" ref="A1:D31" totalsRowShown="0">
   <autoFilter ref="A1:D31" xr:uid="{1A93302E-8621-7D48-88F2-5AC51E7EA3A4}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{C2F60EB9-3A21-F943-85B0-6892CFC0EFE9}" name="start_time" dataDxfId="74"/>
-    <tableColumn id="2" xr3:uid="{B9B7F5F7-DC74-FC4D-8DE1-ABE02D48F190}" name="end_time" dataDxfId="73"/>
-    <tableColumn id="3" xr3:uid="{EBD1F883-E2BA-6049-9C36-BA4E73D36AAC}" name="time_diff" dataDxfId="72">
+    <tableColumn id="1" xr3:uid="{C2F60EB9-3A21-F943-85B0-6892CFC0EFE9}" name="start_time" dataDxfId="71"/>
+    <tableColumn id="2" xr3:uid="{B9B7F5F7-DC74-FC4D-8DE1-ABE02D48F190}" name="end_time" dataDxfId="70"/>
+    <tableColumn id="3" xr3:uid="{EBD1F883-E2BA-6049-9C36-BA4E73D36AAC}" name="time_diff" dataDxfId="69">
       <calculatedColumnFormula>Table2451534567[[#This Row],[end_time]]-Table2451534567[[#This Row],[start_time]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{9BD53916-30AA-4E4F-989F-570ACDB86B60}" name="notes"/>
@@ -1615,9 +1608,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{C7DEA103-B67A-0B49-99E5-BEE70970D4BB}" name="Table247" displayName="Table247" ref="A1:D31" totalsRowShown="0">
   <autoFilter ref="A1:D31" xr:uid="{7DCBAB66-89F8-6F47-8D64-FA0C26924201}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{CB152735-EDBE-5144-8A33-370189AD9329}" name="start_time" dataDxfId="71"/>
-    <tableColumn id="2" xr3:uid="{78FDD20A-A666-E94B-A38C-0886D5E9FD55}" name="end_time" dataDxfId="70"/>
-    <tableColumn id="3" xr3:uid="{AE363FE2-700D-BC49-BD68-6E6DB6F05C17}" name="time_diff" dataDxfId="69">
+    <tableColumn id="1" xr3:uid="{CB152735-EDBE-5144-8A33-370189AD9329}" name="start_time" dataDxfId="68"/>
+    <tableColumn id="2" xr3:uid="{78FDD20A-A666-E94B-A38C-0886D5E9FD55}" name="end_time" dataDxfId="67"/>
+    <tableColumn id="3" xr3:uid="{AE363FE2-700D-BC49-BD68-6E6DB6F05C17}" name="time_diff" dataDxfId="66">
       <calculatedColumnFormula>Table247[[#This Row],[end_time]]-Table247[[#This Row],[start_time]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{CCA0740F-5707-C44E-AA57-B44DAE132805}" name="notes"/>
@@ -2007,7 +2000,7 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
@@ -2017,12 +2010,12 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
@@ -2032,47 +2025,47 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2582,14 +2575,14 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C33" s="6">
         <f>HOUR(SUM(Table245153456[time_diff]))*3600 + MINUTE(SUM(Table245153456[time_diff])) * 60 + SECOND(SUM(Table245153456[time_diff]))</f>
         <v>332</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G33" s="11"/>
       <c r="H33" s="6">
@@ -2673,7 +2666,7 @@
         <v>1.6203703703704386E-4</v>
       </c>
       <c r="D2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
@@ -2695,7 +2688,7 @@
         <v>1.2731481481481621E-4</v>
       </c>
       <c r="D3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
@@ -2717,7 +2710,7 @@
         <v>1.9675925925932702E-4</v>
       </c>
       <c r="D4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
@@ -3145,14 +3138,14 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C33" s="6">
         <f>HOUR(SUM(Table24515345[time_diff]))*3600 + MINUTE(SUM(Table24515345[time_diff])) * 60 + SECOND(SUM(Table24515345[time_diff]))</f>
         <v>63</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G33" s="11"/>
       <c r="H33" s="6">
@@ -3293,7 +3286,7 @@
         <v>2.1990740740740478E-3</v>
       </c>
       <c r="D5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
@@ -3702,14 +3695,14 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C33" s="6">
         <f>HOUR(SUM(Table2451534[time_diff]))*3600 + MINUTE(SUM(Table2451534[time_diff])) * 60 + SECOND(SUM(Table2451534[time_diff]))</f>
         <v>270</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G33" s="11"/>
       <c r="H33" s="6">
@@ -3808,7 +3801,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
@@ -4247,14 +4240,14 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C33" s="6">
         <f>HOUR(SUM(Table245153[time_diff]))*3600 + MINUTE(SUM(Table245153[time_diff])) * 60 + SECOND(SUM(Table245153[time_diff]))</f>
         <v>211</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G33" s="11"/>
       <c r="H33" s="6">
@@ -4338,7 +4331,7 @@
         <v>2.418981481481508E-3</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F2" s="14">
         <v>0.71141203703703704</v>
@@ -4364,7 +4357,7 @@
         <v>6.3888888888888884E-3</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F3" s="16">
         <v>0.52440972222222226</v>
@@ -4388,7 +4381,7 @@
         <v>1.215277777777779E-2</v>
       </c>
       <c r="D4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
@@ -4793,14 +4786,14 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C33" s="6">
         <f>HOUR(SUM(Table248[time_diff]))*3600 + MINUTE(SUM(Table248[time_diff])) * 60 + SECOND(SUM(Table248[time_diff]))</f>
         <v>1993</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G33" s="11"/>
       <c r="H33" s="6" t="e">
@@ -4962,7 +4955,7 @@
         <v>1.4004629629629645E-3</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
@@ -5366,14 +5359,14 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C33" s="6">
         <f>HOUR(SUM(Table2410[time_diff]))*3600 + MINUTE(SUM(Table2410[time_diff])) * 60 + SECOND(SUM(Table2410[time_diff]))</f>
         <v>1734</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G33" s="11"/>
       <c r="H33" s="6">
@@ -5939,14 +5932,14 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C33" s="6">
         <f>HOUR(SUM(Table249[time_diff]))*3600 + MINUTE(SUM(Table249[time_diff])) * 60 + SECOND(SUM(Table249[time_diff]))</f>
         <v>463</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G33" s="11"/>
       <c r="H33" s="6">
@@ -6068,7 +6061,7 @@
         <v>8.2870370370370372E-3</v>
       </c>
       <c r="D2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F2" s="14">
         <v>7.2511574074074076E-2</v>
@@ -6081,7 +6074,7 @@
         <v>1.4675925925925926E-2</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -6096,7 +6089,7 @@
         <v>6.7824074074074314E-3</v>
       </c>
       <c r="D3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F3" s="16">
         <v>8.9803240740740739E-2</v>
@@ -6122,7 +6115,7 @@
         <v>7.0370370370369528E-3</v>
       </c>
       <c r="D4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
@@ -6524,14 +6517,14 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C33" s="6">
         <f>HOUR(SUM(Table24511[time_diff]))*3600 + MINUTE(SUM(Table24511[time_diff])) * 60 + SECOND(SUM(Table24511[time_diff]))</f>
         <v>2043</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G33" s="11"/>
       <c r="H33" s="6">
@@ -7084,14 +7077,14 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C33" s="6">
         <f>HOUR(SUM(Table245[time_diff]))*3600 + MINUTE(SUM(Table245[time_diff])) * 60 + SECOND(SUM(Table245[time_diff]))</f>
         <v>568</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G33" s="11"/>
       <c r="H33" s="6">
@@ -7215,7 +7208,7 @@
         <v>1.4918981481481408E-2</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F2" s="14">
         <v>0.80343750000000003</v>
@@ -7241,7 +7234,7 @@
         <v>2.1875000000000089E-3</v>
       </c>
       <c r="D3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F3" s="16">
         <v>0.81846064814814812</v>
@@ -7254,7 +7247,7 @@
         <v>1.4780092592592609E-2</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -7690,14 +7683,14 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C33" s="6">
         <f>HOUR(SUM(Table245154[time_diff]))*3600 + MINUTE(SUM(Table245154[time_diff])) * 60 + SECOND(SUM(Table245154[time_diff]))</f>
         <v>1478</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G33" s="11"/>
       <c r="H33" s="6">
@@ -7754,687 +7747,656 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8F4A8F4-AAF9-534C-A76C-45D54A4AA321}">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.6640625" style="6" hidden="1" customWidth="1"/>
-    <col min="3" max="5" width="11.5" style="6" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="53.33203125" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" customWidth="1"/>
+    <col min="2" max="4" width="11.5" style="6" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="53.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="6">
-        <v>21600</v>
+        <v>2801</v>
       </c>
       <c r="C2" s="6">
-        <v>2801</v>
-      </c>
-      <c r="D2" s="6">
         <v>6452</v>
       </c>
+      <c r="D2" s="6" t="s">
+        <v>98</v>
+      </c>
       <c r="E2" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="6">
-        <v>17100</v>
+        <v>3965</v>
       </c>
       <c r="C3" s="6">
-        <v>3965</v>
-      </c>
-      <c r="D3" s="6">
         <v>5536</v>
       </c>
+      <c r="D3" s="6" t="s">
+        <v>98</v>
+      </c>
       <c r="E3" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C4" s="6">
+        <v>126</v>
+      </c>
+      <c r="B4" s="6">
         <v>11</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>132</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="3" t="s">
+      <c r="F4" s="2"/>
+      <c r="G4" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5" s="6">
+        <v>57</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C5" s="6">
-        <v>57</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B6" s="6">
+        <v>2075</v>
+      </c>
       <c r="C6" s="6">
-        <v>2075</v>
-      </c>
-      <c r="D6" s="6">
         <v>5374</v>
       </c>
+      <c r="D6" s="6" t="s">
+        <v>98</v>
+      </c>
       <c r="E6" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G6" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" s="6">
+        <v>332</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" s="6">
         <v>63</v>
       </c>
-      <c r="H6" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C7" s="6">
-        <v>332</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="8" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C8" s="6">
-        <v>63</v>
+      <c r="D8" s="6" t="s">
+        <v>132</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="8" t="s">
+      <c r="F8" s="2"/>
+      <c r="G8" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B9" s="6">
+        <v>270</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="8" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C9" s="6">
-        <v>270</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="D10" s="6" t="s">
         <v>132</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G10" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="6">
-        <v>17760</v>
-      </c>
-      <c r="C11" s="6">
         <v>1993</v>
       </c>
-      <c r="D11" s="21">
+      <c r="C11" s="21">
         <v>8040</v>
       </c>
+      <c r="D11" s="6" t="s">
+        <v>98</v>
+      </c>
       <c r="E11" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="H11" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="G12" s="2" t="s">
+      <c r="D12" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="6">
-        <v>8880</v>
+        <v>1734</v>
       </c>
       <c r="C13" s="6">
-        <v>1734</v>
-      </c>
-      <c r="D13" s="6">
         <v>2919</v>
       </c>
+      <c r="D13" s="6" t="s">
+        <v>98</v>
+      </c>
       <c r="E13" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="6">
-        <v>8760</v>
+        <v>463</v>
       </c>
       <c r="C14" s="6">
-        <v>463</v>
-      </c>
-      <c r="D14" s="6">
         <v>2160</v>
       </c>
+      <c r="D14" s="6" t="s">
+        <v>99</v>
+      </c>
       <c r="E14" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="6">
+        <v>2043</v>
+      </c>
+      <c r="C15" s="6">
+        <v>4175</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="6">
+        <v>568</v>
+      </c>
+      <c r="C16" s="6">
+        <v>1284</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" s="6">
+        <v>1478</v>
+      </c>
+      <c r="C17" s="6">
+        <v>2938</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="6">
+        <v>2486</v>
+      </c>
+      <c r="C18" s="6">
+        <v>3752</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" s="6">
+        <v>2808</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" s="6">
+        <v>3937</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21" s="6">
+        <v>3340</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B22" s="6">
+        <v>2171</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="B23" s="6">
+        <v>2594</v>
+      </c>
+      <c r="C23" s="6">
+        <v>2173</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E23" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" s="6">
-        <v>12840</v>
-      </c>
-      <c r="C15" s="6">
-        <v>2043</v>
-      </c>
-      <c r="D15" s="6">
-        <v>4175</v>
-      </c>
-      <c r="E15" s="6" t="s">
+      <c r="F23" s="2"/>
+      <c r="G23" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B24" s="6">
+        <v>935</v>
+      </c>
+      <c r="C24" s="6">
+        <v>2940</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>141</v>
+      </c>
+      <c r="B25" s="6">
+        <v>3180</v>
+      </c>
+      <c r="C25" s="6">
+        <v>7079</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="F15" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" s="6">
-        <v>9600</v>
-      </c>
-      <c r="C16" s="6">
-        <v>568</v>
-      </c>
-      <c r="D16" s="6">
-        <v>1284</v>
-      </c>
-      <c r="E16" s="6" t="s">
+      <c r="E25" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>142</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="F16" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B17" s="6">
-        <v>10020</v>
-      </c>
-      <c r="C17" s="6">
-        <v>1478</v>
-      </c>
-      <c r="D17" s="6">
-        <v>2938</v>
-      </c>
-      <c r="E17" s="6" t="s">
+      <c r="E26" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>143</v>
+      </c>
+      <c r="B27" s="6">
+        <v>304</v>
+      </c>
+      <c r="C27" s="6">
+        <v>946</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="F17" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B18" s="6">
-        <v>11340</v>
-      </c>
-      <c r="C18" s="6">
-        <v>2486</v>
-      </c>
-      <c r="D18" s="6">
-        <v>3752</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C19" s="6">
-        <v>2808</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C20" s="6">
-        <v>3937</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C21" s="6">
-        <v>3340</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C22" s="6">
-        <v>2171</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C23" s="6">
-        <v>2594</v>
-      </c>
-      <c r="D23" s="6">
-        <v>2173</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C24" s="6">
-        <v>935</v>
-      </c>
-      <c r="D24" s="6">
-        <v>2940</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>142</v>
-      </c>
-      <c r="C25" s="6">
-        <v>3180</v>
-      </c>
-      <c r="D25" s="6">
-        <v>7079</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>143</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="E27" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>144</v>
       </c>
-      <c r="C27" s="6">
-        <v>304</v>
-      </c>
-      <c r="D27" s="6">
-        <v>946</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>145</v>
+      <c r="B28" s="6">
+        <v>1338</v>
       </c>
       <c r="C28" s="6">
-        <v>1338</v>
-      </c>
-      <c r="D28" s="6">
         <v>2104</v>
       </c>
+      <c r="D28" s="6" t="s">
+        <v>98</v>
+      </c>
       <c r="E28" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
-      <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
-      <c r="G30" s="2"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
-      <c r="G31" s="2"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
-      <c r="G32" s="2"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
-      <c r="G33" s="2"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
-      <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
-      <c r="G35" s="2"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
-      <c r="G36" s="2"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
-      <c r="G37" s="2"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
-      <c r="G38" s="2"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
-      <c r="G39" s="2"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G43" s="4"/>
+      <c r="F39" s="2"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F43" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H14" r:id="rId1" xr:uid="{3970856A-E4AF-1A43-8B70-57FFA8C06E25}"/>
-    <hyperlink ref="H2" r:id="rId2" xr:uid="{71A5A8C1-A76B-A547-AF17-C69B3E893425}"/>
-    <hyperlink ref="H3" r:id="rId3" xr:uid="{DF7CF82C-9943-0245-B3E6-EDC7EA7731CC}"/>
-    <hyperlink ref="H6" r:id="rId4" xr:uid="{FBBBD265-3861-6B4B-9F87-EC807EFC88D7}"/>
-    <hyperlink ref="H11" r:id="rId5" xr:uid="{7A03C22B-A196-704B-A213-4637F9EBDC90}"/>
-    <hyperlink ref="H13" r:id="rId6" xr:uid="{690F8EF1-089F-EC4D-A9A6-2859C8C8EB25}"/>
-    <hyperlink ref="H15" r:id="rId7" xr:uid="{3DBA40E2-94AD-4845-AA90-D92036F9A7B1}"/>
-    <hyperlink ref="H16" r:id="rId8" xr:uid="{53E20B43-9ECF-BE46-AB3C-B2592713D701}"/>
-    <hyperlink ref="H20" r:id="rId9" xr:uid="{A6808D0E-445B-4C43-B4CD-98A767AEB45B}"/>
-    <hyperlink ref="H21" r:id="rId10" xr:uid="{1DF6C634-3492-DF49-9B55-296CB7CE64EB}"/>
-    <hyperlink ref="H22" r:id="rId11" xr:uid="{A85B1F2E-045A-B349-B848-E27125F76862}"/>
-    <hyperlink ref="H23" r:id="rId12" xr:uid="{F06AF91C-D4F5-BD4C-9E18-976763431CA8}"/>
-    <hyperlink ref="H24" r:id="rId13" xr:uid="{95E2EE1A-30AE-7C4A-82F1-ED430130C367}"/>
-    <hyperlink ref="H19" r:id="rId14" xr:uid="{AF18FFE3-5AD8-8B48-8774-27DF0448ED9B}"/>
-    <hyperlink ref="H17" r:id="rId15" xr:uid="{35914E4E-7CCE-DE4A-A86A-0832DC959DC1}"/>
-    <hyperlink ref="H18" r:id="rId16" xr:uid="{784B45B9-C4BE-7D45-8FB1-6D503B59F376}"/>
-    <hyperlink ref="H4" r:id="rId17" xr:uid="{C0B8A36A-046E-3141-9017-4AC27F374259}"/>
-    <hyperlink ref="H5" r:id="rId18" xr:uid="{ADB51FDF-90FB-8A45-AA7E-18F05E1E9EB4}"/>
-    <hyperlink ref="H7" r:id="rId19" xr:uid="{11FD46F8-273A-E846-8AC0-C83F764C748C}"/>
-    <hyperlink ref="H8" r:id="rId20" xr:uid="{4FCC054F-5CCF-1E42-9C0C-99382735F0ED}"/>
-    <hyperlink ref="H9" r:id="rId21" xr:uid="{37826A8D-6640-404E-875A-27B18FF4D5C9}"/>
-    <hyperlink ref="H10" r:id="rId22" xr:uid="{DF13A713-B84F-2745-A551-24144146FC0C}"/>
-    <hyperlink ref="H25" r:id="rId23" xr:uid="{0AED20DD-F5D7-9E4F-B740-8DE91A23F30A}"/>
-    <hyperlink ref="H26" r:id="rId24" xr:uid="{4BB18C29-3E47-F944-B221-2FBC408E879F}"/>
-    <hyperlink ref="H27" r:id="rId25" xr:uid="{D1899722-4A7F-C740-9D85-BB0987A5689C}"/>
-    <hyperlink ref="H28" r:id="rId26" xr:uid="{238BB9F0-EE8E-7B41-B4BB-814C938F8075}"/>
+    <hyperlink ref="G14" r:id="rId1" xr:uid="{3970856A-E4AF-1A43-8B70-57FFA8C06E25}"/>
+    <hyperlink ref="G2" r:id="rId2" xr:uid="{71A5A8C1-A76B-A547-AF17-C69B3E893425}"/>
+    <hyperlink ref="G3" r:id="rId3" xr:uid="{DF7CF82C-9943-0245-B3E6-EDC7EA7731CC}"/>
+    <hyperlink ref="G6" r:id="rId4" xr:uid="{FBBBD265-3861-6B4B-9F87-EC807EFC88D7}"/>
+    <hyperlink ref="G11" r:id="rId5" xr:uid="{7A03C22B-A196-704B-A213-4637F9EBDC90}"/>
+    <hyperlink ref="G13" r:id="rId6" xr:uid="{690F8EF1-089F-EC4D-A9A6-2859C8C8EB25}"/>
+    <hyperlink ref="G15" r:id="rId7" xr:uid="{3DBA40E2-94AD-4845-AA90-D92036F9A7B1}"/>
+    <hyperlink ref="G16" r:id="rId8" xr:uid="{53E20B43-9ECF-BE46-AB3C-B2592713D701}"/>
+    <hyperlink ref="G20" r:id="rId9" xr:uid="{A6808D0E-445B-4C43-B4CD-98A767AEB45B}"/>
+    <hyperlink ref="G21" r:id="rId10" xr:uid="{1DF6C634-3492-DF49-9B55-296CB7CE64EB}"/>
+    <hyperlink ref="G22" r:id="rId11" xr:uid="{A85B1F2E-045A-B349-B848-E27125F76862}"/>
+    <hyperlink ref="G23" r:id="rId12" xr:uid="{F06AF91C-D4F5-BD4C-9E18-976763431CA8}"/>
+    <hyperlink ref="G24" r:id="rId13" xr:uid="{95E2EE1A-30AE-7C4A-82F1-ED430130C367}"/>
+    <hyperlink ref="G19" r:id="rId14" xr:uid="{AF18FFE3-5AD8-8B48-8774-27DF0448ED9B}"/>
+    <hyperlink ref="G17" r:id="rId15" xr:uid="{35914E4E-7CCE-DE4A-A86A-0832DC959DC1}"/>
+    <hyperlink ref="G18" r:id="rId16" xr:uid="{784B45B9-C4BE-7D45-8FB1-6D503B59F376}"/>
+    <hyperlink ref="G4" r:id="rId17" xr:uid="{C0B8A36A-046E-3141-9017-4AC27F374259}"/>
+    <hyperlink ref="G5" r:id="rId18" xr:uid="{ADB51FDF-90FB-8A45-AA7E-18F05E1E9EB4}"/>
+    <hyperlink ref="G7" r:id="rId19" xr:uid="{11FD46F8-273A-E846-8AC0-C83F764C748C}"/>
+    <hyperlink ref="G8" r:id="rId20" xr:uid="{4FCC054F-5CCF-1E42-9C0C-99382735F0ED}"/>
+    <hyperlink ref="G9" r:id="rId21" xr:uid="{37826A8D-6640-404E-875A-27B18FF4D5C9}"/>
+    <hyperlink ref="G10" r:id="rId22" xr:uid="{DF13A713-B84F-2745-A551-24144146FC0C}"/>
+    <hyperlink ref="G25" r:id="rId23" xr:uid="{0AED20DD-F5D7-9E4F-B740-8DE91A23F30A}"/>
+    <hyperlink ref="G26" r:id="rId24" xr:uid="{4BB18C29-3E47-F944-B221-2FBC408E879F}"/>
+    <hyperlink ref="G27" r:id="rId25" xr:uid="{D1899722-4A7F-C740-9D85-BB0987A5689C}"/>
+    <hyperlink ref="G28" r:id="rId26" xr:uid="{238BB9F0-EE8E-7B41-B4BB-814C938F8075}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -8494,7 +8456,7 @@
         <v>1.8287037037036935E-2</v>
       </c>
       <c r="D2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F2" s="14">
         <v>0.64094907407407409</v>
@@ -8520,7 +8482,7 @@
         <v>6.5393518518518379E-3</v>
       </c>
       <c r="D3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F3" s="16">
         <v>0.6681597222222222</v>
@@ -8971,14 +8933,14 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C33" s="6">
         <f>HOUR(SUM(Table24515416[time_diff]))*3600 + MINUTE(SUM(Table24515416[time_diff])) * 60 + SECOND(SUM(Table24515416[time_diff]))</f>
         <v>2486</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G33" s="11"/>
       <c r="H33" s="6">
@@ -9090,7 +9052,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -9537,14 +9499,14 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C33" s="6">
         <f>HOUR(SUM(Table2451517181920[time_diff]))*3600 + MINUTE(SUM(Table2451517181920[time_diff])) * 60 + SECOND(SUM(Table2451517181920[time_diff]))</f>
         <v>2808</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G33" s="11"/>
       <c r="H33" s="6">
@@ -9628,7 +9590,7 @@
         <v>3.4502314814814805E-2</v>
       </c>
       <c r="D2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
@@ -9637,7 +9599,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -10088,14 +10050,14 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C33" s="6">
         <f>HOUR(SUM(Table24515171819[time_diff]))*3600 + MINUTE(SUM(Table24515171819[time_diff])) * 60 + SECOND(SUM(Table24515171819[time_diff]))</f>
         <v>3937</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G33" s="11"/>
       <c r="H33" s="6">
@@ -10179,7 +10141,7 @@
         <v>3.0567129629629652E-2</v>
       </c>
       <c r="D2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
@@ -10188,7 +10150,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -10639,14 +10601,14 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C33" s="6">
         <f>HOUR(SUM(Table245151718[time_diff]))*3600 + MINUTE(SUM(Table245151718[time_diff])) * 60 + SECOND(SUM(Table245151718[time_diff]))</f>
         <v>3340</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G33" s="11"/>
       <c r="H33" s="6">
@@ -10736,7 +10698,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -11187,14 +11149,14 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C33" s="6">
         <f>HOUR(SUM(Table2451517[time_diff]))*3600 + MINUTE(SUM(Table2451517[time_diff])) * 60 + SECOND(SUM(Table2451517[time_diff]))</f>
         <v>2171</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G33" s="11"/>
       <c r="H33" s="6">
@@ -11733,14 +11695,14 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C33" s="6">
         <f>HOUR(SUM(Table2451521[time_diff]))*3600 + MINUTE(SUM(Table2451521[time_diff])) * 60 + SECOND(SUM(Table2451521[time_diff]))</f>
         <v>2594</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G33" s="11"/>
       <c r="H33" s="6">
@@ -12279,14 +12241,14 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C33" s="6">
         <f>HOUR(SUM(Table245152122[time_diff]))*3600 + MINUTE(SUM(Table245152122[time_diff])) * 60 + SECOND(SUM(Table245152122[time_diff]))</f>
         <v>935</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G33" s="11"/>
       <c r="H33" s="6">
@@ -12370,7 +12332,7 @@
         <v>1.9791666666666652E-2</v>
       </c>
       <c r="D2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F2" s="14">
         <v>0.50756944444444441</v>
@@ -12383,7 +12345,7 @@
         <v>7.3564814814814805E-2</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -12398,7 +12360,7 @@
         <v>2.4305555555559355E-4</v>
       </c>
       <c r="D3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F3" s="16">
         <v>0.58136574074074077</v>
@@ -12424,7 +12386,7 @@
         <v>1.3194444444444287E-3</v>
       </c>
       <c r="D4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F4" s="14">
         <v>0.58384259259259264</v>
@@ -12450,7 +12412,7 @@
         <v>7.0601851851859188E-4</v>
       </c>
       <c r="D5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
@@ -12472,7 +12434,7 @@
         <v>2.9976851851851727E-3</v>
       </c>
       <c r="D6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
@@ -12494,7 +12456,7 @@
         <v>1.5277777777777946E-3</v>
       </c>
       <c r="D7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
@@ -12516,7 +12478,7 @@
         <v>1.6087962962962887E-3</v>
       </c>
       <c r="D8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
@@ -12538,7 +12500,7 @@
         <v>2.0601851851852482E-3</v>
       </c>
       <c r="D9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
@@ -12560,7 +12522,7 @@
         <v>2.4421296296296413E-3</v>
       </c>
       <c r="D10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
@@ -12582,7 +12544,7 @@
         <v>2.2106481481481977E-3</v>
       </c>
       <c r="D11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -12604,7 +12566,7 @@
         <v>2.1990740740740478E-4</v>
       </c>
       <c r="D12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
@@ -12626,7 +12588,7 @@
         <v>1.5046296296294948E-4</v>
       </c>
       <c r="D13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
@@ -12648,7 +12610,7 @@
         <v>1.5277777777777946E-3</v>
       </c>
       <c r="D14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
@@ -12922,14 +12884,14 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C33" s="6">
         <f>HOUR(SUM(Table2451529[time_diff]))*3600 + MINUTE(SUM(Table2451529[time_diff])) * 60 + SECOND(SUM(Table2451529[time_diff]))</f>
         <v>3180</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G33" s="11"/>
       <c r="H33" s="6">
@@ -13460,14 +13422,14 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C33" s="6">
         <f>HOUR(SUM(Table245152930[time_diff]))*3600 + MINUTE(SUM(Table245152930[time_diff])) * 60 + SECOND(SUM(Table245152930[time_diff]))</f>
         <v>0</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G33" s="11"/>
       <c r="H33" s="6">
@@ -13551,7 +13513,7 @@
         <v>4.5138888888895945E-4</v>
       </c>
       <c r="D2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F2" s="14">
         <v>0.85078703703703706</v>
@@ -13577,7 +13539,7 @@
         <v>3.067129629629628E-3</v>
       </c>
       <c r="D3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
@@ -14016,14 +13978,14 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C33" s="6">
         <f>HOUR(SUM(Table245152931[time_diff]))*3600 + MINUTE(SUM(Table245152931[time_diff])) * 60 + SECOND(SUM(Table245152931[time_diff]))</f>
         <v>304</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G33" s="11"/>
       <c r="H33" s="6">
@@ -14554,14 +14516,14 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C33" s="6">
         <f>HOUR(SUM(Table24515[time_diff]))*3600 + MINUTE(SUM(Table24515[time_diff])) * 60 + SECOND(SUM(Table24515[time_diff]))</f>
         <v>0</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G33" s="11"/>
       <c r="H33" s="6">
@@ -14645,7 +14607,7 @@
         <v>1.4490740740740748E-2</v>
       </c>
       <c r="D2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F2" s="14">
         <v>0.64076388888888891</v>
@@ -15115,14 +15077,14 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C33" s="6">
         <f>HOUR(SUM(Table24515293132[time_diff]))*3600 + MINUTE(SUM(Table24515293132[time_diff])) * 60 + SECOND(SUM(Table24515293132[time_diff]))</f>
         <v>1338</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G33" s="11"/>
       <c r="H33" s="6">
@@ -15576,14 +15538,14 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C33" s="6">
         <f>HOUR(SUM(Table2[time_diff]))*3600 + MINUTE(SUM(Table2[time_diff])) * 60 + SECOND(SUM(Table2[time_diff]))</f>
         <v>2801</v>
       </c>
       <c r="F33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H33" s="6">
         <f>HOUR(SUM(Table213[time_diff]))*3600 + MINUTE(SUM(Table213[time_diff])) * 60 + SECOND(SUM(Table213[time_diff]))</f>
@@ -15687,7 +15649,7 @@
         <v>1.4351851851851921E-3</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F2" s="4">
         <v>9.087962962962963E-2</v>
@@ -15712,7 +15674,7 @@
         <v>4.1666666666666657E-3</v>
       </c>
       <c r="D3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H3" s="4">
         <f>Table21314[[#This Row],[end_time]]-Table21314[[#This Row],[start_time]]</f>
@@ -15731,7 +15693,7 @@
         <v>5.277777777777784E-3</v>
       </c>
       <c r="D4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -16107,14 +16069,14 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C33" s="6">
         <f>HOUR(SUM(Table246[time_diff]))*3600 + MINUTE(SUM(Table246[time_diff])) * 60 + SECOND(SUM(Table246[time_diff]))</f>
         <v>3965</v>
       </c>
       <c r="F33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H33" s="6">
         <f>HOUR(SUM(Table21314[time_diff]))*3600 + MINUTE(SUM(Table21314[time_diff])) * 60 + SECOND(SUM(Table21314[time_diff]))</f>
@@ -16678,14 +16640,14 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C33" s="6">
         <f>HOUR(SUM(Table24515345678[time_diff]))*3600 + MINUTE(SUM(Table24515345678[time_diff])) * 60 + SECOND(SUM(Table24515345678[time_diff]))</f>
         <v>11</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G33" s="11"/>
       <c r="H33" s="6">
@@ -16769,7 +16731,7 @@
         <v>1.9675925925927151E-4</v>
       </c>
       <c r="D2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
@@ -17227,14 +17189,14 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C33" s="6">
         <f>HOUR(SUM(Table2451534567[time_diff]))*3600 + MINUTE(SUM(Table2451534567[time_diff])) * 60 + SECOND(SUM(Table2451534567[time_diff]))</f>
         <v>57</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G33" s="11"/>
       <c r="H33" s="6">
@@ -17344,7 +17306,7 @@
         <v>1.3425925925926174E-3</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F3" s="16">
         <v>0.63871527777777781</v>
@@ -17370,7 +17332,7 @@
         <v>6.1111111111110672E-3</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F4" s="14">
         <v>0.66612268518518514</v>
@@ -17396,7 +17358,7 @@
         <v>2.8819444444444448E-3</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F5" s="16">
         <v>0.69787037037037036</v>
@@ -17782,14 +17744,14 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C33" s="6">
         <f>HOUR(SUM(Table247[time_diff]))*3600 + MINUTE(SUM(Table247[time_diff])) * 60 + SECOND(SUM(Table247[time_diff]))</f>
         <v>2075</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G33" s="11"/>
       <c r="H33" s="6">
@@ -17999,7 +17961,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -18140,7 +18102,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C33" s="6">
         <f>HOUR(SUM(Table24812[time_diff]))*3600 + MINUTE(SUM(Table24812[time_diff])) * 60 + SECOND(SUM(Table24812[time_diff]))</f>
@@ -18190,26 +18152,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3322fca5-43da-49d1-b081-466ee88b9b9d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="08edd21d-9f77-405a-872a-1371c16ee465" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BF6C17F5D6D98C42BF7485206F8FA016" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d5edc83b350af0a5b53db876fcbb948f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3322fca5-43da-49d1-b081-466ee88b9b9d" xmlns:ns3="08edd21d-9f77-405a-872a-1371c16ee465" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="af4f449426634c4d4ecdf601b9961ca0" ns2:_="" ns3:_="">
     <xsd:import namespace="3322fca5-43da-49d1-b081-466ee88b9b9d"/>
@@ -18444,10 +18386,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3322fca5-43da-49d1-b081-466ee88b9b9d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="08edd21d-9f77-405a-872a-1371c16ee465" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84C9AB0F-2376-4442-8FD0-7F9F6F9B731B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B10E5675-4834-416E-A2AA-AFEE37EB2CC0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3322fca5-43da-49d1-b081-466ee88b9b9d"/>
+    <ds:schemaRef ds:uri="08edd21d-9f77-405a-872a-1371c16ee465"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -18470,20 +18443,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B10E5675-4834-416E-A2AA-AFEE37EB2CC0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84C9AB0F-2376-4442-8FD0-7F9F6F9B731B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3322fca5-43da-49d1-b081-466ee88b9b9d"/>
-    <ds:schemaRef ds:uri="08edd21d-9f77-405a-872a-1371c16ee465"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/raw/VCAS-rove_time.xlsx
+++ b/data/raw/VCAS-rove_time.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathansalas/R_Projects/VCAS1_prelim_efficiency/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B650C3-F5CC-D84A-AED5-D6D04C5E4849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2037EBE0-374E-A440-AB81-C9B4ECBE26BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20060" activeTab="1" xr2:uid="{0490BC07-0248-8949-839E-74C08EF47166}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" firstSheet="11" activeTab="31" xr2:uid="{0490BC07-0248-8949-839E-74C08EF47166}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
@@ -43,6 +43,8 @@
     <sheet name="1-021" sheetId="36" r:id="rId28"/>
     <sheet name="1-022" sheetId="37" r:id="rId29"/>
     <sheet name="1-023" sheetId="38" r:id="rId30"/>
+    <sheet name="1-024" sheetId="39" r:id="rId31"/>
+    <sheet name="1-025" sheetId="40" r:id="rId32"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -101,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="170">
   <si>
     <t>Here we track total ablation time which I will refer to going forward as rove_time</t>
   </si>
@@ -699,6 +701,24 @@
   <si>
     <t>https://fieldmedical.sharepoint.com/:v:/r/sites/Clinical/Shared%20Documents/VCAS%20Study/TMF-%20Subject%20Files/1-023/Footage/mix.mp4?csf=1&amp;web=1&amp;e=KnIY90</t>
   </si>
+  <si>
+    <t>1-024</t>
+  </si>
+  <si>
+    <t>1-025</t>
+  </si>
+  <si>
+    <t>Puts the Octaray back there to update the impedance field</t>
+  </si>
+  <si>
+    <t>Stop for post abl remap 1</t>
+  </si>
+  <si>
+    <t>Targetting residual potentials after 1st remap</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
 </sst>
 </file>
 
@@ -861,7 +881,25 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="90">
+  <dxfs count="96">
+    <dxf>
+      <numFmt numFmtId="26" formatCode="hh:mm:ss"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="h:mm:ss;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="h:mm:ss;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="26" formatCode="hh:mm:ss"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="h:mm:ss;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="h:mm:ss;@"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="26" formatCode="hh:mm:ss"/>
     </dxf>
@@ -1155,14 +1193,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C55969D0-B28D-F248-8DCD-E81C0E8043BD}" name="Table1" displayName="Table1" ref="A1:G39" totalsRowShown="0">
   <autoFilter ref="A1:G39" xr:uid="{C55969D0-B28D-F248-8DCD-E81C0E8043BD}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{718012BD-7025-314F-8E4E-E629C18A0C65}" name="subjectId" dataDxfId="89"/>
-    <tableColumn id="2" xr3:uid="{461579DB-75ED-D945-B839-5CC1464620BE}" name="rove_time" dataDxfId="88"/>
-    <tableColumn id="8" xr3:uid="{5E0CEC32-C01F-A446-827E-6309FE417F82}" name="dwell_time" dataDxfId="87">
+    <tableColumn id="1" xr3:uid="{718012BD-7025-314F-8E4E-E629C18A0C65}" name="subjectId" dataDxfId="95"/>
+    <tableColumn id="2" xr3:uid="{461579DB-75ED-D945-B839-5CC1464620BE}" name="rove_time" dataDxfId="94"/>
+    <tableColumn id="8" xr3:uid="{5E0CEC32-C01F-A446-827E-6309FE417F82}" name="dwell_time" dataDxfId="93">
       <calculatedColumnFormula>'1-001'!H35</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{E391ECC4-3F7C-C84F-9F85-065534605FDC}" name="etiology" dataDxfId="86"/>
-    <tableColumn id="6" xr3:uid="{18DD3274-05B0-9245-BC8D-9610E146E79C}" name="therapy" dataDxfId="85"/>
-    <tableColumn id="4" xr3:uid="{3166333D-6394-D34A-93C0-598B4DEC56B1}" name="notes" dataDxfId="84"/>
+    <tableColumn id="9" xr3:uid="{E391ECC4-3F7C-C84F-9F85-065534605FDC}" name="etiology" dataDxfId="92"/>
+    <tableColumn id="6" xr3:uid="{18DD3274-05B0-9245-BC8D-9610E146E79C}" name="therapy" dataDxfId="91"/>
+    <tableColumn id="4" xr3:uid="{3166333D-6394-D34A-93C0-598B4DEC56B1}" name="notes" dataDxfId="90"/>
     <tableColumn id="3" xr3:uid="{A7F69E93-3952-2D4F-B01B-B9EB9DC3432C}" name="link_to_data"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1173,9 +1211,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{F5A4CEBC-9F74-3B4A-97EE-FBFC2B092D3F}" name="Table24812" displayName="Table24812" ref="A1:D31" totalsRowShown="0">
   <autoFilter ref="A1:D31" xr:uid="{7DCBAB66-89F8-6F47-8D64-FA0C26924201}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{6B6BD5F2-A455-4741-BE8B-EB4069C30402}" name="start_time" dataDxfId="65"/>
-    <tableColumn id="2" xr3:uid="{1A57601A-180E-3841-905B-984320643C2E}" name="end_time" dataDxfId="64"/>
-    <tableColumn id="3" xr3:uid="{00349B95-06C5-6347-9812-8CE148323ABF}" name="time_diff" dataDxfId="63">
+    <tableColumn id="1" xr3:uid="{6B6BD5F2-A455-4741-BE8B-EB4069C30402}" name="start_time" dataDxfId="71"/>
+    <tableColumn id="2" xr3:uid="{1A57601A-180E-3841-905B-984320643C2E}" name="end_time" dataDxfId="70"/>
+    <tableColumn id="3" xr3:uid="{00349B95-06C5-6347-9812-8CE148323ABF}" name="time_diff" dataDxfId="69">
       <calculatedColumnFormula>Table24812[[#This Row],[end_time]]-Table24812[[#This Row],[start_time]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{F0480389-BE2E-CA47-91C9-281947E722D0}" name="notes"/>
@@ -1188,9 +1226,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{3F78E5F9-8FC7-1747-90FF-3E51FC67A570}" name="Table245153456" displayName="Table245153456" ref="A1:D31" totalsRowShown="0">
   <autoFilter ref="A1:D31" xr:uid="{1A93302E-8621-7D48-88F2-5AC51E7EA3A4}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{F488A4D9-2DF8-D244-AEBC-805EFBE08DF6}" name="start_time" dataDxfId="62"/>
-    <tableColumn id="2" xr3:uid="{ACA4FF7E-238C-8F45-9565-DAD7F42E73B8}" name="end_time" dataDxfId="61"/>
-    <tableColumn id="3" xr3:uid="{F6BC8755-5891-4645-8170-88F754E99AA6}" name="time_diff" dataDxfId="60">
+    <tableColumn id="1" xr3:uid="{F488A4D9-2DF8-D244-AEBC-805EFBE08DF6}" name="start_time" dataDxfId="68"/>
+    <tableColumn id="2" xr3:uid="{ACA4FF7E-238C-8F45-9565-DAD7F42E73B8}" name="end_time" dataDxfId="67"/>
+    <tableColumn id="3" xr3:uid="{F6BC8755-5891-4645-8170-88F754E99AA6}" name="time_diff" dataDxfId="66">
       <calculatedColumnFormula>Table245153456[[#This Row],[end_time]]-Table245153456[[#This Row],[start_time]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{675A7FCC-306A-304D-91DC-89128A249BDF}" name="notes"/>
@@ -1203,9 +1241,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{23DABAA4-E878-7146-A7F3-85DD83F4C855}" name="Table24515345" displayName="Table24515345" ref="A1:D31" totalsRowShown="0">
   <autoFilter ref="A1:D31" xr:uid="{1A93302E-8621-7D48-88F2-5AC51E7EA3A4}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{EE8B83DD-E65E-C441-9E58-95C830211436}" name="start_time" dataDxfId="59"/>
-    <tableColumn id="2" xr3:uid="{F6B57195-8D07-9240-B4C7-E06E1251BBF4}" name="end_time" dataDxfId="58"/>
-    <tableColumn id="3" xr3:uid="{F39F83CF-BB22-E54A-87DA-A8A19D2D22EA}" name="time_diff" dataDxfId="57">
+    <tableColumn id="1" xr3:uid="{EE8B83DD-E65E-C441-9E58-95C830211436}" name="start_time" dataDxfId="65"/>
+    <tableColumn id="2" xr3:uid="{F6B57195-8D07-9240-B4C7-E06E1251BBF4}" name="end_time" dataDxfId="64"/>
+    <tableColumn id="3" xr3:uid="{F39F83CF-BB22-E54A-87DA-A8A19D2D22EA}" name="time_diff" dataDxfId="63">
       <calculatedColumnFormula>Table24515345[[#This Row],[end_time]]-Table24515345[[#This Row],[start_time]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{486CF052-5F91-344A-902D-F2CA7FB8D506}" name="notes"/>
@@ -1218,9 +1256,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{F1C0DDBF-006F-FE45-828C-B8FDAB683C59}" name="Table2451534" displayName="Table2451534" ref="A1:D31" totalsRowShown="0">
   <autoFilter ref="A1:D31" xr:uid="{1A93302E-8621-7D48-88F2-5AC51E7EA3A4}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{AD2DB3ED-B602-8946-99FC-F31C04E30CB1}" name="start_time" dataDxfId="56"/>
-    <tableColumn id="2" xr3:uid="{60EB5449-1ABA-D24F-9AB7-DA92E3458840}" name="end_time" dataDxfId="55"/>
-    <tableColumn id="3" xr3:uid="{0A4C1CEB-45DC-BC4A-B70E-CFFE5BC5F5CD}" name="time_diff" dataDxfId="54">
+    <tableColumn id="1" xr3:uid="{AD2DB3ED-B602-8946-99FC-F31C04E30CB1}" name="start_time" dataDxfId="62"/>
+    <tableColumn id="2" xr3:uid="{60EB5449-1ABA-D24F-9AB7-DA92E3458840}" name="end_time" dataDxfId="61"/>
+    <tableColumn id="3" xr3:uid="{0A4C1CEB-45DC-BC4A-B70E-CFFE5BC5F5CD}" name="time_diff" dataDxfId="60">
       <calculatedColumnFormula>Table2451534[[#This Row],[end_time]]-Table2451534[[#This Row],[start_time]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{48442FEA-2429-4A47-8FCB-D99F912F4A8E}" name="notes"/>
@@ -1233,9 +1271,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{2C87F7CC-7C0F-0642-8F9A-FE038CD3FF1B}" name="Table245153" displayName="Table245153" ref="A1:D31" totalsRowShown="0">
   <autoFilter ref="A1:D31" xr:uid="{1A93302E-8621-7D48-88F2-5AC51E7EA3A4}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{1AC28B04-A977-FD4B-B78A-9DCC5E7EB80F}" name="start_time" dataDxfId="53"/>
-    <tableColumn id="2" xr3:uid="{C3B83CA2-3C6D-EA4A-BA2E-70FD53E04984}" name="end_time" dataDxfId="52"/>
-    <tableColumn id="3" xr3:uid="{4F86D6E1-1D92-8341-A9E9-53EB64E4C5D3}" name="time_diff" dataDxfId="51">
+    <tableColumn id="1" xr3:uid="{1AC28B04-A977-FD4B-B78A-9DCC5E7EB80F}" name="start_time" dataDxfId="59"/>
+    <tableColumn id="2" xr3:uid="{C3B83CA2-3C6D-EA4A-BA2E-70FD53E04984}" name="end_time" dataDxfId="58"/>
+    <tableColumn id="3" xr3:uid="{4F86D6E1-1D92-8341-A9E9-53EB64E4C5D3}" name="time_diff" dataDxfId="57">
       <calculatedColumnFormula>Table245153[[#This Row],[end_time]]-Table245153[[#This Row],[start_time]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{04931610-B628-D646-9B41-7F657DD32595}" name="notes"/>
@@ -1248,9 +1286,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{772A68B7-3577-954E-96AB-3F9F135762FE}" name="Table248" displayName="Table248" ref="A1:D31" totalsRowShown="0">
   <autoFilter ref="A1:D31" xr:uid="{7DCBAB66-89F8-6F47-8D64-FA0C26924201}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{6C1948AC-21BF-BA4D-A66C-95CD6D282814}" name="start_time" dataDxfId="50"/>
-    <tableColumn id="2" xr3:uid="{FCE64BF5-4264-4C43-929C-08AD08C28E78}" name="end_time" dataDxfId="49"/>
-    <tableColumn id="3" xr3:uid="{53FD3C4C-5892-8C4A-80B1-B3228D1980FF}" name="time_diff" dataDxfId="48">
+    <tableColumn id="1" xr3:uid="{6C1948AC-21BF-BA4D-A66C-95CD6D282814}" name="start_time" dataDxfId="56"/>
+    <tableColumn id="2" xr3:uid="{FCE64BF5-4264-4C43-929C-08AD08C28E78}" name="end_time" dataDxfId="55"/>
+    <tableColumn id="3" xr3:uid="{53FD3C4C-5892-8C4A-80B1-B3228D1980FF}" name="time_diff" dataDxfId="54">
       <calculatedColumnFormula>Table248[[#This Row],[end_time]]-Table248[[#This Row],[start_time]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{F22060DE-01C3-9C4C-A473-BCE8D37580D6}" name="notes"/>
@@ -1263,9 +1301,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{D84B3EF0-7875-184B-870A-3642242A31F0}" name="Table2410" displayName="Table2410" ref="A1:D31" totalsRowShown="0">
   <autoFilter ref="A1:D31" xr:uid="{7DCBAB66-89F8-6F47-8D64-FA0C26924201}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{3577E981-DDE4-CC47-8395-6FEE5951473E}" name="start_time" dataDxfId="47"/>
-    <tableColumn id="2" xr3:uid="{14BD1FB2-4172-BE43-8B3C-F4348552D39D}" name="end_time" dataDxfId="46"/>
-    <tableColumn id="3" xr3:uid="{EA005961-FE83-1F48-8259-AAAD2071A3B1}" name="time_diff" dataDxfId="45">
+    <tableColumn id="1" xr3:uid="{3577E981-DDE4-CC47-8395-6FEE5951473E}" name="start_time" dataDxfId="53"/>
+    <tableColumn id="2" xr3:uid="{14BD1FB2-4172-BE43-8B3C-F4348552D39D}" name="end_time" dataDxfId="52"/>
+    <tableColumn id="3" xr3:uid="{EA005961-FE83-1F48-8259-AAAD2071A3B1}" name="time_diff" dataDxfId="51">
       <calculatedColumnFormula>Table2410[[#This Row],[end_time]]-Table2410[[#This Row],[start_time]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{7A57ED91-2446-8F4F-95C2-3088CD96BD62}" name="notes"/>
@@ -1278,9 +1316,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{0A3CEC53-F376-1D4D-846C-0F34B09239B4}" name="Table249" displayName="Table249" ref="A1:D31" totalsRowShown="0">
   <autoFilter ref="A1:D31" xr:uid="{7DCBAB66-89F8-6F47-8D64-FA0C26924201}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{49600F71-5258-BD4C-B040-17EFB93CC626}" name="start_time" dataDxfId="44"/>
-    <tableColumn id="2" xr3:uid="{BDE18332-AF9E-6E4E-B81F-9AB511ACDD6F}" name="end_time" dataDxfId="43"/>
-    <tableColumn id="3" xr3:uid="{8AAE5943-30E3-C746-AE58-07515593AE41}" name="time_diff" dataDxfId="42">
+    <tableColumn id="1" xr3:uid="{49600F71-5258-BD4C-B040-17EFB93CC626}" name="start_time" dataDxfId="50"/>
+    <tableColumn id="2" xr3:uid="{BDE18332-AF9E-6E4E-B81F-9AB511ACDD6F}" name="end_time" dataDxfId="49"/>
+    <tableColumn id="3" xr3:uid="{8AAE5943-30E3-C746-AE58-07515593AE41}" name="time_diff" dataDxfId="48">
       <calculatedColumnFormula>Table249[[#This Row],[end_time]]-Table249[[#This Row],[start_time]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{7880A518-97D3-0D44-977A-E75D9468AB4A}" name="notes"/>
@@ -1293,9 +1331,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{A7ADDBBE-0483-F84D-98C5-791E3CFC3CE4}" name="Table24511" displayName="Table24511" ref="A1:D31" totalsRowShown="0">
   <autoFilter ref="A1:D31" xr:uid="{7DCBAB66-89F8-6F47-8D64-FA0C26924201}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{26C8DC9E-AF52-B74F-997F-91F760434CC8}" name="start_time" dataDxfId="41"/>
-    <tableColumn id="2" xr3:uid="{6083687F-E3D1-0F47-90EE-749E4C68F9D7}" name="end_time" dataDxfId="40"/>
-    <tableColumn id="3" xr3:uid="{11F768A3-7132-674C-8E3C-457C09009AD5}" name="time_diff" dataDxfId="39">
+    <tableColumn id="1" xr3:uid="{26C8DC9E-AF52-B74F-997F-91F760434CC8}" name="start_time" dataDxfId="47"/>
+    <tableColumn id="2" xr3:uid="{6083687F-E3D1-0F47-90EE-749E4C68F9D7}" name="end_time" dataDxfId="46"/>
+    <tableColumn id="3" xr3:uid="{11F768A3-7132-674C-8E3C-457C09009AD5}" name="time_diff" dataDxfId="45">
       <calculatedColumnFormula>Table24511[[#This Row],[end_time]]-Table24511[[#This Row],[start_time]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{6BF25E36-BEFE-334C-B53B-9359DA68008A}" name="notes"/>
@@ -1308,9 +1346,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{039AD6AB-0126-1947-A333-DE36DDA0B7E4}" name="Table245" displayName="Table245" ref="A1:D31" totalsRowShown="0">
   <autoFilter ref="A1:D31" xr:uid="{7DCBAB66-89F8-6F47-8D64-FA0C26924201}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{8C37C915-F94A-5148-A3D1-EE8B899AF7F8}" name="start_time" dataDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{B8735F0A-4AB0-C54D-85C0-1F0A63FA3498}" name="end_time" dataDxfId="37"/>
-    <tableColumn id="3" xr3:uid="{12E891A6-DF38-EE41-AC70-EAADDDA13272}" name="time_diff" dataDxfId="36">
+    <tableColumn id="1" xr3:uid="{8C37C915-F94A-5148-A3D1-EE8B899AF7F8}" name="start_time" dataDxfId="44"/>
+    <tableColumn id="2" xr3:uid="{B8735F0A-4AB0-C54D-85C0-1F0A63FA3498}" name="end_time" dataDxfId="43"/>
+    <tableColumn id="3" xr3:uid="{12E891A6-DF38-EE41-AC70-EAADDDA13272}" name="time_diff" dataDxfId="42">
       <calculatedColumnFormula>Table245[[#This Row],[end_time]]-Table245[[#This Row],[start_time]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{F8493A5C-0C25-FD45-A552-FE369F4F3DAD}" name="notes"/>
@@ -1323,9 +1361,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{1A93302E-8621-7D48-88F2-5AC51E7EA3A4}" name="Table24515" displayName="Table24515" ref="A1:D31" totalsRowShown="0">
   <autoFilter ref="A1:D31" xr:uid="{1A93302E-8621-7D48-88F2-5AC51E7EA3A4}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{4542A81A-297E-DB48-B049-9309ACD42F2B}" name="start_time" dataDxfId="83"/>
-    <tableColumn id="2" xr3:uid="{FC99294C-6B9C-9349-BAD2-0D219F840C1B}" name="end_time" dataDxfId="82"/>
-    <tableColumn id="3" xr3:uid="{DBC27D03-BB8D-904E-8022-8B6335C64879}" name="time_diff" dataDxfId="81">
+    <tableColumn id="1" xr3:uid="{4542A81A-297E-DB48-B049-9309ACD42F2B}" name="start_time" dataDxfId="89"/>
+    <tableColumn id="2" xr3:uid="{FC99294C-6B9C-9349-BAD2-0D219F840C1B}" name="end_time" dataDxfId="88"/>
+    <tableColumn id="3" xr3:uid="{DBC27D03-BB8D-904E-8022-8B6335C64879}" name="time_diff" dataDxfId="87">
       <calculatedColumnFormula>Table24515[[#This Row],[end_time]]-Table24515[[#This Row],[start_time]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{D5223D27-0D62-AC4C-857C-038DCA9594DB}" name="notes"/>
@@ -1338,9 +1376,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{1825D363-0D01-614F-8BB6-B82D0839B62E}" name="Table245154" displayName="Table245154" ref="A1:D31" totalsRowShown="0">
   <autoFilter ref="A1:D31" xr:uid="{1A93302E-8621-7D48-88F2-5AC51E7EA3A4}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{85D813AA-3E14-AA49-8764-1AFB1744F6CB}" name="start_time" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{6FA6C7C4-391C-734C-A912-3190038D77AB}" name="end_time" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{9C4583F8-953A-D04B-AA91-7D77A5FF66F0}" name="time_diff" dataDxfId="33">
+    <tableColumn id="1" xr3:uid="{85D813AA-3E14-AA49-8764-1AFB1744F6CB}" name="start_time" dataDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{6FA6C7C4-391C-734C-A912-3190038D77AB}" name="end_time" dataDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{9C4583F8-953A-D04B-AA91-7D77A5FF66F0}" name="time_diff" dataDxfId="39">
       <calculatedColumnFormula>Table245154[[#This Row],[end_time]]-Table245154[[#This Row],[start_time]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{23A25CAD-E05F-1648-AA7C-0B4BD9C1739D}" name="notes"/>
@@ -1353,9 +1391,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{CE45E49D-73E4-8A4C-B1C1-A5F171222BA6}" name="Table24515416" displayName="Table24515416" ref="A1:D31" totalsRowShown="0">
   <autoFilter ref="A1:D31" xr:uid="{1A93302E-8621-7D48-88F2-5AC51E7EA3A4}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{31B61C1F-509B-C549-8AEF-DF0658F2B96B}" name="start_time" dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{091F6D25-E362-ED42-9029-E0BCEEAEA850}" name="end_time" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{318940A5-8075-5D4C-BD68-125D391D783D}" name="time_diff" dataDxfId="30">
+    <tableColumn id="1" xr3:uid="{31B61C1F-509B-C549-8AEF-DF0658F2B96B}" name="start_time" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{091F6D25-E362-ED42-9029-E0BCEEAEA850}" name="end_time" dataDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{318940A5-8075-5D4C-BD68-125D391D783D}" name="time_diff" dataDxfId="36">
       <calculatedColumnFormula>Table24515416[[#This Row],[end_time]]-Table24515416[[#This Row],[start_time]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{4ECB2A10-B67B-D84C-9D70-CB15A16921DE}" name="notes"/>
@@ -1368,9 +1406,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{130F2C16-F9C9-CF46-A41B-03CB1D6467B4}" name="Table2451517181920" displayName="Table2451517181920" ref="A1:D31" totalsRowShown="0">
   <autoFilter ref="A1:D31" xr:uid="{1A93302E-8621-7D48-88F2-5AC51E7EA3A4}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{58637CDA-F3F8-FB4F-825C-C88AA91FAD7B}" name="start_time" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{1096A82C-CDE7-4340-BAF9-3BAA3098CA7F}" name="end_time" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{02C5EC47-6504-E246-90FC-F20CBBDEB705}" name="time_diff" dataDxfId="27">
+    <tableColumn id="1" xr3:uid="{58637CDA-F3F8-FB4F-825C-C88AA91FAD7B}" name="start_time" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{1096A82C-CDE7-4340-BAF9-3BAA3098CA7F}" name="end_time" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{02C5EC47-6504-E246-90FC-F20CBBDEB705}" name="time_diff" dataDxfId="33">
       <calculatedColumnFormula>Table2451517181920[[#This Row],[end_time]]-Table2451517181920[[#This Row],[start_time]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{1469F086-E8DD-C741-AA69-4E9161FE65C0}" name="notes"/>
@@ -1383,9 +1421,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{1029D1F1-1F5A-3E49-AF78-3C0DC1D2F68D}" name="Table24515171819" displayName="Table24515171819" ref="A1:D31" totalsRowShown="0">
   <autoFilter ref="A1:D31" xr:uid="{1A93302E-8621-7D48-88F2-5AC51E7EA3A4}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{044D31B5-AD7A-E643-B833-0826FB3FF28C}" name="start_time" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{65F326FC-ED53-1A4C-B3DE-07B092115C14}" name="end_time" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{FC649FAA-6E56-154B-8877-A16770D51793}" name="time_diff" dataDxfId="24">
+    <tableColumn id="1" xr3:uid="{044D31B5-AD7A-E643-B833-0826FB3FF28C}" name="start_time" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{65F326FC-ED53-1A4C-B3DE-07B092115C14}" name="end_time" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{FC649FAA-6E56-154B-8877-A16770D51793}" name="time_diff" dataDxfId="30">
       <calculatedColumnFormula>Table24515171819[[#This Row],[end_time]]-Table24515171819[[#This Row],[start_time]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{C770E668-C460-4649-98CE-000E807A6F4C}" name="notes"/>
@@ -1398,9 +1436,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{A8099601-2538-9E41-BA1B-CA228C6B7FD8}" name="Table245151718" displayName="Table245151718" ref="A1:D31" totalsRowShown="0">
   <autoFilter ref="A1:D31" xr:uid="{1A93302E-8621-7D48-88F2-5AC51E7EA3A4}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{152C5995-5BCE-0F4A-AB21-E37E5A45CC96}" name="start_time" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{A314440D-1DAD-F747-8091-26BF031D535E}" name="end_time" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{8038CAE0-AE64-A94A-8EEC-196F11CC42FB}" name="time_diff" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{152C5995-5BCE-0F4A-AB21-E37E5A45CC96}" name="start_time" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{A314440D-1DAD-F747-8091-26BF031D535E}" name="end_time" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{8038CAE0-AE64-A94A-8EEC-196F11CC42FB}" name="time_diff" dataDxfId="27">
       <calculatedColumnFormula>Table245151718[[#This Row],[end_time]]-Table245151718[[#This Row],[start_time]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{E78FDFD8-421B-4B42-8E66-304EDA7C4631}" name="notes"/>
@@ -1413,9 +1451,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{10879581-5376-9648-90EC-5599AE274B37}" name="Table2451517" displayName="Table2451517" ref="A1:D31" totalsRowShown="0">
   <autoFilter ref="A1:D31" xr:uid="{1A93302E-8621-7D48-88F2-5AC51E7EA3A4}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{2036FDA6-A87D-5C41-84BB-E2DE3418E515}" name="start_time" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{63FAF62F-E02F-9344-92DD-A7835371FD15}" name="end_time" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{84451293-C537-C74D-85BC-080896072B82}" name="time_diff" dataDxfId="18">
+    <tableColumn id="1" xr3:uid="{2036FDA6-A87D-5C41-84BB-E2DE3418E515}" name="start_time" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{63FAF62F-E02F-9344-92DD-A7835371FD15}" name="end_time" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{84451293-C537-C74D-85BC-080896072B82}" name="time_diff" dataDxfId="24">
       <calculatedColumnFormula>Table2451517[[#This Row],[end_time]]-Table2451517[[#This Row],[start_time]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{D9D1EDB1-9623-3A44-A4BF-E8857517A4BE}" name="notes"/>
@@ -1428,9 +1466,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{2B4E61D6-F073-DC43-BDFC-32D5D661417D}" name="Table2451521" displayName="Table2451521" ref="A1:D31" totalsRowShown="0">
   <autoFilter ref="A1:D31" xr:uid="{1A93302E-8621-7D48-88F2-5AC51E7EA3A4}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{DBDC0137-E30C-354A-87F0-8FC256EE47DD}" name="start_time" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{F3C9949C-5E56-3043-B895-7F1C223F084C}" name="end_time" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{284C38E6-8B60-FF42-B36D-752AB81A0D3E}" name="time_diff" dataDxfId="15">
+    <tableColumn id="1" xr3:uid="{DBDC0137-E30C-354A-87F0-8FC256EE47DD}" name="start_time" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{F3C9949C-5E56-3043-B895-7F1C223F084C}" name="end_time" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{284C38E6-8B60-FF42-B36D-752AB81A0D3E}" name="time_diff" dataDxfId="21">
       <calculatedColumnFormula>Table2451521[[#This Row],[end_time]]-Table2451521[[#This Row],[start_time]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{997FD67A-B2F8-4047-8AFA-B14BF2F18FC2}" name="notes"/>
@@ -1443,9 +1481,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{BA39C582-8A3B-4040-B00B-B16288D1ADEA}" name="Table245152122" displayName="Table245152122" ref="A1:D31" totalsRowShown="0">
   <autoFilter ref="A1:D31" xr:uid="{1A93302E-8621-7D48-88F2-5AC51E7EA3A4}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{25E83ED4-93AC-F047-AF73-BA3F105A6D0A}" name="start_time" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{F0229387-F330-284C-B4AE-1D5D5E6605D1}" name="end_time" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{FEBDECC5-2779-A649-A021-31F708F52761}" name="time_diff" dataDxfId="12">
+    <tableColumn id="1" xr3:uid="{25E83ED4-93AC-F047-AF73-BA3F105A6D0A}" name="start_time" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{F0229387-F330-284C-B4AE-1D5D5E6605D1}" name="end_time" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{FEBDECC5-2779-A649-A021-31F708F52761}" name="time_diff" dataDxfId="18">
       <calculatedColumnFormula>Table245152122[[#This Row],[end_time]]-Table245152122[[#This Row],[start_time]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{AF082110-2951-F84E-8D3A-9165E0C2C148}" name="notes"/>
@@ -1458,9 +1496,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{661D3210-775C-8040-8FE5-26CDF0E1C0C6}" name="Table2451529" displayName="Table2451529" ref="A1:D31" totalsRowShown="0">
   <autoFilter ref="A1:D31" xr:uid="{1A93302E-8621-7D48-88F2-5AC51E7EA3A4}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{ED768153-5408-0040-8E27-7A60AC8E2998}" name="start_time" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{85BF026F-4EF2-414B-97C8-8F4A405735DA}" name="end_time" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{FA7B9F4D-D773-3944-A5EF-C6BF952DF273}" name="time_diff" dataDxfId="9">
+    <tableColumn id="1" xr3:uid="{ED768153-5408-0040-8E27-7A60AC8E2998}" name="start_time" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{85BF026F-4EF2-414B-97C8-8F4A405735DA}" name="end_time" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{FA7B9F4D-D773-3944-A5EF-C6BF952DF273}" name="time_diff" dataDxfId="15">
       <calculatedColumnFormula>Table2451529[[#This Row],[end_time]]-Table2451529[[#This Row],[start_time]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{93ED54FD-B021-8042-8A26-06CABF9E31ED}" name="notes"/>
@@ -1473,9 +1511,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{2A32B478-DE8E-8744-8E1D-E79CAB721CFA}" name="Table245152930" displayName="Table245152930" ref="A1:D31" totalsRowShown="0">
   <autoFilter ref="A1:D31" xr:uid="{1A93302E-8621-7D48-88F2-5AC51E7EA3A4}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{79880ACD-2F16-8B41-B96B-06D8373CF56F}" name="start_time" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{5EBA4F35-D0D6-5841-8642-F7EB935C9D15}" name="end_time" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{33ADB2D4-D36E-C540-B4EE-1777AB5350B0}" name="time_diff" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{79880ACD-2F16-8B41-B96B-06D8373CF56F}" name="start_time" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{5EBA4F35-D0D6-5841-8642-F7EB935C9D15}" name="end_time" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{33ADB2D4-D36E-C540-B4EE-1777AB5350B0}" name="time_diff" dataDxfId="12">
       <calculatedColumnFormula>Table245152930[[#This Row],[end_time]]-Table245152930[[#This Row],[start_time]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{67846232-3E2C-AF45-BD20-49FA08924520}" name="notes"/>
@@ -1490,7 +1528,7 @@
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{01F56379-480D-E144-8844-79E29F338160}" name="start_time"/>
     <tableColumn id="2" xr3:uid="{80A1EC3F-97BF-2A42-A823-A672AD58C802}" name="end_time"/>
-    <tableColumn id="3" xr3:uid="{F529491E-B189-F14F-8D98-A6DD0470EB40}" name="time_diff" dataDxfId="80">
+    <tableColumn id="3" xr3:uid="{F529491E-B189-F14F-8D98-A6DD0470EB40}" name="time_diff" dataDxfId="86">
       <calculatedColumnFormula>Table2[[#This Row],[end_time]]-Table2[[#This Row],[start_time]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{DC0F7FFE-563B-3E40-AAB4-A68B98253F92}" name="notes"/>
@@ -1503,9 +1541,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{2EB2F573-CED5-AA4A-8CF8-F3AEF0AA7723}" name="Table245152931" displayName="Table245152931" ref="A1:D31" totalsRowShown="0">
   <autoFilter ref="A1:D31" xr:uid="{1A93302E-8621-7D48-88F2-5AC51E7EA3A4}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{73DC15AF-3DAA-8143-AF82-F1D507DCE96F}" name="start_time" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{D5FE6EE4-7C86-FF49-BF49-4BE6F39FC1A9}" name="end_time" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{19EF1AAC-C504-8E46-AE44-B9439BD37567}" name="time_diff" dataDxfId="3">
+    <tableColumn id="1" xr3:uid="{73DC15AF-3DAA-8143-AF82-F1D507DCE96F}" name="start_time" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{D5FE6EE4-7C86-FF49-BF49-4BE6F39FC1A9}" name="end_time" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{19EF1AAC-C504-8E46-AE44-B9439BD37567}" name="time_diff" dataDxfId="9">
       <calculatedColumnFormula>Table245152931[[#This Row],[end_time]]-Table245152931[[#This Row],[start_time]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{00B18BD3-325E-1D4C-918C-B906E01F9629}" name="notes"/>
@@ -1518,12 +1556,42 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{199CB066-B051-3341-ADBB-1E54C19CADA1}" name="Table24515293132" displayName="Table24515293132" ref="A1:D31" totalsRowShown="0">
   <autoFilter ref="A1:D31" xr:uid="{1A93302E-8621-7D48-88F2-5AC51E7EA3A4}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{2A4F6AEE-4765-4041-B244-0BEE39578BB0}" name="start_time" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{860B172B-36D9-6C40-AEBE-E23FD467A8C3}" name="end_time" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{2F5A21E2-41C6-384E-ACA1-907DDE787D4B}" name="time_diff" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{2A4F6AEE-4765-4041-B244-0BEE39578BB0}" name="start_time" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{860B172B-36D9-6C40-AEBE-E23FD467A8C3}" name="end_time" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{2F5A21E2-41C6-384E-ACA1-907DDE787D4B}" name="time_diff" dataDxfId="6">
       <calculatedColumnFormula>Table24515293132[[#This Row],[end_time]]-Table24515293132[[#This Row],[start_time]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{0DC69275-E5B9-2141-B9B8-C11748283861}" name="notes"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table32.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{06A6F3E2-626F-8B4A-9E0D-9700F934709A}" name="Table2451533" displayName="Table2451533" ref="A1:D31" totalsRowShown="0">
+  <autoFilter ref="A1:D31" xr:uid="{1A93302E-8621-7D48-88F2-5AC51E7EA3A4}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{6F3BA02B-C7C3-3648-AEF6-CE3B7B5C96AE}" name="start_time" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{EB6C5B05-913E-6C4F-8330-3E7CBDBA2766}" name="end_time" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{21CEE3A7-1FA0-5749-9CC4-B7EF3AEBA3F9}" name="time_diff" dataDxfId="3">
+      <calculatedColumnFormula>Table2451533[[#This Row],[end_time]]-Table2451533[[#This Row],[start_time]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{0DB42EF9-5D80-2145-8D74-E69681387C37}" name="notes"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table33.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="33" xr:uid="{3A4EBCD4-7107-744D-876A-39BF783E4518}" name="Table245153334" displayName="Table245153334" ref="A1:D31" totalsRowShown="0">
+  <autoFilter ref="A1:D31" xr:uid="{1A93302E-8621-7D48-88F2-5AC51E7EA3A4}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{2EF55489-2CD2-374A-A411-45BFC6EF0F11}" name="start_time" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{3A3B2D6B-229B-534D-913B-CD67E99E2FC0}" name="end_time" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{1582DACA-6910-E747-AC0A-911487FD8F40}" name="time_diff" dataDxfId="0">
+      <calculatedColumnFormula>Table245153334[[#This Row],[end_time]]-Table245153334[[#This Row],[start_time]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{3964B772-35E4-B248-AE1D-C3E807B80CB1}" name="notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1535,7 +1603,7 @@
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{7197966F-DB73-A94E-B2AE-FF5E410916CA}" name="start_time"/>
     <tableColumn id="2" xr3:uid="{615965FE-9104-054A-86EF-13FD1960F3F6}" name="end_time"/>
-    <tableColumn id="3" xr3:uid="{B0854C19-C681-7640-AAB6-06872F731D13}" name="time_diff" dataDxfId="79">
+    <tableColumn id="3" xr3:uid="{B0854C19-C681-7640-AAB6-06872F731D13}" name="time_diff" dataDxfId="85">
       <calculatedColumnFormula>Table213[[#This Row],[end_time]]-Table213[[#This Row],[start_time]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{0469E901-54FA-974D-A28F-40EC1AA491CD}" name="notes"/>
@@ -1548,9 +1616,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{DAC55445-B449-1B46-ADAD-5D1EE6A1BD3D}" name="Table246" displayName="Table246" ref="A1:D31" totalsRowShown="0">
   <autoFilter ref="A1:D31" xr:uid="{7DCBAB66-89F8-6F47-8D64-FA0C26924201}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{54C1AFBA-849B-564E-9383-040E585C368C}" name="start_time" dataDxfId="78"/>
-    <tableColumn id="2" xr3:uid="{45F9645E-00F2-4A47-AB06-DBB721851807}" name="end_time" dataDxfId="77"/>
-    <tableColumn id="3" xr3:uid="{D8F0A3A2-BBC5-6D49-8527-799E99BCFA49}" name="time_diff" dataDxfId="76">
+    <tableColumn id="1" xr3:uid="{54C1AFBA-849B-564E-9383-040E585C368C}" name="start_time" dataDxfId="84"/>
+    <tableColumn id="2" xr3:uid="{45F9645E-00F2-4A47-AB06-DBB721851807}" name="end_time" dataDxfId="83"/>
+    <tableColumn id="3" xr3:uid="{D8F0A3A2-BBC5-6D49-8527-799E99BCFA49}" name="time_diff" dataDxfId="82">
       <calculatedColumnFormula>Table246[[#This Row],[end_time]]-Table246[[#This Row],[start_time]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{838825F0-239B-C440-9C0B-3A9D1E9C0D95}" name="notes"/>
@@ -1565,7 +1633,7 @@
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{97B35572-DA30-684F-B3E5-729DB08045CE}" name="start_time"/>
     <tableColumn id="2" xr3:uid="{CB979489-F330-CB47-ACD8-45591E7E6177}" name="end_time"/>
-    <tableColumn id="3" xr3:uid="{C2A1FF6A-8B35-0348-85B8-BCECB7F2BCFE}" name="time_diff" dataDxfId="75">
+    <tableColumn id="3" xr3:uid="{C2A1FF6A-8B35-0348-85B8-BCECB7F2BCFE}" name="time_diff" dataDxfId="81">
       <calculatedColumnFormula>Table21314[[#This Row],[end_time]]-Table21314[[#This Row],[start_time]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{C144438C-DE22-7644-A5DB-5310B9F06FD7}" name="notes"/>
@@ -1578,9 +1646,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{BB18B32E-8D1B-4E40-800B-981F430F8CDD}" name="Table24515345678" displayName="Table24515345678" ref="A1:D31" totalsRowShown="0">
   <autoFilter ref="A1:D31" xr:uid="{1A93302E-8621-7D48-88F2-5AC51E7EA3A4}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{9D16D395-E4E3-DB45-90F5-E5327318AF10}" name="start_time" dataDxfId="74"/>
-    <tableColumn id="2" xr3:uid="{6060AEBF-3E3A-5A47-BE28-82B21D4A9A71}" name="end_time" dataDxfId="73"/>
-    <tableColumn id="3" xr3:uid="{B44166A9-5F8E-0847-90D8-CD1B96CFFCBD}" name="time_diff" dataDxfId="72">
+    <tableColumn id="1" xr3:uid="{9D16D395-E4E3-DB45-90F5-E5327318AF10}" name="start_time" dataDxfId="80"/>
+    <tableColumn id="2" xr3:uid="{6060AEBF-3E3A-5A47-BE28-82B21D4A9A71}" name="end_time" dataDxfId="79"/>
+    <tableColumn id="3" xr3:uid="{B44166A9-5F8E-0847-90D8-CD1B96CFFCBD}" name="time_diff" dataDxfId="78">
       <calculatedColumnFormula>Table24515345678[[#This Row],[end_time]]-Table24515345678[[#This Row],[start_time]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{622F2CC9-1E07-0745-BD46-0FF8E04F606C}" name="notes"/>
@@ -1593,9 +1661,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{C3F9313B-C284-1146-B033-93DD207396CF}" name="Table2451534567" displayName="Table2451534567" ref="A1:D31" totalsRowShown="0">
   <autoFilter ref="A1:D31" xr:uid="{1A93302E-8621-7D48-88F2-5AC51E7EA3A4}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{C2F60EB9-3A21-F943-85B0-6892CFC0EFE9}" name="start_time" dataDxfId="71"/>
-    <tableColumn id="2" xr3:uid="{B9B7F5F7-DC74-FC4D-8DE1-ABE02D48F190}" name="end_time" dataDxfId="70"/>
-    <tableColumn id="3" xr3:uid="{EBD1F883-E2BA-6049-9C36-BA4E73D36AAC}" name="time_diff" dataDxfId="69">
+    <tableColumn id="1" xr3:uid="{C2F60EB9-3A21-F943-85B0-6892CFC0EFE9}" name="start_time" dataDxfId="77"/>
+    <tableColumn id="2" xr3:uid="{B9B7F5F7-DC74-FC4D-8DE1-ABE02D48F190}" name="end_time" dataDxfId="76"/>
+    <tableColumn id="3" xr3:uid="{EBD1F883-E2BA-6049-9C36-BA4E73D36AAC}" name="time_diff" dataDxfId="75">
       <calculatedColumnFormula>Table2451534567[[#This Row],[end_time]]-Table2451534567[[#This Row],[start_time]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{9BD53916-30AA-4E4F-989F-570ACDB86B60}" name="notes"/>
@@ -1608,9 +1676,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{C7DEA103-B67A-0B49-99E5-BEE70970D4BB}" name="Table247" displayName="Table247" ref="A1:D31" totalsRowShown="0">
   <autoFilter ref="A1:D31" xr:uid="{7DCBAB66-89F8-6F47-8D64-FA0C26924201}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{CB152735-EDBE-5144-8A33-370189AD9329}" name="start_time" dataDxfId="68"/>
-    <tableColumn id="2" xr3:uid="{78FDD20A-A666-E94B-A38C-0886D5E9FD55}" name="end_time" dataDxfId="67"/>
-    <tableColumn id="3" xr3:uid="{AE363FE2-700D-BC49-BD68-6E6DB6F05C17}" name="time_diff" dataDxfId="66">
+    <tableColumn id="1" xr3:uid="{CB152735-EDBE-5144-8A33-370189AD9329}" name="start_time" dataDxfId="74"/>
+    <tableColumn id="2" xr3:uid="{78FDD20A-A666-E94B-A38C-0886D5E9FD55}" name="end_time" dataDxfId="73"/>
+    <tableColumn id="3" xr3:uid="{AE363FE2-700D-BC49-BD68-6E6DB6F05C17}" name="time_diff" dataDxfId="72">
       <calculatedColumnFormula>Table247[[#This Row],[end_time]]-Table247[[#This Row],[start_time]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{CCA0740F-5707-C44E-AA57-B44DAE132805}" name="notes"/>
@@ -7749,8 +7817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8F4A8F4-AAF9-534C-A76C-45D54A4AA321}">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8322,11 +8390,33 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="1"/>
+      <c r="A29" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>69</v>
+      </c>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="1"/>
+      <c r="A30" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B30" s="6">
+        <v>1414</v>
+      </c>
+      <c r="C30" s="6">
+        <v>2064</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>69</v>
+      </c>
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -15117,6 +15207,1116 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68F00F07-6F7D-BC4B-9E0C-BCAADD61651A}">
+  <dimension ref="A1:I41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="72.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="4">
+        <f>Table2451533[[#This Row],[end_time]]-Table2451533[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14">
+        <f>G2-F2</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="15"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="4">
+        <f>Table2451533[[#This Row],[end_time]]-Table2451533[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16">
+        <f>G3-F3</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="4">
+        <f>Table2451533[[#This Row],[end_time]]-Table2451533[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14">
+        <f t="shared" ref="H4:H31" si="0">G4-F4</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="15"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="4">
+        <f>Table2451533[[#This Row],[end_time]]-Table2451533[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="4">
+        <f>Table2451533[[#This Row],[end_time]]-Table2451533[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="15"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="4">
+        <f>Table2451533[[#This Row],[end_time]]-Table2451533[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="11"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="4">
+        <f>Table2451533[[#This Row],[end_time]]-Table2451533[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="15"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="4">
+        <f>Table2451533[[#This Row],[end_time]]-Table2451533[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="11"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="4">
+        <f>Table2451533[[#This Row],[end_time]]-Table2451533[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="15"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="4">
+        <f>Table2451533[[#This Row],[end_time]]-Table2451533[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="11"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="4">
+        <f>Table2451533[[#This Row],[end_time]]-Table2451533[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="15"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="4">
+        <f>Table2451533[[#This Row],[end_time]]-Table2451533[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="11"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="4">
+        <f>Table2451533[[#This Row],[end_time]]-Table2451533[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="15"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="4">
+        <f>Table2451533[[#This Row],[end_time]]-Table2451533[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="11"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="4">
+        <f>Table2451533[[#This Row],[end_time]]-Table2451533[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="15"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="4">
+        <f>Table2451533[[#This Row],[end_time]]-Table2451533[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="11"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="4">
+        <f>Table2451533[[#This Row],[end_time]]-Table2451533[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="15"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="4">
+        <f>Table2451533[[#This Row],[end_time]]-Table2451533[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="11"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="4">
+        <f>Table2451533[[#This Row],[end_time]]-Table2451533[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="15"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="4">
+        <f>Table2451533[[#This Row],[end_time]]-Table2451533[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="11"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="4">
+        <f>Table2451533[[#This Row],[end_time]]-Table2451533[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="15"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="4">
+        <f>Table2451533[[#This Row],[end_time]]-Table2451533[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="11"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="4">
+        <f>Table2451533[[#This Row],[end_time]]-Table2451533[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="15"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="4">
+        <f>Table2451533[[#This Row],[end_time]]-Table2451533[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="11"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="4">
+        <f>Table2451533[[#This Row],[end_time]]-Table2451533[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="15"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="4">
+        <f>Table2451533[[#This Row],[end_time]]-Table2451533[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="11"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="4">
+        <f>Table2451533[[#This Row],[end_time]]-Table2451533[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="15"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="4">
+        <f>Table2451533[[#This Row],[end_time]]-Table2451533[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="11"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="4">
+        <f>Table2451533[[#This Row],[end_time]]-Table2451533[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="15"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="4">
+        <f>Table2451533[[#This Row],[end_time]]-Table2451533[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="17"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E32" s="2"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="6">
+        <f>HOUR(SUM(Table2451533[time_diff]))*3600 + MINUTE(SUM(Table2451533[time_diff])) * 60 + SECOND(SUM(Table2451533[time_diff]))</f>
+        <v>0</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="G33" s="11"/>
+      <c r="H33" s="6">
+        <f>HOUR(SUM(H2:H31))*3600 + MINUTE(SUM(H2:H31)) * 60 + SECOND(SUM(H2:H31))</f>
+        <v>0</v>
+      </c>
+      <c r="I33" s="11"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C34" s="4"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C36" s="5"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C37" s="6"/>
+      <c r="E37" s="6"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D41" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{420C3755-3FEC-2044-A90C-C2D3BB18642F}">
+  <dimension ref="A1:I41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="72.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>0.47834490740740743</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0.48207175925925927</v>
+      </c>
+      <c r="C2" s="4">
+        <f>Table245153334[[#This Row],[end_time]]-Table245153334[[#This Row],[start_time]]</f>
+        <v>3.7268518518518423E-3</v>
+      </c>
+      <c r="F2" s="14">
+        <v>0.4755671296296296</v>
+      </c>
+      <c r="G2" s="14">
+        <v>0.48466435185185186</v>
+      </c>
+      <c r="H2" s="14">
+        <f>G2-F2</f>
+        <v>9.0972222222222565E-3</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>0.48743055555555553</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0.49681712962962965</v>
+      </c>
+      <c r="C3" s="4">
+        <f>Table245153334[[#This Row],[end_time]]-Table245153334[[#This Row],[start_time]]</f>
+        <v>9.3865740740741166E-3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F3" s="16">
+        <v>0.48652777777777778</v>
+      </c>
+      <c r="G3" s="16">
+        <v>0.4971990740740741</v>
+      </c>
+      <c r="H3" s="16">
+        <f>G3-F3</f>
+        <v>1.0671296296296318E-2</v>
+      </c>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>0.50685185185185189</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0.51010416666666669</v>
+      </c>
+      <c r="C4" s="4">
+        <f>Table245153334[[#This Row],[end_time]]-Table245153334[[#This Row],[start_time]]</f>
+        <v>3.2523148148148051E-3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F4" s="14">
+        <v>0.50609953703703703</v>
+      </c>
+      <c r="G4" s="14">
+        <v>0.51021990740740741</v>
+      </c>
+      <c r="H4" s="14">
+        <f t="shared" ref="H4:H31" si="0">G4-F4</f>
+        <v>4.1203703703703853E-3</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="4">
+        <f>Table245153334[[#This Row],[end_time]]-Table245153334[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="4">
+        <f>Table245153334[[#This Row],[end_time]]-Table245153334[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="15"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="4">
+        <f>Table245153334[[#This Row],[end_time]]-Table245153334[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="11"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="4">
+        <f>Table245153334[[#This Row],[end_time]]-Table245153334[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="15"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="4">
+        <f>Table245153334[[#This Row],[end_time]]-Table245153334[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="11"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="4">
+        <f>Table245153334[[#This Row],[end_time]]-Table245153334[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="15"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="4">
+        <f>Table245153334[[#This Row],[end_time]]-Table245153334[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="11"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="4">
+        <f>Table245153334[[#This Row],[end_time]]-Table245153334[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="15"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="4">
+        <f>Table245153334[[#This Row],[end_time]]-Table245153334[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="11"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="4">
+        <f>Table245153334[[#This Row],[end_time]]-Table245153334[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="15"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="4">
+        <f>Table245153334[[#This Row],[end_time]]-Table245153334[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="11"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="4">
+        <f>Table245153334[[#This Row],[end_time]]-Table245153334[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="15"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="4">
+        <f>Table245153334[[#This Row],[end_time]]-Table245153334[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="11"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="4">
+        <f>Table245153334[[#This Row],[end_time]]-Table245153334[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="15"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="4">
+        <f>Table245153334[[#This Row],[end_time]]-Table245153334[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="11"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="4">
+        <f>Table245153334[[#This Row],[end_time]]-Table245153334[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="15"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="4">
+        <f>Table245153334[[#This Row],[end_time]]-Table245153334[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="11"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="4">
+        <f>Table245153334[[#This Row],[end_time]]-Table245153334[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="15"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="4">
+        <f>Table245153334[[#This Row],[end_time]]-Table245153334[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="11"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="4">
+        <f>Table245153334[[#This Row],[end_time]]-Table245153334[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="15"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="4">
+        <f>Table245153334[[#This Row],[end_time]]-Table245153334[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="11"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="4">
+        <f>Table245153334[[#This Row],[end_time]]-Table245153334[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="15"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="4">
+        <f>Table245153334[[#This Row],[end_time]]-Table245153334[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="11"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="4">
+        <f>Table245153334[[#This Row],[end_time]]-Table245153334[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="15"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="4">
+        <f>Table245153334[[#This Row],[end_time]]-Table245153334[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="11"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="4">
+        <f>Table245153334[[#This Row],[end_time]]-Table245153334[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="15"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="4">
+        <f>Table245153334[[#This Row],[end_time]]-Table245153334[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="17"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E32" s="2"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="6">
+        <f>HOUR(SUM(Table245153334[time_diff]))*3600 + MINUTE(SUM(Table245153334[time_diff])) * 60 + SECOND(SUM(Table245153334[time_diff]))</f>
+        <v>1414</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="G33" s="11"/>
+      <c r="H33" s="6">
+        <f>HOUR(SUM(H2:H31))*3600 + MINUTE(SUM(H2:H31)) * 60 + SECOND(SUM(H2:H31))</f>
+        <v>2064</v>
+      </c>
+      <c r="I33" s="11"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C34" s="4"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C36" s="5"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C37" s="6"/>
+      <c r="E37" s="6"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D41" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B31B8D96-118F-A248-83C6-FD8A563415A9}">
   <dimension ref="A1:I37"/>
@@ -18152,6 +19352,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3322fca5-43da-49d1-b081-466ee88b9b9d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="08edd21d-9f77-405a-872a-1371c16ee465" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BF6C17F5D6D98C42BF7485206F8FA016" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d5edc83b350af0a5b53db876fcbb948f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3322fca5-43da-49d1-b081-466ee88b9b9d" xmlns:ns3="08edd21d-9f77-405a-872a-1371c16ee465" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="af4f449426634c4d4ecdf601b9961ca0" ns2:_="" ns3:_="">
     <xsd:import namespace="3322fca5-43da-49d1-b081-466ee88b9b9d"/>
@@ -18386,41 +19606,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3322fca5-43da-49d1-b081-466ee88b9b9d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="08edd21d-9f77-405a-872a-1371c16ee465" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B10E5675-4834-416E-A2AA-AFEE37EB2CC0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84C9AB0F-2376-4442-8FD0-7F9F6F9B731B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3322fca5-43da-49d1-b081-466ee88b9b9d"/>
-    <ds:schemaRef ds:uri="08edd21d-9f77-405a-872a-1371c16ee465"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -18443,9 +19632,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84C9AB0F-2376-4442-8FD0-7F9F6F9B731B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B10E5675-4834-416E-A2AA-AFEE37EB2CC0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3322fca5-43da-49d1-b081-466ee88b9b9d"/>
+    <ds:schemaRef ds:uri="08edd21d-9f77-405a-872a-1371c16ee465"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/raw/VCAS-rove_time.xlsx
+++ b/data/raw/VCAS-rove_time.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathansalas/R_Projects/VCAS1_prelim_efficiency/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2037EBE0-374E-A440-AB81-C9B4ECBE26BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93AF99F7-53C7-D442-A146-EB45CA999EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" firstSheet="11" activeTab="31" xr2:uid="{0490BC07-0248-8949-839E-74C08EF47166}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" activeTab="1" xr2:uid="{0490BC07-0248-8949-839E-74C08EF47166}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="172">
   <si>
     <t>Here we track total ablation time which I will refer to going forward as rove_time</t>
   </si>
@@ -718,6 +718,12 @@
   </si>
   <si>
     <t>Done</t>
+  </si>
+  <si>
+    <t>https://fieldmedical.sharepoint.com/:v:/r/sites/Clinical/Shared%20Documents/VCAS%20Study/TMF-%20Subject%20Files/1-024/Footage/MIXoutput.mp4?csf=1&amp;web=1&amp;e=2sajXP</t>
+  </si>
+  <si>
+    <t>https://fieldmedical.sharepoint.com/:v:/r/sites/Clinical/Shared%20Documents/VCAS%20Study/TMF-%20Subject%20Files/1-025/Footage/mix.mp4?csf=1&amp;web=1&amp;e=pwO54g</t>
   </si>
 </sst>
 </file>
@@ -2020,7 +2026,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A535426F-7A8C-E949-810F-FB71A9FDBD02}">
   <dimension ref="A1:A36"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="161" workbookViewId="0">
+    <sheetView zoomScale="86" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -7817,8 +7823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8F4A8F4-AAF9-534C-A76C-45D54A4AA321}">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8393,6 +8399,12 @@
       <c r="A29" s="1" t="s">
         <v>164</v>
       </c>
+      <c r="B29" s="6">
+        <v>2112</v>
+      </c>
+      <c r="C29" s="6">
+        <v>3775</v>
+      </c>
       <c r="D29" s="6" t="s">
         <v>98</v>
       </c>
@@ -8400,6 +8412,9 @@
         <v>69</v>
       </c>
       <c r="F29" s="2"/>
+      <c r="G29" s="3" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
@@ -8418,6 +8433,9 @@
         <v>69</v>
       </c>
       <c r="F30" s="2"/>
+      <c r="G30" s="3" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
@@ -8487,10 +8505,12 @@
     <hyperlink ref="G26" r:id="rId24" xr:uid="{4BB18C29-3E47-F944-B221-2FBC408E879F}"/>
     <hyperlink ref="G27" r:id="rId25" xr:uid="{D1899722-4A7F-C740-9D85-BB0987A5689C}"/>
     <hyperlink ref="G28" r:id="rId26" xr:uid="{238BB9F0-EE8E-7B41-B4BB-814C938F8075}"/>
+    <hyperlink ref="G29" r:id="rId27" xr:uid="{301FBC8D-1AA0-7E41-93E6-B959462BC5B5}"/>
+    <hyperlink ref="G30" r:id="rId28" xr:uid="{76D59AF6-DD10-5A43-8D8D-CB510BE93338}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId27"/>
+    <tablePart r:id="rId29"/>
   </tableParts>
 </worksheet>
 </file>
@@ -15212,7 +15232,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15247,17 +15267,25 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
+      <c r="A2" s="5">
+        <v>0.46142361111111113</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0.48586805555555557</v>
+      </c>
       <c r="C2" s="4">
         <f>Table2451533[[#This Row],[end_time]]-Table2451533[[#This Row],[start_time]]</f>
-        <v>0</v>
-      </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
+        <v>2.4444444444444435E-2</v>
+      </c>
+      <c r="F2" s="14">
+        <v>0.45619212962962963</v>
+      </c>
+      <c r="G2" s="14">
+        <v>0.49988425925925928</v>
+      </c>
       <c r="H2" s="14">
         <f>G2-F2</f>
-        <v>0</v>
+        <v>4.369212962962965E-2</v>
       </c>
       <c r="I2" s="15"/>
     </row>
@@ -15709,7 +15737,7 @@
       </c>
       <c r="C33" s="6">
         <f>HOUR(SUM(Table2451533[time_diff]))*3600 + MINUTE(SUM(Table2451533[time_diff])) * 60 + SECOND(SUM(Table2451533[time_diff]))</f>
-        <v>0</v>
+        <v>2112</v>
       </c>
       <c r="F33" s="11" t="s">
         <v>87</v>
@@ -15717,7 +15745,7 @@
       <c r="G33" s="11"/>
       <c r="H33" s="6">
         <f>HOUR(SUM(H2:H31))*3600 + MINUTE(SUM(H2:H31)) * 60 + SECOND(SUM(H2:H31))</f>
-        <v>0</v>
+        <v>3775</v>
       </c>
       <c r="I33" s="11"/>
     </row>
@@ -15749,7 +15777,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{420C3755-3FEC-2044-A90C-C2D3BB18642F}">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
@@ -19352,15 +19380,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="3322fca5-43da-49d1-b081-466ee88b9b9d">
@@ -19369,6 +19388,15 @@
     <TaxCatchAll xmlns="08edd21d-9f77-405a-872a-1371c16ee465" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -19607,14 +19635,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84C9AB0F-2376-4442-8FD0-7F9F6F9B731B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{711BD0AE-A67E-4DE0-BFB7-7F2D919E2D80}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -19627,6 +19647,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84C9AB0F-2376-4442-8FD0-7F9F6F9B731B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/data/raw/VCAS-rove_time.xlsx
+++ b/data/raw/VCAS-rove_time.xlsx
@@ -1,50 +1,54 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathansalas/R_Projects/VCAS1_prelim_efficiency/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93AF99F7-53C7-D442-A146-EB45CA999EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A79AE96-8031-8845-A78B-6332E5128C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" activeTab="1" xr2:uid="{0490BC07-0248-8949-839E-74C08EF47166}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19940" activeTab="1" xr2:uid="{0490BC07-0248-8949-839E-74C08EF47166}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
     <sheet name="results" sheetId="2" r:id="rId2"/>
     <sheet name="template" sheetId="11" r:id="rId3"/>
-    <sheet name="1-001" sheetId="10" r:id="rId4"/>
-    <sheet name="1-002" sheetId="13" r:id="rId5"/>
-    <sheet name="1-003" sheetId="29" r:id="rId6"/>
-    <sheet name="1-004" sheetId="30" r:id="rId7"/>
-    <sheet name="1-005" sheetId="14" r:id="rId8"/>
+    <sheet name="1-001" sheetId="10" state="hidden" r:id="rId4"/>
+    <sheet name="1-002" sheetId="13" state="hidden" r:id="rId5"/>
+    <sheet name="1-003" sheetId="29" state="hidden" r:id="rId6"/>
+    <sheet name="1-004" sheetId="30" state="hidden" r:id="rId7"/>
+    <sheet name="1-005" sheetId="14" state="hidden" r:id="rId8"/>
     <sheet name="1-010-original" sheetId="20" state="hidden" r:id="rId9"/>
-    <sheet name="1-006" sheetId="31" r:id="rId10"/>
-    <sheet name="1-007" sheetId="32" r:id="rId11"/>
-    <sheet name="1-008" sheetId="33" r:id="rId12"/>
-    <sheet name="1-009" sheetId="34" r:id="rId13"/>
-    <sheet name="1-010" sheetId="15" r:id="rId14"/>
-    <sheet name="1-012" sheetId="17" r:id="rId15"/>
-    <sheet name="1-013" sheetId="16" r:id="rId16"/>
-    <sheet name="1-014" sheetId="19" r:id="rId17"/>
-    <sheet name="1-015" sheetId="18" r:id="rId18"/>
-    <sheet name="1-016" sheetId="21" r:id="rId19"/>
-    <sheet name="1-017" sheetId="22" r:id="rId20"/>
-    <sheet name="3-001" sheetId="26" r:id="rId21"/>
-    <sheet name="3-002" sheetId="25" r:id="rId22"/>
-    <sheet name="3-003" sheetId="24" r:id="rId23"/>
-    <sheet name="3-004" sheetId="23" r:id="rId24"/>
-    <sheet name="1-018" sheetId="27" r:id="rId25"/>
-    <sheet name="1-019" sheetId="28" r:id="rId26"/>
-    <sheet name="1-020" sheetId="35" r:id="rId27"/>
-    <sheet name="1-021" sheetId="36" r:id="rId28"/>
-    <sheet name="1-022" sheetId="37" r:id="rId29"/>
-    <sheet name="1-023" sheetId="38" r:id="rId30"/>
+    <sheet name="1-006" sheetId="31" state="hidden" r:id="rId10"/>
+    <sheet name="1-007" sheetId="32" state="hidden" r:id="rId11"/>
+    <sheet name="1-008" sheetId="33" state="hidden" r:id="rId12"/>
+    <sheet name="1-009" sheetId="34" state="hidden" r:id="rId13"/>
+    <sheet name="1-010" sheetId="15" state="hidden" r:id="rId14"/>
+    <sheet name="1-012" sheetId="17" state="hidden" r:id="rId15"/>
+    <sheet name="1-013" sheetId="16" state="hidden" r:id="rId16"/>
+    <sheet name="1-014" sheetId="19" state="hidden" r:id="rId17"/>
+    <sheet name="1-015" sheetId="18" state="hidden" r:id="rId18"/>
+    <sheet name="1-016" sheetId="21" state="hidden" r:id="rId19"/>
+    <sheet name="1-017" sheetId="22" state="hidden" r:id="rId20"/>
+    <sheet name="3-001" sheetId="26" state="hidden" r:id="rId21"/>
+    <sheet name="3-002" sheetId="25" state="hidden" r:id="rId22"/>
+    <sheet name="3-003" sheetId="24" state="hidden" r:id="rId23"/>
+    <sheet name="3-004" sheetId="23" state="hidden" r:id="rId24"/>
+    <sheet name="1-018" sheetId="27" state="hidden" r:id="rId25"/>
+    <sheet name="1-019" sheetId="28" state="hidden" r:id="rId26"/>
+    <sheet name="1-020" sheetId="35" state="hidden" r:id="rId27"/>
+    <sheet name="1-021" sheetId="36" state="hidden" r:id="rId28"/>
+    <sheet name="1-022" sheetId="37" state="hidden" r:id="rId29"/>
+    <sheet name="1-023" sheetId="38" state="hidden" r:id="rId30"/>
     <sheet name="1-024" sheetId="39" r:id="rId31"/>
     <sheet name="1-025" sheetId="40" r:id="rId32"/>
+    <sheet name="1-026" sheetId="41" r:id="rId33"/>
+    <sheet name="3-005" sheetId="43" r:id="rId34"/>
+    <sheet name="3-006" sheetId="44" r:id="rId35"/>
+    <sheet name="3-008" sheetId="42" r:id="rId36"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -103,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="184">
   <si>
     <t>Here we track total ablation time which I will refer to going forward as rove_time</t>
   </si>
@@ -429,9 +433,6 @@
     <t>https://www.dropbox.com/scl/fo/is570gcktbtom1msir8zt/AONNAhFHaPlLnkOqadXyaqY?rlkey=z19u932s4tm1gc9ahuyoehpmk&amp;st=us60wflb&amp;dl=0</t>
   </si>
   <si>
-    <t>Why did we give so many single application lesions in this case?</t>
-  </si>
-  <si>
     <t>https://www.dropbox.com/scl/fo/xhk78kalk65wgpvj7auyb/AE_ARhwxc15CqbcynuscspI?rlkey=y43fcxabmq98k6b0bd886gy5s&amp;st=2183dxy9&amp;dl=0</t>
   </si>
   <si>
@@ -725,6 +726,45 @@
   <si>
     <t>https://fieldmedical.sharepoint.com/:v:/r/sites/Clinical/Shared%20Documents/VCAS%20Study/TMF-%20Subject%20Files/1-025/Footage/mix.mp4?csf=1&amp;web=1&amp;e=pwO54g</t>
   </si>
+  <si>
+    <t>1-026</t>
+  </si>
+  <si>
+    <t>3-005</t>
+  </si>
+  <si>
+    <t>3-006</t>
+  </si>
+  <si>
+    <t>3-007</t>
+  </si>
+  <si>
+    <t>3-008</t>
+  </si>
+  <si>
+    <t>Screen failure - pacemaker dependent</t>
+  </si>
+  <si>
+    <t>https://fieldmedical.sharepoint.com/:v:/r/sites/Clinical/Shared%20Documents/VCAS%20Study/TMF-%20Subject%20Files/1-026/Footage/mix.mp4?csf=1&amp;web=1&amp;e=a8MU7K</t>
+  </si>
+  <si>
+    <t>Leave blank for non-homolca data and we will merge in from GLG</t>
+  </si>
+  <si>
+    <t>Stopped to perform inducibility testing</t>
+  </si>
+  <si>
+    <t>https://fieldmedical.sharepoint.com/:t:/r/sites/Clinical/Shared%20Documents/VCAS%20Study/TMF-%20Subject%20Files/3-008/3-008%20abl.txt?csf=1&amp;web=1&amp;e=M4Yuxh</t>
+  </si>
+  <si>
+    <t>https://fieldmedical.sharepoint.com/:t:/r/sites/Clinical/Shared%20Documents/VCAS%20Study/TMF-%20Subject%20Files/3-006/03-006%20abl.txt?csf=1&amp;web=1&amp;e=5Bp6zD</t>
+  </si>
+  <si>
+    <t>https://fieldmedical.sharepoint.com/:t:/r/sites/Clinical/Shared%20Documents/VCAS%20Study/TMF-%20Subject%20Files/3-005/03-005%20abl.txt?csf=1&amp;web=1&amp;e=DkXDNr</t>
+  </si>
+  <si>
+    <t>Mostly epicardial ablation</t>
+  </si>
 </sst>
 </file>
 
@@ -791,7 +831,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -814,6 +854,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9D9D9"/>
         <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -859,7 +905,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -882,12 +928,49 @@
     <xf numFmtId="21" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="21" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="96">
+  <dxfs count="108">
+    <dxf>
+      <numFmt numFmtId="26" formatCode="hh:mm:ss"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="h:mm:ss;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="h:mm:ss;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="26" formatCode="hh:mm:ss"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="h:mm:ss;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="h:mm:ss;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="26" formatCode="hh:mm:ss"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="h:mm:ss;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="h:mm:ss;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="26" formatCode="hh:mm:ss"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="h:mm:ss;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="h:mm:ss;@"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="26" formatCode="hh:mm:ss"/>
     </dxf>
@@ -1199,14 +1282,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C55969D0-B28D-F248-8DCD-E81C0E8043BD}" name="Table1" displayName="Table1" ref="A1:G39" totalsRowShown="0">
   <autoFilter ref="A1:G39" xr:uid="{C55969D0-B28D-F248-8DCD-E81C0E8043BD}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{718012BD-7025-314F-8E4E-E629C18A0C65}" name="subjectId" dataDxfId="95"/>
-    <tableColumn id="2" xr3:uid="{461579DB-75ED-D945-B839-5CC1464620BE}" name="rove_time" dataDxfId="94"/>
-    <tableColumn id="8" xr3:uid="{5E0CEC32-C01F-A446-827E-6309FE417F82}" name="dwell_time" dataDxfId="93">
+    <tableColumn id="1" xr3:uid="{718012BD-7025-314F-8E4E-E629C18A0C65}" name="subjectId" dataDxfId="107"/>
+    <tableColumn id="2" xr3:uid="{461579DB-75ED-D945-B839-5CC1464620BE}" name="rove_time" dataDxfId="106"/>
+    <tableColumn id="8" xr3:uid="{5E0CEC32-C01F-A446-827E-6309FE417F82}" name="dwell_time" dataDxfId="105">
       <calculatedColumnFormula>'1-001'!H35</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{E391ECC4-3F7C-C84F-9F85-065534605FDC}" name="etiology" dataDxfId="92"/>
-    <tableColumn id="6" xr3:uid="{18DD3274-05B0-9245-BC8D-9610E146E79C}" name="therapy" dataDxfId="91"/>
-    <tableColumn id="4" xr3:uid="{3166333D-6394-D34A-93C0-598B4DEC56B1}" name="notes" dataDxfId="90"/>
+    <tableColumn id="9" xr3:uid="{E391ECC4-3F7C-C84F-9F85-065534605FDC}" name="etiology" dataDxfId="104"/>
+    <tableColumn id="6" xr3:uid="{18DD3274-05B0-9245-BC8D-9610E146E79C}" name="therapy" dataDxfId="103"/>
+    <tableColumn id="4" xr3:uid="{3166333D-6394-D34A-93C0-598B4DEC56B1}" name="notes" dataDxfId="102"/>
     <tableColumn id="3" xr3:uid="{A7F69E93-3952-2D4F-B01B-B9EB9DC3432C}" name="link_to_data"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1217,9 +1300,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{F5A4CEBC-9F74-3B4A-97EE-FBFC2B092D3F}" name="Table24812" displayName="Table24812" ref="A1:D31" totalsRowShown="0">
   <autoFilter ref="A1:D31" xr:uid="{7DCBAB66-89F8-6F47-8D64-FA0C26924201}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{6B6BD5F2-A455-4741-BE8B-EB4069C30402}" name="start_time" dataDxfId="71"/>
-    <tableColumn id="2" xr3:uid="{1A57601A-180E-3841-905B-984320643C2E}" name="end_time" dataDxfId="70"/>
-    <tableColumn id="3" xr3:uid="{00349B95-06C5-6347-9812-8CE148323ABF}" name="time_diff" dataDxfId="69">
+    <tableColumn id="1" xr3:uid="{6B6BD5F2-A455-4741-BE8B-EB4069C30402}" name="start_time" dataDxfId="83"/>
+    <tableColumn id="2" xr3:uid="{1A57601A-180E-3841-905B-984320643C2E}" name="end_time" dataDxfId="82"/>
+    <tableColumn id="3" xr3:uid="{00349B95-06C5-6347-9812-8CE148323ABF}" name="time_diff" dataDxfId="81">
       <calculatedColumnFormula>Table24812[[#This Row],[end_time]]-Table24812[[#This Row],[start_time]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{F0480389-BE2E-CA47-91C9-281947E722D0}" name="notes"/>
@@ -1232,9 +1315,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{3F78E5F9-8FC7-1747-90FF-3E51FC67A570}" name="Table245153456" displayName="Table245153456" ref="A1:D31" totalsRowShown="0">
   <autoFilter ref="A1:D31" xr:uid="{1A93302E-8621-7D48-88F2-5AC51E7EA3A4}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{F488A4D9-2DF8-D244-AEBC-805EFBE08DF6}" name="start_time" dataDxfId="68"/>
-    <tableColumn id="2" xr3:uid="{ACA4FF7E-238C-8F45-9565-DAD7F42E73B8}" name="end_time" dataDxfId="67"/>
-    <tableColumn id="3" xr3:uid="{F6BC8755-5891-4645-8170-88F754E99AA6}" name="time_diff" dataDxfId="66">
+    <tableColumn id="1" xr3:uid="{F488A4D9-2DF8-D244-AEBC-805EFBE08DF6}" name="start_time" dataDxfId="80"/>
+    <tableColumn id="2" xr3:uid="{ACA4FF7E-238C-8F45-9565-DAD7F42E73B8}" name="end_time" dataDxfId="79"/>
+    <tableColumn id="3" xr3:uid="{F6BC8755-5891-4645-8170-88F754E99AA6}" name="time_diff" dataDxfId="78">
       <calculatedColumnFormula>Table245153456[[#This Row],[end_time]]-Table245153456[[#This Row],[start_time]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{675A7FCC-306A-304D-91DC-89128A249BDF}" name="notes"/>
@@ -1247,9 +1330,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{23DABAA4-E878-7146-A7F3-85DD83F4C855}" name="Table24515345" displayName="Table24515345" ref="A1:D31" totalsRowShown="0">
   <autoFilter ref="A1:D31" xr:uid="{1A93302E-8621-7D48-88F2-5AC51E7EA3A4}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{EE8B83DD-E65E-C441-9E58-95C830211436}" name="start_time" dataDxfId="65"/>
-    <tableColumn id="2" xr3:uid="{F6B57195-8D07-9240-B4C7-E06E1251BBF4}" name="end_time" dataDxfId="64"/>
-    <tableColumn id="3" xr3:uid="{F39F83CF-BB22-E54A-87DA-A8A19D2D22EA}" name="time_diff" dataDxfId="63">
+    <tableColumn id="1" xr3:uid="{EE8B83DD-E65E-C441-9E58-95C830211436}" name="start_time" dataDxfId="77"/>
+    <tableColumn id="2" xr3:uid="{F6B57195-8D07-9240-B4C7-E06E1251BBF4}" name="end_time" dataDxfId="76"/>
+    <tableColumn id="3" xr3:uid="{F39F83CF-BB22-E54A-87DA-A8A19D2D22EA}" name="time_diff" dataDxfId="75">
       <calculatedColumnFormula>Table24515345[[#This Row],[end_time]]-Table24515345[[#This Row],[start_time]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{486CF052-5F91-344A-902D-F2CA7FB8D506}" name="notes"/>
@@ -1262,9 +1345,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{F1C0DDBF-006F-FE45-828C-B8FDAB683C59}" name="Table2451534" displayName="Table2451534" ref="A1:D31" totalsRowShown="0">
   <autoFilter ref="A1:D31" xr:uid="{1A93302E-8621-7D48-88F2-5AC51E7EA3A4}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{AD2DB3ED-B602-8946-99FC-F31C04E30CB1}" name="start_time" dataDxfId="62"/>
-    <tableColumn id="2" xr3:uid="{60EB5449-1ABA-D24F-9AB7-DA92E3458840}" name="end_time" dataDxfId="61"/>
-    <tableColumn id="3" xr3:uid="{0A4C1CEB-45DC-BC4A-B70E-CFFE5BC5F5CD}" name="time_diff" dataDxfId="60">
+    <tableColumn id="1" xr3:uid="{AD2DB3ED-B602-8946-99FC-F31C04E30CB1}" name="start_time" dataDxfId="74"/>
+    <tableColumn id="2" xr3:uid="{60EB5449-1ABA-D24F-9AB7-DA92E3458840}" name="end_time" dataDxfId="73"/>
+    <tableColumn id="3" xr3:uid="{0A4C1CEB-45DC-BC4A-B70E-CFFE5BC5F5CD}" name="time_diff" dataDxfId="72">
       <calculatedColumnFormula>Table2451534[[#This Row],[end_time]]-Table2451534[[#This Row],[start_time]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{48442FEA-2429-4A47-8FCB-D99F912F4A8E}" name="notes"/>
@@ -1277,9 +1360,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{2C87F7CC-7C0F-0642-8F9A-FE038CD3FF1B}" name="Table245153" displayName="Table245153" ref="A1:D31" totalsRowShown="0">
   <autoFilter ref="A1:D31" xr:uid="{1A93302E-8621-7D48-88F2-5AC51E7EA3A4}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{1AC28B04-A977-FD4B-B78A-9DCC5E7EB80F}" name="start_time" dataDxfId="59"/>
-    <tableColumn id="2" xr3:uid="{C3B83CA2-3C6D-EA4A-BA2E-70FD53E04984}" name="end_time" dataDxfId="58"/>
-    <tableColumn id="3" xr3:uid="{4F86D6E1-1D92-8341-A9E9-53EB64E4C5D3}" name="time_diff" dataDxfId="57">
+    <tableColumn id="1" xr3:uid="{1AC28B04-A977-FD4B-B78A-9DCC5E7EB80F}" name="start_time" dataDxfId="71"/>
+    <tableColumn id="2" xr3:uid="{C3B83CA2-3C6D-EA4A-BA2E-70FD53E04984}" name="end_time" dataDxfId="70"/>
+    <tableColumn id="3" xr3:uid="{4F86D6E1-1D92-8341-A9E9-53EB64E4C5D3}" name="time_diff" dataDxfId="69">
       <calculatedColumnFormula>Table245153[[#This Row],[end_time]]-Table245153[[#This Row],[start_time]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{04931610-B628-D646-9B41-7F657DD32595}" name="notes"/>
@@ -1292,9 +1375,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{772A68B7-3577-954E-96AB-3F9F135762FE}" name="Table248" displayName="Table248" ref="A1:D31" totalsRowShown="0">
   <autoFilter ref="A1:D31" xr:uid="{7DCBAB66-89F8-6F47-8D64-FA0C26924201}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{6C1948AC-21BF-BA4D-A66C-95CD6D282814}" name="start_time" dataDxfId="56"/>
-    <tableColumn id="2" xr3:uid="{FCE64BF5-4264-4C43-929C-08AD08C28E78}" name="end_time" dataDxfId="55"/>
-    <tableColumn id="3" xr3:uid="{53FD3C4C-5892-8C4A-80B1-B3228D1980FF}" name="time_diff" dataDxfId="54">
+    <tableColumn id="1" xr3:uid="{6C1948AC-21BF-BA4D-A66C-95CD6D282814}" name="start_time" dataDxfId="68"/>
+    <tableColumn id="2" xr3:uid="{FCE64BF5-4264-4C43-929C-08AD08C28E78}" name="end_time" dataDxfId="67"/>
+    <tableColumn id="3" xr3:uid="{53FD3C4C-5892-8C4A-80B1-B3228D1980FF}" name="time_diff" dataDxfId="66">
       <calculatedColumnFormula>Table248[[#This Row],[end_time]]-Table248[[#This Row],[start_time]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{F22060DE-01C3-9C4C-A473-BCE8D37580D6}" name="notes"/>
@@ -1307,9 +1390,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{D84B3EF0-7875-184B-870A-3642242A31F0}" name="Table2410" displayName="Table2410" ref="A1:D31" totalsRowShown="0">
   <autoFilter ref="A1:D31" xr:uid="{7DCBAB66-89F8-6F47-8D64-FA0C26924201}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{3577E981-DDE4-CC47-8395-6FEE5951473E}" name="start_time" dataDxfId="53"/>
-    <tableColumn id="2" xr3:uid="{14BD1FB2-4172-BE43-8B3C-F4348552D39D}" name="end_time" dataDxfId="52"/>
-    <tableColumn id="3" xr3:uid="{EA005961-FE83-1F48-8259-AAAD2071A3B1}" name="time_diff" dataDxfId="51">
+    <tableColumn id="1" xr3:uid="{3577E981-DDE4-CC47-8395-6FEE5951473E}" name="start_time" dataDxfId="65"/>
+    <tableColumn id="2" xr3:uid="{14BD1FB2-4172-BE43-8B3C-F4348552D39D}" name="end_time" dataDxfId="64"/>
+    <tableColumn id="3" xr3:uid="{EA005961-FE83-1F48-8259-AAAD2071A3B1}" name="time_diff" dataDxfId="63">
       <calculatedColumnFormula>Table2410[[#This Row],[end_time]]-Table2410[[#This Row],[start_time]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{7A57ED91-2446-8F4F-95C2-3088CD96BD62}" name="notes"/>
@@ -1322,9 +1405,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{0A3CEC53-F376-1D4D-846C-0F34B09239B4}" name="Table249" displayName="Table249" ref="A1:D31" totalsRowShown="0">
   <autoFilter ref="A1:D31" xr:uid="{7DCBAB66-89F8-6F47-8D64-FA0C26924201}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{49600F71-5258-BD4C-B040-17EFB93CC626}" name="start_time" dataDxfId="50"/>
-    <tableColumn id="2" xr3:uid="{BDE18332-AF9E-6E4E-B81F-9AB511ACDD6F}" name="end_time" dataDxfId="49"/>
-    <tableColumn id="3" xr3:uid="{8AAE5943-30E3-C746-AE58-07515593AE41}" name="time_diff" dataDxfId="48">
+    <tableColumn id="1" xr3:uid="{49600F71-5258-BD4C-B040-17EFB93CC626}" name="start_time" dataDxfId="62"/>
+    <tableColumn id="2" xr3:uid="{BDE18332-AF9E-6E4E-B81F-9AB511ACDD6F}" name="end_time" dataDxfId="61"/>
+    <tableColumn id="3" xr3:uid="{8AAE5943-30E3-C746-AE58-07515593AE41}" name="time_diff" dataDxfId="60">
       <calculatedColumnFormula>Table249[[#This Row],[end_time]]-Table249[[#This Row],[start_time]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{7880A518-97D3-0D44-977A-E75D9468AB4A}" name="notes"/>
@@ -1337,9 +1420,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{A7ADDBBE-0483-F84D-98C5-791E3CFC3CE4}" name="Table24511" displayName="Table24511" ref="A1:D31" totalsRowShown="0">
   <autoFilter ref="A1:D31" xr:uid="{7DCBAB66-89F8-6F47-8D64-FA0C26924201}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{26C8DC9E-AF52-B74F-997F-91F760434CC8}" name="start_time" dataDxfId="47"/>
-    <tableColumn id="2" xr3:uid="{6083687F-E3D1-0F47-90EE-749E4C68F9D7}" name="end_time" dataDxfId="46"/>
-    <tableColumn id="3" xr3:uid="{11F768A3-7132-674C-8E3C-457C09009AD5}" name="time_diff" dataDxfId="45">
+    <tableColumn id="1" xr3:uid="{26C8DC9E-AF52-B74F-997F-91F760434CC8}" name="start_time" dataDxfId="59"/>
+    <tableColumn id="2" xr3:uid="{6083687F-E3D1-0F47-90EE-749E4C68F9D7}" name="end_time" dataDxfId="58"/>
+    <tableColumn id="3" xr3:uid="{11F768A3-7132-674C-8E3C-457C09009AD5}" name="time_diff" dataDxfId="57">
       <calculatedColumnFormula>Table24511[[#This Row],[end_time]]-Table24511[[#This Row],[start_time]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{6BF25E36-BEFE-334C-B53B-9359DA68008A}" name="notes"/>
@@ -1352,9 +1435,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{039AD6AB-0126-1947-A333-DE36DDA0B7E4}" name="Table245" displayName="Table245" ref="A1:D31" totalsRowShown="0">
   <autoFilter ref="A1:D31" xr:uid="{7DCBAB66-89F8-6F47-8D64-FA0C26924201}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{8C37C915-F94A-5148-A3D1-EE8B899AF7F8}" name="start_time" dataDxfId="44"/>
-    <tableColumn id="2" xr3:uid="{B8735F0A-4AB0-C54D-85C0-1F0A63FA3498}" name="end_time" dataDxfId="43"/>
-    <tableColumn id="3" xr3:uid="{12E891A6-DF38-EE41-AC70-EAADDDA13272}" name="time_diff" dataDxfId="42">
+    <tableColumn id="1" xr3:uid="{8C37C915-F94A-5148-A3D1-EE8B899AF7F8}" name="start_time" dataDxfId="56"/>
+    <tableColumn id="2" xr3:uid="{B8735F0A-4AB0-C54D-85C0-1F0A63FA3498}" name="end_time" dataDxfId="55"/>
+    <tableColumn id="3" xr3:uid="{12E891A6-DF38-EE41-AC70-EAADDDA13272}" name="time_diff" dataDxfId="54">
       <calculatedColumnFormula>Table245[[#This Row],[end_time]]-Table245[[#This Row],[start_time]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{F8493A5C-0C25-FD45-A552-FE369F4F3DAD}" name="notes"/>
@@ -1367,9 +1450,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{1A93302E-8621-7D48-88F2-5AC51E7EA3A4}" name="Table24515" displayName="Table24515" ref="A1:D31" totalsRowShown="0">
   <autoFilter ref="A1:D31" xr:uid="{1A93302E-8621-7D48-88F2-5AC51E7EA3A4}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{4542A81A-297E-DB48-B049-9309ACD42F2B}" name="start_time" dataDxfId="89"/>
-    <tableColumn id="2" xr3:uid="{FC99294C-6B9C-9349-BAD2-0D219F840C1B}" name="end_time" dataDxfId="88"/>
-    <tableColumn id="3" xr3:uid="{DBC27D03-BB8D-904E-8022-8B6335C64879}" name="time_diff" dataDxfId="87">
+    <tableColumn id="1" xr3:uid="{4542A81A-297E-DB48-B049-9309ACD42F2B}" name="start_time" dataDxfId="101"/>
+    <tableColumn id="2" xr3:uid="{FC99294C-6B9C-9349-BAD2-0D219F840C1B}" name="end_time" dataDxfId="100"/>
+    <tableColumn id="3" xr3:uid="{DBC27D03-BB8D-904E-8022-8B6335C64879}" name="time_diff" dataDxfId="99">
       <calculatedColumnFormula>Table24515[[#This Row],[end_time]]-Table24515[[#This Row],[start_time]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{D5223D27-0D62-AC4C-857C-038DCA9594DB}" name="notes"/>
@@ -1382,9 +1465,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{1825D363-0D01-614F-8BB6-B82D0839B62E}" name="Table245154" displayName="Table245154" ref="A1:D31" totalsRowShown="0">
   <autoFilter ref="A1:D31" xr:uid="{1A93302E-8621-7D48-88F2-5AC51E7EA3A4}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{85D813AA-3E14-AA49-8764-1AFB1744F6CB}" name="start_time" dataDxfId="41"/>
-    <tableColumn id="2" xr3:uid="{6FA6C7C4-391C-734C-A912-3190038D77AB}" name="end_time" dataDxfId="40"/>
-    <tableColumn id="3" xr3:uid="{9C4583F8-953A-D04B-AA91-7D77A5FF66F0}" name="time_diff" dataDxfId="39">
+    <tableColumn id="1" xr3:uid="{85D813AA-3E14-AA49-8764-1AFB1744F6CB}" name="start_time" dataDxfId="53"/>
+    <tableColumn id="2" xr3:uid="{6FA6C7C4-391C-734C-A912-3190038D77AB}" name="end_time" dataDxfId="52"/>
+    <tableColumn id="3" xr3:uid="{9C4583F8-953A-D04B-AA91-7D77A5FF66F0}" name="time_diff" dataDxfId="51">
       <calculatedColumnFormula>Table245154[[#This Row],[end_time]]-Table245154[[#This Row],[start_time]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{23A25CAD-E05F-1648-AA7C-0B4BD9C1739D}" name="notes"/>
@@ -1397,9 +1480,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{CE45E49D-73E4-8A4C-B1C1-A5F171222BA6}" name="Table24515416" displayName="Table24515416" ref="A1:D31" totalsRowShown="0">
   <autoFilter ref="A1:D31" xr:uid="{1A93302E-8621-7D48-88F2-5AC51E7EA3A4}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{31B61C1F-509B-C549-8AEF-DF0658F2B96B}" name="start_time" dataDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{091F6D25-E362-ED42-9029-E0BCEEAEA850}" name="end_time" dataDxfId="37"/>
-    <tableColumn id="3" xr3:uid="{318940A5-8075-5D4C-BD68-125D391D783D}" name="time_diff" dataDxfId="36">
+    <tableColumn id="1" xr3:uid="{31B61C1F-509B-C549-8AEF-DF0658F2B96B}" name="start_time" dataDxfId="50"/>
+    <tableColumn id="2" xr3:uid="{091F6D25-E362-ED42-9029-E0BCEEAEA850}" name="end_time" dataDxfId="49"/>
+    <tableColumn id="3" xr3:uid="{318940A5-8075-5D4C-BD68-125D391D783D}" name="time_diff" dataDxfId="48">
       <calculatedColumnFormula>Table24515416[[#This Row],[end_time]]-Table24515416[[#This Row],[start_time]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{4ECB2A10-B67B-D84C-9D70-CB15A16921DE}" name="notes"/>
@@ -1412,9 +1495,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{130F2C16-F9C9-CF46-A41B-03CB1D6467B4}" name="Table2451517181920" displayName="Table2451517181920" ref="A1:D31" totalsRowShown="0">
   <autoFilter ref="A1:D31" xr:uid="{1A93302E-8621-7D48-88F2-5AC51E7EA3A4}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{58637CDA-F3F8-FB4F-825C-C88AA91FAD7B}" name="start_time" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{1096A82C-CDE7-4340-BAF9-3BAA3098CA7F}" name="end_time" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{02C5EC47-6504-E246-90FC-F20CBBDEB705}" name="time_diff" dataDxfId="33">
+    <tableColumn id="1" xr3:uid="{58637CDA-F3F8-FB4F-825C-C88AA91FAD7B}" name="start_time" dataDxfId="47"/>
+    <tableColumn id="2" xr3:uid="{1096A82C-CDE7-4340-BAF9-3BAA3098CA7F}" name="end_time" dataDxfId="46"/>
+    <tableColumn id="3" xr3:uid="{02C5EC47-6504-E246-90FC-F20CBBDEB705}" name="time_diff" dataDxfId="45">
       <calculatedColumnFormula>Table2451517181920[[#This Row],[end_time]]-Table2451517181920[[#This Row],[start_time]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{1469F086-E8DD-C741-AA69-4E9161FE65C0}" name="notes"/>
@@ -1427,9 +1510,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{1029D1F1-1F5A-3E49-AF78-3C0DC1D2F68D}" name="Table24515171819" displayName="Table24515171819" ref="A1:D31" totalsRowShown="0">
   <autoFilter ref="A1:D31" xr:uid="{1A93302E-8621-7D48-88F2-5AC51E7EA3A4}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{044D31B5-AD7A-E643-B833-0826FB3FF28C}" name="start_time" dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{65F326FC-ED53-1A4C-B3DE-07B092115C14}" name="end_time" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{FC649FAA-6E56-154B-8877-A16770D51793}" name="time_diff" dataDxfId="30">
+    <tableColumn id="1" xr3:uid="{044D31B5-AD7A-E643-B833-0826FB3FF28C}" name="start_time" dataDxfId="44"/>
+    <tableColumn id="2" xr3:uid="{65F326FC-ED53-1A4C-B3DE-07B092115C14}" name="end_time" dataDxfId="43"/>
+    <tableColumn id="3" xr3:uid="{FC649FAA-6E56-154B-8877-A16770D51793}" name="time_diff" dataDxfId="42">
       <calculatedColumnFormula>Table24515171819[[#This Row],[end_time]]-Table24515171819[[#This Row],[start_time]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{C770E668-C460-4649-98CE-000E807A6F4C}" name="notes"/>
@@ -1442,9 +1525,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{A8099601-2538-9E41-BA1B-CA228C6B7FD8}" name="Table245151718" displayName="Table245151718" ref="A1:D31" totalsRowShown="0">
   <autoFilter ref="A1:D31" xr:uid="{1A93302E-8621-7D48-88F2-5AC51E7EA3A4}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{152C5995-5BCE-0F4A-AB21-E37E5A45CC96}" name="start_time" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{A314440D-1DAD-F747-8091-26BF031D535E}" name="end_time" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{8038CAE0-AE64-A94A-8EEC-196F11CC42FB}" name="time_diff" dataDxfId="27">
+    <tableColumn id="1" xr3:uid="{152C5995-5BCE-0F4A-AB21-E37E5A45CC96}" name="start_time" dataDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{A314440D-1DAD-F747-8091-26BF031D535E}" name="end_time" dataDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{8038CAE0-AE64-A94A-8EEC-196F11CC42FB}" name="time_diff" dataDxfId="39">
       <calculatedColumnFormula>Table245151718[[#This Row],[end_time]]-Table245151718[[#This Row],[start_time]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{E78FDFD8-421B-4B42-8E66-304EDA7C4631}" name="notes"/>
@@ -1457,9 +1540,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{10879581-5376-9648-90EC-5599AE274B37}" name="Table2451517" displayName="Table2451517" ref="A1:D31" totalsRowShown="0">
   <autoFilter ref="A1:D31" xr:uid="{1A93302E-8621-7D48-88F2-5AC51E7EA3A4}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{2036FDA6-A87D-5C41-84BB-E2DE3418E515}" name="start_time" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{63FAF62F-E02F-9344-92DD-A7835371FD15}" name="end_time" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{84451293-C537-C74D-85BC-080896072B82}" name="time_diff" dataDxfId="24">
+    <tableColumn id="1" xr3:uid="{2036FDA6-A87D-5C41-84BB-E2DE3418E515}" name="start_time" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{63FAF62F-E02F-9344-92DD-A7835371FD15}" name="end_time" dataDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{84451293-C537-C74D-85BC-080896072B82}" name="time_diff" dataDxfId="36">
       <calculatedColumnFormula>Table2451517[[#This Row],[end_time]]-Table2451517[[#This Row],[start_time]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{D9D1EDB1-9623-3A44-A4BF-E8857517A4BE}" name="notes"/>
@@ -1472,9 +1555,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{2B4E61D6-F073-DC43-BDFC-32D5D661417D}" name="Table2451521" displayName="Table2451521" ref="A1:D31" totalsRowShown="0">
   <autoFilter ref="A1:D31" xr:uid="{1A93302E-8621-7D48-88F2-5AC51E7EA3A4}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{DBDC0137-E30C-354A-87F0-8FC256EE47DD}" name="start_time" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{F3C9949C-5E56-3043-B895-7F1C223F084C}" name="end_time" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{284C38E6-8B60-FF42-B36D-752AB81A0D3E}" name="time_diff" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{DBDC0137-E30C-354A-87F0-8FC256EE47DD}" name="start_time" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{F3C9949C-5E56-3043-B895-7F1C223F084C}" name="end_time" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{284C38E6-8B60-FF42-B36D-752AB81A0D3E}" name="time_diff" dataDxfId="33">
       <calculatedColumnFormula>Table2451521[[#This Row],[end_time]]-Table2451521[[#This Row],[start_time]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{997FD67A-B2F8-4047-8AFA-B14BF2F18FC2}" name="notes"/>
@@ -1487,9 +1570,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{BA39C582-8A3B-4040-B00B-B16288D1ADEA}" name="Table245152122" displayName="Table245152122" ref="A1:D31" totalsRowShown="0">
   <autoFilter ref="A1:D31" xr:uid="{1A93302E-8621-7D48-88F2-5AC51E7EA3A4}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{25E83ED4-93AC-F047-AF73-BA3F105A6D0A}" name="start_time" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{F0229387-F330-284C-B4AE-1D5D5E6605D1}" name="end_time" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{FEBDECC5-2779-A649-A021-31F708F52761}" name="time_diff" dataDxfId="18">
+    <tableColumn id="1" xr3:uid="{25E83ED4-93AC-F047-AF73-BA3F105A6D0A}" name="start_time" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{F0229387-F330-284C-B4AE-1D5D5E6605D1}" name="end_time" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{FEBDECC5-2779-A649-A021-31F708F52761}" name="time_diff" dataDxfId="30">
       <calculatedColumnFormula>Table245152122[[#This Row],[end_time]]-Table245152122[[#This Row],[start_time]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{AF082110-2951-F84E-8D3A-9165E0C2C148}" name="notes"/>
@@ -1502,9 +1585,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{661D3210-775C-8040-8FE5-26CDF0E1C0C6}" name="Table2451529" displayName="Table2451529" ref="A1:D31" totalsRowShown="0">
   <autoFilter ref="A1:D31" xr:uid="{1A93302E-8621-7D48-88F2-5AC51E7EA3A4}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{ED768153-5408-0040-8E27-7A60AC8E2998}" name="start_time" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{85BF026F-4EF2-414B-97C8-8F4A405735DA}" name="end_time" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{FA7B9F4D-D773-3944-A5EF-C6BF952DF273}" name="time_diff" dataDxfId="15">
+    <tableColumn id="1" xr3:uid="{ED768153-5408-0040-8E27-7A60AC8E2998}" name="start_time" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{85BF026F-4EF2-414B-97C8-8F4A405735DA}" name="end_time" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{FA7B9F4D-D773-3944-A5EF-C6BF952DF273}" name="time_diff" dataDxfId="27">
       <calculatedColumnFormula>Table2451529[[#This Row],[end_time]]-Table2451529[[#This Row],[start_time]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{93ED54FD-B021-8042-8A26-06CABF9E31ED}" name="notes"/>
@@ -1517,9 +1600,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{2A32B478-DE8E-8744-8E1D-E79CAB721CFA}" name="Table245152930" displayName="Table245152930" ref="A1:D31" totalsRowShown="0">
   <autoFilter ref="A1:D31" xr:uid="{1A93302E-8621-7D48-88F2-5AC51E7EA3A4}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{79880ACD-2F16-8B41-B96B-06D8373CF56F}" name="start_time" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{5EBA4F35-D0D6-5841-8642-F7EB935C9D15}" name="end_time" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{33ADB2D4-D36E-C540-B4EE-1777AB5350B0}" name="time_diff" dataDxfId="12">
+    <tableColumn id="1" xr3:uid="{79880ACD-2F16-8B41-B96B-06D8373CF56F}" name="start_time" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{5EBA4F35-D0D6-5841-8642-F7EB935C9D15}" name="end_time" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{33ADB2D4-D36E-C540-B4EE-1777AB5350B0}" name="time_diff" dataDxfId="24">
       <calculatedColumnFormula>Table245152930[[#This Row],[end_time]]-Table245152930[[#This Row],[start_time]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{67846232-3E2C-AF45-BD20-49FA08924520}" name="notes"/>
@@ -1534,7 +1617,7 @@
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{01F56379-480D-E144-8844-79E29F338160}" name="start_time"/>
     <tableColumn id="2" xr3:uid="{80A1EC3F-97BF-2A42-A823-A672AD58C802}" name="end_time"/>
-    <tableColumn id="3" xr3:uid="{F529491E-B189-F14F-8D98-A6DD0470EB40}" name="time_diff" dataDxfId="86">
+    <tableColumn id="3" xr3:uid="{F529491E-B189-F14F-8D98-A6DD0470EB40}" name="time_diff" dataDxfId="98">
       <calculatedColumnFormula>Table2[[#This Row],[end_time]]-Table2[[#This Row],[start_time]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{DC0F7FFE-563B-3E40-AAB4-A68B98253F92}" name="notes"/>
@@ -1547,9 +1630,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{2EB2F573-CED5-AA4A-8CF8-F3AEF0AA7723}" name="Table245152931" displayName="Table245152931" ref="A1:D31" totalsRowShown="0">
   <autoFilter ref="A1:D31" xr:uid="{1A93302E-8621-7D48-88F2-5AC51E7EA3A4}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{73DC15AF-3DAA-8143-AF82-F1D507DCE96F}" name="start_time" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{D5FE6EE4-7C86-FF49-BF49-4BE6F39FC1A9}" name="end_time" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{19EF1AAC-C504-8E46-AE44-B9439BD37567}" name="time_diff" dataDxfId="9">
+    <tableColumn id="1" xr3:uid="{73DC15AF-3DAA-8143-AF82-F1D507DCE96F}" name="start_time" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{D5FE6EE4-7C86-FF49-BF49-4BE6F39FC1A9}" name="end_time" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{19EF1AAC-C504-8E46-AE44-B9439BD37567}" name="time_diff" dataDxfId="21">
       <calculatedColumnFormula>Table245152931[[#This Row],[end_time]]-Table245152931[[#This Row],[start_time]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{00B18BD3-325E-1D4C-918C-B906E01F9629}" name="notes"/>
@@ -1562,9 +1645,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{199CB066-B051-3341-ADBB-1E54C19CADA1}" name="Table24515293132" displayName="Table24515293132" ref="A1:D31" totalsRowShown="0">
   <autoFilter ref="A1:D31" xr:uid="{1A93302E-8621-7D48-88F2-5AC51E7EA3A4}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{2A4F6AEE-4765-4041-B244-0BEE39578BB0}" name="start_time" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{860B172B-36D9-6C40-AEBE-E23FD467A8C3}" name="end_time" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{2F5A21E2-41C6-384E-ACA1-907DDE787D4B}" name="time_diff" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{2A4F6AEE-4765-4041-B244-0BEE39578BB0}" name="start_time" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{860B172B-36D9-6C40-AEBE-E23FD467A8C3}" name="end_time" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{2F5A21E2-41C6-384E-ACA1-907DDE787D4B}" name="time_diff" dataDxfId="18">
       <calculatedColumnFormula>Table24515293132[[#This Row],[end_time]]-Table24515293132[[#This Row],[start_time]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{0DC69275-E5B9-2141-B9B8-C11748283861}" name="notes"/>
@@ -1577,9 +1660,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{06A6F3E2-626F-8B4A-9E0D-9700F934709A}" name="Table2451533" displayName="Table2451533" ref="A1:D31" totalsRowShown="0">
   <autoFilter ref="A1:D31" xr:uid="{1A93302E-8621-7D48-88F2-5AC51E7EA3A4}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{6F3BA02B-C7C3-3648-AEF6-CE3B7B5C96AE}" name="start_time" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{EB6C5B05-913E-6C4F-8330-3E7CBDBA2766}" name="end_time" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{21CEE3A7-1FA0-5749-9CC4-B7EF3AEBA3F9}" name="time_diff" dataDxfId="3">
+    <tableColumn id="1" xr3:uid="{6F3BA02B-C7C3-3648-AEF6-CE3B7B5C96AE}" name="start_time" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{EB6C5B05-913E-6C4F-8330-3E7CBDBA2766}" name="end_time" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{21CEE3A7-1FA0-5749-9CC4-B7EF3AEBA3F9}" name="time_diff" dataDxfId="15">
       <calculatedColumnFormula>Table2451533[[#This Row],[end_time]]-Table2451533[[#This Row],[start_time]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{0DB42EF9-5D80-2145-8D74-E69681387C37}" name="notes"/>
@@ -1592,12 +1675,72 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="33" xr:uid="{3A4EBCD4-7107-744D-876A-39BF783E4518}" name="Table245153334" displayName="Table245153334" ref="A1:D31" totalsRowShown="0">
   <autoFilter ref="A1:D31" xr:uid="{1A93302E-8621-7D48-88F2-5AC51E7EA3A4}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{2EF55489-2CD2-374A-A411-45BFC6EF0F11}" name="start_time" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{3A3B2D6B-229B-534D-913B-CD67E99E2FC0}" name="end_time" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{1582DACA-6910-E747-AC0A-911487FD8F40}" name="time_diff" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{2EF55489-2CD2-374A-A411-45BFC6EF0F11}" name="start_time" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{3A3B2D6B-229B-534D-913B-CD67E99E2FC0}" name="end_time" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{1582DACA-6910-E747-AC0A-911487FD8F40}" name="time_diff" dataDxfId="12">
       <calculatedColumnFormula>Table245153334[[#This Row],[end_time]]-Table245153334[[#This Row],[start_time]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{3964B772-35E4-B248-AE1D-C3E807B80CB1}" name="notes"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table34.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{067171CD-1661-4F49-B9A6-3B9467E13495}" name="Table2451535" displayName="Table2451535" ref="A1:D31" totalsRowShown="0">
+  <autoFilter ref="A1:D31" xr:uid="{1A93302E-8621-7D48-88F2-5AC51E7EA3A4}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{BCC60B1B-FFB0-3346-83B8-0928A22E4FB5}" name="start_time" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{65711522-D37A-7B40-8E03-E783462BBA35}" name="end_time" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{656F7A73-0DD0-B94C-8E21-4A276F00C68B}" name="time_diff" dataDxfId="9">
+      <calculatedColumnFormula>Table2451535[[#This Row],[end_time]]-Table2451535[[#This Row],[start_time]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{7AFF5200-1B8C-0340-97D7-347091A4D876}" name="notes"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table35.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="36" xr:uid="{EFA2107C-68C0-0A45-BBA5-AC9346E8FA2D}" name="Table245153637" displayName="Table245153637" ref="A1:D31" totalsRowShown="0">
+  <autoFilter ref="A1:D31" xr:uid="{1A93302E-8621-7D48-88F2-5AC51E7EA3A4}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{11051CF9-6616-E74A-9B85-7170EE89785C}" name="start_time" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{927DE516-6F17-2E40-9363-E64B36906B1E}" name="end_time" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{EB12BC3A-518B-104D-920F-7DA2796B12AD}" name="time_diff" dataDxfId="6">
+      <calculatedColumnFormula>Table245153637[[#This Row],[end_time]]-Table245153637[[#This Row],[start_time]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{A17B8002-A19D-6C45-9EFB-1509424A7F8B}" name="notes"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table36.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="37" xr:uid="{3FD3357F-3DD9-F24A-9246-74E756AEE1C3}" name="Table245153638" displayName="Table245153638" ref="A1:D31" totalsRowShown="0">
+  <autoFilter ref="A1:D31" xr:uid="{1A93302E-8621-7D48-88F2-5AC51E7EA3A4}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{28F0006C-C66D-5242-95AA-BD8D2DF3487F}" name="start_time" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{2E77C84E-6895-D24A-A456-BFAC6EC6CB47}" name="end_time" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{586A61FC-6C2B-7E4F-888D-0E79D7F4FED9}" name="time_diff" dataDxfId="3">
+      <calculatedColumnFormula>Table245153638[[#This Row],[end_time]]-Table245153638[[#This Row],[start_time]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{2DC7C73D-C589-C54F-A3C9-1BE236587A24}" name="notes"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table37.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="35" xr:uid="{05D30B86-107B-3543-AC06-4FC64D65AEBE}" name="Table2451536" displayName="Table2451536" ref="A1:D31" totalsRowShown="0">
+  <autoFilter ref="A1:D31" xr:uid="{1A93302E-8621-7D48-88F2-5AC51E7EA3A4}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{0EF8A810-C943-B94C-AB65-2B95C41CA00D}" name="start_time" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{DC0B0D3A-620F-A44D-A8AA-5083127A6E97}" name="end_time" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{5B8AED29-D861-A64B-97F4-180576F737A9}" name="time_diff" dataDxfId="0">
+      <calculatedColumnFormula>Table2451536[[#This Row],[end_time]]-Table2451536[[#This Row],[start_time]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{B3FD2478-3DE9-784A-84CD-1E5095E6BBA5}" name="notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1609,7 +1752,7 @@
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{7197966F-DB73-A94E-B2AE-FF5E410916CA}" name="start_time"/>
     <tableColumn id="2" xr3:uid="{615965FE-9104-054A-86EF-13FD1960F3F6}" name="end_time"/>
-    <tableColumn id="3" xr3:uid="{B0854C19-C681-7640-AAB6-06872F731D13}" name="time_diff" dataDxfId="85">
+    <tableColumn id="3" xr3:uid="{B0854C19-C681-7640-AAB6-06872F731D13}" name="time_diff" dataDxfId="97">
       <calculatedColumnFormula>Table213[[#This Row],[end_time]]-Table213[[#This Row],[start_time]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{0469E901-54FA-974D-A28F-40EC1AA491CD}" name="notes"/>
@@ -1622,9 +1765,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{DAC55445-B449-1B46-ADAD-5D1EE6A1BD3D}" name="Table246" displayName="Table246" ref="A1:D31" totalsRowShown="0">
   <autoFilter ref="A1:D31" xr:uid="{7DCBAB66-89F8-6F47-8D64-FA0C26924201}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{54C1AFBA-849B-564E-9383-040E585C368C}" name="start_time" dataDxfId="84"/>
-    <tableColumn id="2" xr3:uid="{45F9645E-00F2-4A47-AB06-DBB721851807}" name="end_time" dataDxfId="83"/>
-    <tableColumn id="3" xr3:uid="{D8F0A3A2-BBC5-6D49-8527-799E99BCFA49}" name="time_diff" dataDxfId="82">
+    <tableColumn id="1" xr3:uid="{54C1AFBA-849B-564E-9383-040E585C368C}" name="start_time" dataDxfId="96"/>
+    <tableColumn id="2" xr3:uid="{45F9645E-00F2-4A47-AB06-DBB721851807}" name="end_time" dataDxfId="95"/>
+    <tableColumn id="3" xr3:uid="{D8F0A3A2-BBC5-6D49-8527-799E99BCFA49}" name="time_diff" dataDxfId="94">
       <calculatedColumnFormula>Table246[[#This Row],[end_time]]-Table246[[#This Row],[start_time]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{838825F0-239B-C440-9C0B-3A9D1E9C0D95}" name="notes"/>
@@ -1639,7 +1782,7 @@
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{97B35572-DA30-684F-B3E5-729DB08045CE}" name="start_time"/>
     <tableColumn id="2" xr3:uid="{CB979489-F330-CB47-ACD8-45591E7E6177}" name="end_time"/>
-    <tableColumn id="3" xr3:uid="{C2A1FF6A-8B35-0348-85B8-BCECB7F2BCFE}" name="time_diff" dataDxfId="81">
+    <tableColumn id="3" xr3:uid="{C2A1FF6A-8B35-0348-85B8-BCECB7F2BCFE}" name="time_diff" dataDxfId="93">
       <calculatedColumnFormula>Table21314[[#This Row],[end_time]]-Table21314[[#This Row],[start_time]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{C144438C-DE22-7644-A5DB-5310B9F06FD7}" name="notes"/>
@@ -1652,9 +1795,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{BB18B32E-8D1B-4E40-800B-981F430F8CDD}" name="Table24515345678" displayName="Table24515345678" ref="A1:D31" totalsRowShown="0">
   <autoFilter ref="A1:D31" xr:uid="{1A93302E-8621-7D48-88F2-5AC51E7EA3A4}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{9D16D395-E4E3-DB45-90F5-E5327318AF10}" name="start_time" dataDxfId="80"/>
-    <tableColumn id="2" xr3:uid="{6060AEBF-3E3A-5A47-BE28-82B21D4A9A71}" name="end_time" dataDxfId="79"/>
-    <tableColumn id="3" xr3:uid="{B44166A9-5F8E-0847-90D8-CD1B96CFFCBD}" name="time_diff" dataDxfId="78">
+    <tableColumn id="1" xr3:uid="{9D16D395-E4E3-DB45-90F5-E5327318AF10}" name="start_time" dataDxfId="92"/>
+    <tableColumn id="2" xr3:uid="{6060AEBF-3E3A-5A47-BE28-82B21D4A9A71}" name="end_time" dataDxfId="91"/>
+    <tableColumn id="3" xr3:uid="{B44166A9-5F8E-0847-90D8-CD1B96CFFCBD}" name="time_diff" dataDxfId="90">
       <calculatedColumnFormula>Table24515345678[[#This Row],[end_time]]-Table24515345678[[#This Row],[start_time]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{622F2CC9-1E07-0745-BD46-0FF8E04F606C}" name="notes"/>
@@ -1667,9 +1810,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{C3F9313B-C284-1146-B033-93DD207396CF}" name="Table2451534567" displayName="Table2451534567" ref="A1:D31" totalsRowShown="0">
   <autoFilter ref="A1:D31" xr:uid="{1A93302E-8621-7D48-88F2-5AC51E7EA3A4}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{C2F60EB9-3A21-F943-85B0-6892CFC0EFE9}" name="start_time" dataDxfId="77"/>
-    <tableColumn id="2" xr3:uid="{B9B7F5F7-DC74-FC4D-8DE1-ABE02D48F190}" name="end_time" dataDxfId="76"/>
-    <tableColumn id="3" xr3:uid="{EBD1F883-E2BA-6049-9C36-BA4E73D36AAC}" name="time_diff" dataDxfId="75">
+    <tableColumn id="1" xr3:uid="{C2F60EB9-3A21-F943-85B0-6892CFC0EFE9}" name="start_time" dataDxfId="89"/>
+    <tableColumn id="2" xr3:uid="{B9B7F5F7-DC74-FC4D-8DE1-ABE02D48F190}" name="end_time" dataDxfId="88"/>
+    <tableColumn id="3" xr3:uid="{EBD1F883-E2BA-6049-9C36-BA4E73D36AAC}" name="time_diff" dataDxfId="87">
       <calculatedColumnFormula>Table2451534567[[#This Row],[end_time]]-Table2451534567[[#This Row],[start_time]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{9BD53916-30AA-4E4F-989F-570ACDB86B60}" name="notes"/>
@@ -1682,9 +1825,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{C7DEA103-B67A-0B49-99E5-BEE70970D4BB}" name="Table247" displayName="Table247" ref="A1:D31" totalsRowShown="0">
   <autoFilter ref="A1:D31" xr:uid="{7DCBAB66-89F8-6F47-8D64-FA0C26924201}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{CB152735-EDBE-5144-8A33-370189AD9329}" name="start_time" dataDxfId="74"/>
-    <tableColumn id="2" xr3:uid="{78FDD20A-A666-E94B-A38C-0886D5E9FD55}" name="end_time" dataDxfId="73"/>
-    <tableColumn id="3" xr3:uid="{AE363FE2-700D-BC49-BD68-6E6DB6F05C17}" name="time_diff" dataDxfId="72">
+    <tableColumn id="1" xr3:uid="{CB152735-EDBE-5144-8A33-370189AD9329}" name="start_time" dataDxfId="86"/>
+    <tableColumn id="2" xr3:uid="{78FDD20A-A666-E94B-A38C-0886D5E9FD55}" name="end_time" dataDxfId="85"/>
+    <tableColumn id="3" xr3:uid="{AE363FE2-700D-BC49-BD68-6E6DB6F05C17}" name="time_diff" dataDxfId="84">
       <calculatedColumnFormula>Table247[[#This Row],[end_time]]-Table247[[#This Row],[start_time]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{CCA0740F-5707-C44E-AA57-B44DAE132805}" name="notes"/>
@@ -2074,7 +2217,7 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
@@ -2084,12 +2227,12 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
@@ -2114,7 +2257,7 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
@@ -2152,7 +2295,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2656,7 +2799,7 @@
         <v>332</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G33" s="11"/>
       <c r="H33" s="6">
@@ -2694,7 +2837,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2740,7 +2883,7 @@
         <v>1.6203703703704386E-4</v>
       </c>
       <c r="D2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
@@ -2762,7 +2905,7 @@
         <v>1.2731481481481621E-4</v>
       </c>
       <c r="D3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
@@ -2784,7 +2927,7 @@
         <v>1.9675925925932702E-4</v>
       </c>
       <c r="D4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
@@ -3219,7 +3362,7 @@
         <v>63</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G33" s="11"/>
       <c r="H33" s="6">
@@ -3257,7 +3400,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3360,7 +3503,7 @@
         <v>2.1990740740740478E-3</v>
       </c>
       <c r="D5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
@@ -3776,7 +3919,7 @@
         <v>270</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G33" s="11"/>
       <c r="H33" s="6">
@@ -3814,7 +3957,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3875,7 +4018,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
@@ -4321,7 +4464,7 @@
         <v>211</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G33" s="11"/>
       <c r="H33" s="6">
@@ -4359,7 +4502,7 @@
   <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4405,7 +4548,7 @@
         <v>2.418981481481508E-3</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F2" s="14">
         <v>0.71141203703703704</v>
@@ -4431,7 +4574,7 @@
         <v>6.3888888888888884E-3</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F3" s="16">
         <v>0.52440972222222226</v>
@@ -4455,7 +4598,7 @@
         <v>1.215277777777779E-2</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
@@ -4867,7 +5010,7 @@
         <v>1993</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G33" s="11"/>
       <c r="H33" s="6" t="e">
@@ -4935,7 +5078,7 @@
   <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView zoomScale="114" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5440,7 +5583,7 @@
         <v>1734</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G33" s="11"/>
       <c r="H33" s="6">
@@ -5516,7 +5659,7 @@
   <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView zoomScale="93" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6013,7 +6156,7 @@
         <v>463</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G33" s="11"/>
       <c r="H33" s="6">
@@ -6089,7 +6232,7 @@
   <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView zoomScale="106" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6135,7 +6278,7 @@
         <v>8.2870370370370372E-3</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F2" s="14">
         <v>7.2511574074074076E-2</v>
@@ -6148,7 +6291,7 @@
         <v>1.4675925925925926E-2</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -6163,7 +6306,7 @@
         <v>6.7824074074074314E-3</v>
       </c>
       <c r="D3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F3" s="16">
         <v>8.9803240740740739E-2</v>
@@ -6189,7 +6332,7 @@
         <v>7.0370370370369528E-3</v>
       </c>
       <c r="D4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
@@ -6598,7 +6741,7 @@
         <v>2043</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G33" s="11"/>
       <c r="H33" s="6">
@@ -6676,7 +6819,7 @@
   <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7158,7 +7301,7 @@
         <v>568</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G33" s="11"/>
       <c r="H33" s="6">
@@ -7236,7 +7379,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7282,7 +7425,7 @@
         <v>1.4918981481481408E-2</v>
       </c>
       <c r="D2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="14">
         <v>0.80343750000000003</v>
@@ -7308,7 +7451,7 @@
         <v>2.1875000000000089E-3</v>
       </c>
       <c r="D3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F3" s="16">
         <v>0.81846064814814812</v>
@@ -7321,7 +7464,7 @@
         <v>1.4780092592592609E-2</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -7764,7 +7907,7 @@
         <v>1478</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G33" s="11"/>
       <c r="H33" s="6">
@@ -7823,8 +7966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8F4A8F4-AAF9-534C-A76C-45D54A4AA321}">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="125" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7837,16 +7980,16 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>70</v>
@@ -7869,7 +8012,7 @@
         <v>6452</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>68</v>
@@ -7892,7 +8035,7 @@
         <v>5536</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>68</v>
@@ -7904,38 +8047,38 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B4" s="6">
         <v>11</v>
       </c>
       <c r="D4" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>132</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>133</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B5" s="6">
         <v>57</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>68</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -7949,7 +8092,7 @@
         <v>5374</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>68</v>
@@ -7963,73 +8106,73 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B7" s="6">
         <v>332</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>68</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B8" s="6">
         <v>63</v>
       </c>
       <c r="D8" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>132</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>133</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B9" s="6">
         <v>270</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>68</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="E10" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="F10" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="G10" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -8043,13 +8186,13 @@
         <v>8040</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>68</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>13</v>
@@ -8059,9 +8202,10 @@
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>98</v>
-      </c>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
       <c r="F12" s="2" t="s">
         <v>41</v>
       </c>
@@ -8080,7 +8224,7 @@
         <v>2919</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>68</v>
@@ -8101,13 +8245,13 @@
         <v>2160</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>68</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>73</v>
+        <v>183</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>71</v>
@@ -8124,7 +8268,7 @@
         <v>4175</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>69</v>
@@ -8145,19 +8289,19 @@
         <v>1284</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>69</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B17" s="6">
         <v>1478</v>
@@ -8166,19 +8310,19 @@
         <v>2938</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>69</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B18" s="6">
         <v>2486</v>
@@ -8187,95 +8331,95 @@
         <v>3752</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>69</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B19" s="6">
         <v>2808</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>69</v>
       </c>
       <c r="F19" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B20" s="6">
         <v>3937</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>69</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B21" s="6">
         <v>3340</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>69</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B22" s="6">
         <v>2171</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>69</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B23" s="6">
         <v>2594</v>
@@ -8284,19 +8428,19 @@
         <v>2173</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>69</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B24" s="6">
         <v>935</v>
@@ -8305,19 +8449,19 @@
         <v>2940</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>69</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B25" s="6">
         <v>3180</v>
@@ -8326,36 +8470,34 @@
         <v>7079</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>69</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>142</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>69</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
       <c r="F26" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B27" s="6">
         <v>304</v>
@@ -8364,19 +8506,19 @@
         <v>946</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>69</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B28" s="6">
         <v>1338</v>
@@ -8385,19 +8527,19 @@
         <v>2104</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>69</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B29" s="6">
         <v>2112</v>
@@ -8406,19 +8548,19 @@
         <v>3775</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>69</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B30" s="6">
         <v>1414</v>
@@ -8427,53 +8569,120 @@
         <v>2064</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>69</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="1"/>
+      <c r="B31" s="6">
+        <v>1460</v>
+      </c>
+      <c r="C31" s="6">
+        <v>1847</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>69</v>
+      </c>
       <c r="F31" s="2"/>
+      <c r="G31" s="3" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="1"/>
+      <c r="A32" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B32" s="6">
+        <v>881</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>69</v>
+      </c>
       <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="1"/>
+      <c r="G32" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B33" s="6">
+        <v>1586</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>69</v>
+      </c>
       <c r="F33" s="2"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="1"/>
-      <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="1"/>
+      <c r="G33" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B35" s="6">
+        <v>637</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>69</v>
+      </c>
       <c r="F35" s="2"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G35" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="F39" s="2"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F43" s="4"/>
     </row>
   </sheetData>
@@ -8507,10 +8716,14 @@
     <hyperlink ref="G28" r:id="rId26" xr:uid="{238BB9F0-EE8E-7B41-B4BB-814C938F8075}"/>
     <hyperlink ref="G29" r:id="rId27" xr:uid="{301FBC8D-1AA0-7E41-93E6-B959462BC5B5}"/>
     <hyperlink ref="G30" r:id="rId28" xr:uid="{76D59AF6-DD10-5A43-8D8D-CB510BE93338}"/>
+    <hyperlink ref="G31" r:id="rId29" xr:uid="{34BA73B4-80EE-6440-93F0-58EA1521EB85}"/>
+    <hyperlink ref="G35" r:id="rId30" xr:uid="{5002B890-E12F-8042-B93D-8EFC3C69441B}"/>
+    <hyperlink ref="G33" r:id="rId31" xr:uid="{FE7326E3-AEA5-BF4E-9131-E65A430829EE}"/>
+    <hyperlink ref="G32" r:id="rId32" xr:uid="{9B373373-1199-6046-9996-684205CF569A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId29"/>
+    <tablePart r:id="rId33"/>
   </tableParts>
 </worksheet>
 </file>
@@ -8520,7 +8733,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8566,7 +8779,7 @@
         <v>1.8287037037036935E-2</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F2" s="14">
         <v>0.64094907407407409</v>
@@ -8592,7 +8805,7 @@
         <v>6.5393518518518379E-3</v>
       </c>
       <c r="D3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F3" s="16">
         <v>0.6681597222222222</v>
@@ -9050,7 +9263,7 @@
         <v>2486</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G33" s="11"/>
       <c r="H33" s="6">
@@ -9110,7 +9323,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9162,7 +9375,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -9616,7 +9829,7 @@
         <v>2808</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G33" s="11"/>
       <c r="H33" s="6">
@@ -9700,7 +9913,7 @@
         <v>3.4502314814814805E-2</v>
       </c>
       <c r="D2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
@@ -9709,7 +9922,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -10167,7 +10380,7 @@
         <v>3937</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G33" s="11"/>
       <c r="H33" s="6">
@@ -10205,7 +10418,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10251,7 +10464,7 @@
         <v>3.0567129629629652E-2</v>
       </c>
       <c r="D2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
@@ -10260,7 +10473,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -10718,7 +10931,7 @@
         <v>3340</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G33" s="11"/>
       <c r="H33" s="6">
@@ -10756,7 +10969,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10808,7 +11021,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -11266,7 +11479,7 @@
         <v>2171</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G33" s="11"/>
       <c r="H33" s="6">
@@ -11304,7 +11517,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11812,7 +12025,7 @@
         <v>2594</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G33" s="11"/>
       <c r="H33" s="6">
@@ -11850,7 +12063,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12358,7 +12571,7 @@
         <v>935</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G33" s="11"/>
       <c r="H33" s="6">
@@ -12396,7 +12609,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12442,7 +12655,7 @@
         <v>1.9791666666666652E-2</v>
       </c>
       <c r="D2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F2" s="14">
         <v>0.50756944444444441</v>
@@ -12455,7 +12668,7 @@
         <v>7.3564814814814805E-2</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -12470,7 +12683,7 @@
         <v>2.4305555555559355E-4</v>
       </c>
       <c r="D3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F3" s="16">
         <v>0.58136574074074077</v>
@@ -12496,7 +12709,7 @@
         <v>1.3194444444444287E-3</v>
       </c>
       <c r="D4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F4" s="14">
         <v>0.58384259259259264</v>
@@ -12522,7 +12735,7 @@
         <v>7.0601851851859188E-4</v>
       </c>
       <c r="D5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
@@ -12544,7 +12757,7 @@
         <v>2.9976851851851727E-3</v>
       </c>
       <c r="D6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
@@ -12566,7 +12779,7 @@
         <v>1.5277777777777946E-3</v>
       </c>
       <c r="D7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
@@ -12588,7 +12801,7 @@
         <v>1.6087962962962887E-3</v>
       </c>
       <c r="D8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
@@ -12610,7 +12823,7 @@
         <v>2.0601851851852482E-3</v>
       </c>
       <c r="D9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
@@ -12632,7 +12845,7 @@
         <v>2.4421296296296413E-3</v>
       </c>
       <c r="D10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
@@ -12654,7 +12867,7 @@
         <v>2.2106481481481977E-3</v>
       </c>
       <c r="D11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -12676,7 +12889,7 @@
         <v>2.1990740740740478E-4</v>
       </c>
       <c r="D12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
@@ -12698,7 +12911,7 @@
         <v>1.5046296296294948E-4</v>
       </c>
       <c r="D13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
@@ -12720,7 +12933,7 @@
         <v>1.5277777777777946E-3</v>
       </c>
       <c r="D14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
@@ -13001,7 +13214,7 @@
         <v>3180</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G33" s="11"/>
       <c r="H33" s="6">
@@ -13039,7 +13252,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13539,7 +13752,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G33" s="11"/>
       <c r="H33" s="6">
@@ -13577,7 +13790,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13623,7 +13836,7 @@
         <v>4.5138888888895945E-4</v>
       </c>
       <c r="D2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F2" s="14">
         <v>0.85078703703703706</v>
@@ -13649,7 +13862,7 @@
         <v>3.067129629629628E-3</v>
       </c>
       <c r="D3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
@@ -14095,7 +14308,7 @@
         <v>304</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G33" s="11"/>
       <c r="H33" s="6">
@@ -14133,7 +14346,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14180,7 +14393,9 @@
         <f>G2-F2</f>
         <v>0</v>
       </c>
-      <c r="I2" s="15"/>
+      <c r="I2" s="15" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
@@ -14633,7 +14848,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G33" s="11"/>
       <c r="H33" s="6">
@@ -14671,7 +14886,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14717,7 +14932,7 @@
         <v>1.4490740740740748E-2</v>
       </c>
       <c r="D2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F2" s="14">
         <v>0.64076388888888891</v>
@@ -15194,7 +15409,7 @@
         <v>1338</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G33" s="11"/>
       <c r="H33" s="6">
@@ -15740,7 +15955,7 @@
         <v>2112</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G33" s="11"/>
       <c r="H33" s="6">
@@ -15834,7 +16049,7 @@
         <v>9.0972222222222565E-3</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -15849,7 +16064,7 @@
         <v>9.3865740740741166E-3</v>
       </c>
       <c r="D3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F3" s="16">
         <v>0.48652777777777778</v>
@@ -15875,7 +16090,7 @@
         <v>3.2523148148148051E-3</v>
       </c>
       <c r="D4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F4" s="14">
         <v>0.50609953703703703</v>
@@ -15888,7 +16103,7 @@
         <v>4.1203703703703853E-3</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -16312,12 +16527,2197 @@
         <v>1414</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G33" s="11"/>
       <c r="H33" s="6">
         <f>HOUR(SUM(H2:H31))*3600 + MINUTE(SUM(H2:H31)) * 60 + SECOND(SUM(H2:H31))</f>
         <v>2064</v>
+      </c>
+      <c r="I33" s="11"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C34" s="4"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C36" s="5"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C37" s="6"/>
+      <c r="E37" s="6"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D41" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D83E074B-E732-4149-809C-7CD1165D3F98}">
+  <dimension ref="A1:I41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="72.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>0.96634259259259259</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0.98324074074074075</v>
+      </c>
+      <c r="C2" s="4">
+        <f>Table2451535[[#This Row],[end_time]]-Table2451535[[#This Row],[start_time]]</f>
+        <v>1.6898148148148162E-2</v>
+      </c>
+      <c r="F2" s="14">
+        <v>0.96311342592592597</v>
+      </c>
+      <c r="G2" s="14">
+        <v>0.98449074074074072</v>
+      </c>
+      <c r="H2" s="14">
+        <f>G2-F2</f>
+        <v>2.1377314814814752E-2</v>
+      </c>
+      <c r="I2" s="15"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="4">
+        <f>Table2451535[[#This Row],[end_time]]-Table2451535[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16">
+        <f>G3-F3</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="4">
+        <f>Table2451535[[#This Row],[end_time]]-Table2451535[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14">
+        <f t="shared" ref="H4:H31" si="0">G4-F4</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="15"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="4">
+        <f>Table2451535[[#This Row],[end_time]]-Table2451535[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="4">
+        <f>Table2451535[[#This Row],[end_time]]-Table2451535[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="15"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="4">
+        <f>Table2451535[[#This Row],[end_time]]-Table2451535[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="11"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="4">
+        <f>Table2451535[[#This Row],[end_time]]-Table2451535[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="15"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="4">
+        <f>Table2451535[[#This Row],[end_time]]-Table2451535[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="11"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="4">
+        <f>Table2451535[[#This Row],[end_time]]-Table2451535[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="15"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="4">
+        <f>Table2451535[[#This Row],[end_time]]-Table2451535[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="11"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="4">
+        <f>Table2451535[[#This Row],[end_time]]-Table2451535[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="15"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="4">
+        <f>Table2451535[[#This Row],[end_time]]-Table2451535[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="11"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="4">
+        <f>Table2451535[[#This Row],[end_time]]-Table2451535[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="15"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="4">
+        <f>Table2451535[[#This Row],[end_time]]-Table2451535[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="11"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="4">
+        <f>Table2451535[[#This Row],[end_time]]-Table2451535[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="15"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="4">
+        <f>Table2451535[[#This Row],[end_time]]-Table2451535[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="11"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="4">
+        <f>Table2451535[[#This Row],[end_time]]-Table2451535[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="15"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="4">
+        <f>Table2451535[[#This Row],[end_time]]-Table2451535[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="11"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="4">
+        <f>Table2451535[[#This Row],[end_time]]-Table2451535[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="15"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="4">
+        <f>Table2451535[[#This Row],[end_time]]-Table2451535[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="11"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="4">
+        <f>Table2451535[[#This Row],[end_time]]-Table2451535[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="15"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="4">
+        <f>Table2451535[[#This Row],[end_time]]-Table2451535[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="11"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="4">
+        <f>Table2451535[[#This Row],[end_time]]-Table2451535[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="15"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="4">
+        <f>Table2451535[[#This Row],[end_time]]-Table2451535[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="11"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="4">
+        <f>Table2451535[[#This Row],[end_time]]-Table2451535[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="15"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="4">
+        <f>Table2451535[[#This Row],[end_time]]-Table2451535[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="11"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="4">
+        <f>Table2451535[[#This Row],[end_time]]-Table2451535[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="15"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="4">
+        <f>Table2451535[[#This Row],[end_time]]-Table2451535[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="11"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="4">
+        <f>Table2451535[[#This Row],[end_time]]-Table2451535[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="15"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="4">
+        <f>Table2451535[[#This Row],[end_time]]-Table2451535[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="17"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E32" s="2"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="6">
+        <f>HOUR(SUM(Table2451535[time_diff]))*3600 + MINUTE(SUM(Table2451535[time_diff])) * 60 + SECOND(SUM(Table2451535[time_diff]))</f>
+        <v>1460</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="G33" s="11"/>
+      <c r="H33" s="6">
+        <f>HOUR(SUM(H2:H31))*3600 + MINUTE(SUM(H2:H31)) * 60 + SECOND(SUM(H2:H31))</f>
+        <v>1847</v>
+      </c>
+      <c r="I33" s="11"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C34" s="4"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C36" s="5"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C37" s="6"/>
+      <c r="E37" s="6"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D41" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B455C548-B102-2143-AD2B-F2781FEC6437}">
+  <dimension ref="A1:I41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="72.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>0.39863425925925927</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0.40758101851851852</v>
+      </c>
+      <c r="C2" s="4">
+        <f>Table245153637[[#This Row],[end_time]]-Table245153637[[#This Row],[start_time]]</f>
+        <v>8.9467592592592515E-3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14">
+        <f>G2-F2</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>0.41472222222222221</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0.41597222222222224</v>
+      </c>
+      <c r="C3" s="4">
+        <f>Table245153637[[#This Row],[end_time]]-Table245153637[[#This Row],[start_time]]</f>
+        <v>1.2500000000000289E-3</v>
+      </c>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16">
+        <f>G3-F3</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="4">
+        <f>Table245153637[[#This Row],[end_time]]-Table245153637[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14">
+        <f t="shared" ref="H4:H31" si="0">G4-F4</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="15"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="4">
+        <f>Table245153637[[#This Row],[end_time]]-Table245153637[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="4">
+        <f>Table245153637[[#This Row],[end_time]]-Table245153637[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="15"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="4">
+        <f>Table245153637[[#This Row],[end_time]]-Table245153637[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="11"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="4">
+        <f>Table245153637[[#This Row],[end_time]]-Table245153637[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="15"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="4">
+        <f>Table245153637[[#This Row],[end_time]]-Table245153637[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="11"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="4">
+        <f>Table245153637[[#This Row],[end_time]]-Table245153637[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="15"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="4">
+        <f>Table245153637[[#This Row],[end_time]]-Table245153637[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="11"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="4">
+        <f>Table245153637[[#This Row],[end_time]]-Table245153637[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="15"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="4">
+        <f>Table245153637[[#This Row],[end_time]]-Table245153637[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="11"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="4">
+        <f>Table245153637[[#This Row],[end_time]]-Table245153637[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="15"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="4">
+        <f>Table245153637[[#This Row],[end_time]]-Table245153637[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="11"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="4">
+        <f>Table245153637[[#This Row],[end_time]]-Table245153637[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="15"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="4">
+        <f>Table245153637[[#This Row],[end_time]]-Table245153637[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="11"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="4">
+        <f>Table245153637[[#This Row],[end_time]]-Table245153637[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="15"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="4">
+        <f>Table245153637[[#This Row],[end_time]]-Table245153637[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="11"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="4">
+        <f>Table245153637[[#This Row],[end_time]]-Table245153637[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="15"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="4">
+        <f>Table245153637[[#This Row],[end_time]]-Table245153637[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="11"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="4">
+        <f>Table245153637[[#This Row],[end_time]]-Table245153637[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="15"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="4">
+        <f>Table245153637[[#This Row],[end_time]]-Table245153637[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="11"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="4">
+        <f>Table245153637[[#This Row],[end_time]]-Table245153637[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="15"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="4">
+        <f>Table245153637[[#This Row],[end_time]]-Table245153637[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="11"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="4">
+        <f>Table245153637[[#This Row],[end_time]]-Table245153637[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="15"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="4">
+        <f>Table245153637[[#This Row],[end_time]]-Table245153637[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="11"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="4">
+        <f>Table245153637[[#This Row],[end_time]]-Table245153637[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="15"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="4">
+        <f>Table245153637[[#This Row],[end_time]]-Table245153637[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="11"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="4">
+        <f>Table245153637[[#This Row],[end_time]]-Table245153637[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="15"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="4">
+        <f>Table245153637[[#This Row],[end_time]]-Table245153637[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="17"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E32" s="2"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="6">
+        <f>HOUR(SUM(Table245153637[time_diff]))*3600 + MINUTE(SUM(Table245153637[time_diff])) * 60 + SECOND(SUM(Table245153637[time_diff]))</f>
+        <v>881</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="G33" s="11"/>
+      <c r="H33" s="6">
+        <f>HOUR(SUM(H2:H31))*3600 + MINUTE(SUM(H2:H31)) * 60 + SECOND(SUM(H2:H31))</f>
+        <v>0</v>
+      </c>
+      <c r="I33" s="11"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C34" s="4"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C36" s="5"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C37" s="6"/>
+      <c r="E37" s="6"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D41" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CA33449-7645-8D4E-947C-1A7FBC1B4D0C}">
+  <dimension ref="A1:I41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="72.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>0.51321759259259259</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0.53157407407407409</v>
+      </c>
+      <c r="C2" s="4">
+        <f>Table245153638[[#This Row],[end_time]]-Table245153638[[#This Row],[start_time]]</f>
+        <v>1.8356481481481501E-2</v>
+      </c>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14">
+        <f>G2-F2</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="4">
+        <f>Table245153638[[#This Row],[end_time]]-Table245153638[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16">
+        <f>G3-F3</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="4">
+        <f>Table245153638[[#This Row],[end_time]]-Table245153638[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14">
+        <f t="shared" ref="H4:H31" si="0">G4-F4</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="15"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="4">
+        <f>Table245153638[[#This Row],[end_time]]-Table245153638[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="4">
+        <f>Table245153638[[#This Row],[end_time]]-Table245153638[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="15"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="4">
+        <f>Table245153638[[#This Row],[end_time]]-Table245153638[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="11"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="4">
+        <f>Table245153638[[#This Row],[end_time]]-Table245153638[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="15"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="4">
+        <f>Table245153638[[#This Row],[end_time]]-Table245153638[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="11"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="4">
+        <f>Table245153638[[#This Row],[end_time]]-Table245153638[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="15"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="4">
+        <f>Table245153638[[#This Row],[end_time]]-Table245153638[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="11"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="4">
+        <f>Table245153638[[#This Row],[end_time]]-Table245153638[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="15"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="4">
+        <f>Table245153638[[#This Row],[end_time]]-Table245153638[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="11"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="4">
+        <f>Table245153638[[#This Row],[end_time]]-Table245153638[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="15"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="4">
+        <f>Table245153638[[#This Row],[end_time]]-Table245153638[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="11"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="4">
+        <f>Table245153638[[#This Row],[end_time]]-Table245153638[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="15"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="4">
+        <f>Table245153638[[#This Row],[end_time]]-Table245153638[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="11"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="4">
+        <f>Table245153638[[#This Row],[end_time]]-Table245153638[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="15"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="4">
+        <f>Table245153638[[#This Row],[end_time]]-Table245153638[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="11"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="4">
+        <f>Table245153638[[#This Row],[end_time]]-Table245153638[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="15"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="4">
+        <f>Table245153638[[#This Row],[end_time]]-Table245153638[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="11"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="4">
+        <f>Table245153638[[#This Row],[end_time]]-Table245153638[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="15"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="4">
+        <f>Table245153638[[#This Row],[end_time]]-Table245153638[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="11"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="4">
+        <f>Table245153638[[#This Row],[end_time]]-Table245153638[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="15"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="4">
+        <f>Table245153638[[#This Row],[end_time]]-Table245153638[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="11"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="4">
+        <f>Table245153638[[#This Row],[end_time]]-Table245153638[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="15"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="4">
+        <f>Table245153638[[#This Row],[end_time]]-Table245153638[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="11"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="4">
+        <f>Table245153638[[#This Row],[end_time]]-Table245153638[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="15"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="4">
+        <f>Table245153638[[#This Row],[end_time]]-Table245153638[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="11"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="4">
+        <f>Table245153638[[#This Row],[end_time]]-Table245153638[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="15"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="4">
+        <f>Table245153638[[#This Row],[end_time]]-Table245153638[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="17"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E32" s="2"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="6">
+        <f>HOUR(SUM(Table245153638[time_diff]))*3600 + MINUTE(SUM(Table245153638[time_diff])) * 60 + SECOND(SUM(Table245153638[time_diff]))</f>
+        <v>1586</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="G33" s="11"/>
+      <c r="H33" s="6">
+        <f>HOUR(SUM(H2:H31))*3600 + MINUTE(SUM(H2:H31)) * 60 + SECOND(SUM(H2:H31))</f>
+        <v>0</v>
+      </c>
+      <c r="I33" s="11"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C34" s="4"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C36" s="5"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C37" s="6"/>
+      <c r="E37" s="6"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D41" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF132B35-F510-EF49-A19E-31A154E898E0}">
+  <dimension ref="A1:I41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="72.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>0.50282407407407403</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0.51019675925925922</v>
+      </c>
+      <c r="C2" s="4">
+        <f>Table2451536[[#This Row],[end_time]]-Table2451536[[#This Row],[start_time]]</f>
+        <v>7.3726851851851904E-3</v>
+      </c>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14">
+        <f>G2-F2</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="4">
+        <f>Table2451536[[#This Row],[end_time]]-Table2451536[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16">
+        <f>G3-F3</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="4">
+        <f>Table2451536[[#This Row],[end_time]]-Table2451536[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14">
+        <f t="shared" ref="H4:H31" si="0">G4-F4</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="15"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="4">
+        <f>Table2451536[[#This Row],[end_time]]-Table2451536[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="4">
+        <f>Table2451536[[#This Row],[end_time]]-Table2451536[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="15"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="4">
+        <f>Table2451536[[#This Row],[end_time]]-Table2451536[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="11"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="4">
+        <f>Table2451536[[#This Row],[end_time]]-Table2451536[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="15"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="4">
+        <f>Table2451536[[#This Row],[end_time]]-Table2451536[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="11"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="4">
+        <f>Table2451536[[#This Row],[end_time]]-Table2451536[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="15"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="4">
+        <f>Table2451536[[#This Row],[end_time]]-Table2451536[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="11"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="4">
+        <f>Table2451536[[#This Row],[end_time]]-Table2451536[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="15"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="4">
+        <f>Table2451536[[#This Row],[end_time]]-Table2451536[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="11"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="4">
+        <f>Table2451536[[#This Row],[end_time]]-Table2451536[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="15"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="4">
+        <f>Table2451536[[#This Row],[end_time]]-Table2451536[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="11"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="4">
+        <f>Table2451536[[#This Row],[end_time]]-Table2451536[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="15"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="4">
+        <f>Table2451536[[#This Row],[end_time]]-Table2451536[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="11"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="4">
+        <f>Table2451536[[#This Row],[end_time]]-Table2451536[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="15"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="4">
+        <f>Table2451536[[#This Row],[end_time]]-Table2451536[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="11"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="4">
+        <f>Table2451536[[#This Row],[end_time]]-Table2451536[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="15"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="4">
+        <f>Table2451536[[#This Row],[end_time]]-Table2451536[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="11"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="4">
+        <f>Table2451536[[#This Row],[end_time]]-Table2451536[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="15"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="4">
+        <f>Table2451536[[#This Row],[end_time]]-Table2451536[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="11"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="4">
+        <f>Table2451536[[#This Row],[end_time]]-Table2451536[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="15"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="4">
+        <f>Table2451536[[#This Row],[end_time]]-Table2451536[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="11"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="4">
+        <f>Table2451536[[#This Row],[end_time]]-Table2451536[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="15"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="4">
+        <f>Table2451536[[#This Row],[end_time]]-Table2451536[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="11"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="4">
+        <f>Table2451536[[#This Row],[end_time]]-Table2451536[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="15"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="4">
+        <f>Table2451536[[#This Row],[end_time]]-Table2451536[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="11"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="4">
+        <f>Table2451536[[#This Row],[end_time]]-Table2451536[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="15"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="4">
+        <f>Table2451536[[#This Row],[end_time]]-Table2451536[[#This Row],[start_time]]</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="17"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E32" s="2"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="6">
+        <f>HOUR(SUM(Table2451536[time_diff]))*3600 + MINUTE(SUM(Table2451536[time_diff])) * 60 + SECOND(SUM(Table2451536[time_diff]))</f>
+        <v>637</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="G33" s="11"/>
+      <c r="H33" s="6">
+        <f>HOUR(SUM(H2:H31))*3600 + MINUTE(SUM(H2:H31)) * 60 + SECOND(SUM(H2:H31))</f>
+        <v>0</v>
       </c>
       <c r="I33" s="11"/>
     </row>
@@ -16773,7 +19173,7 @@
         <v>2801</v>
       </c>
       <c r="F33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H33" s="6">
         <f>HOUR(SUM(Table213[time_diff]))*3600 + MINUTE(SUM(Table213[time_diff])) * 60 + SECOND(SUM(Table213[time_diff]))</f>
@@ -16831,7 +19231,7 @@
   <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16877,7 +19277,7 @@
         <v>1.4351851851851921E-3</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F2" s="4">
         <v>9.087962962962963E-2</v>
@@ -16902,7 +19302,7 @@
         <v>4.1666666666666657E-3</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H3" s="4">
         <f>Table21314[[#This Row],[end_time]]-Table21314[[#This Row],[start_time]]</f>
@@ -16921,7 +19321,7 @@
         <v>5.277777777777784E-3</v>
       </c>
       <c r="D4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -17304,7 +19704,7 @@
         <v>3965</v>
       </c>
       <c r="F33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H33" s="6">
         <f>HOUR(SUM(Table21314[time_diff]))*3600 + MINUTE(SUM(Table21314[time_diff])) * 60 + SECOND(SUM(Table21314[time_diff]))</f>
@@ -17371,7 +19771,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17875,7 +20275,7 @@
         <v>11</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G33" s="11"/>
       <c r="H33" s="6">
@@ -17913,7 +20313,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17959,7 +20359,7 @@
         <v>1.9675925925927151E-4</v>
       </c>
       <c r="D2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
@@ -18424,7 +20824,7 @@
         <v>57</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G33" s="11"/>
       <c r="H33" s="6">
@@ -18462,7 +20862,7 @@
   <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18979,7 +21379,7 @@
         <v>2075</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G33" s="11"/>
       <c r="H33" s="6">
@@ -19189,7 +21589,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -19380,17 +21780,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3322fca5-43da-49d1-b081-466ee88b9b9d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="08edd21d-9f77-405a-872a-1371c16ee465" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -19399,7 +21788,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BF6C17F5D6D98C42BF7485206F8FA016" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d5edc83b350af0a5b53db876fcbb948f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3322fca5-43da-49d1-b081-466ee88b9b9d" xmlns:ns3="08edd21d-9f77-405a-872a-1371c16ee465" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="af4f449426634c4d4ecdf601b9961ca0" ns2:_="" ns3:_="">
     <xsd:import namespace="3322fca5-43da-49d1-b081-466ee88b9b9d"/>
@@ -19634,24 +22023,18 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{711BD0AE-A67E-4DE0-BFB7-7F2D919E2D80}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="08edd21d-9f77-405a-872a-1371c16ee465"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="3322fca5-43da-49d1-b081-466ee88b9b9d"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3322fca5-43da-49d1-b081-466ee88b9b9d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="08edd21d-9f77-405a-872a-1371c16ee465" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84C9AB0F-2376-4442-8FD0-7F9F6F9B731B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -19659,7 +22042,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B10E5675-4834-416E-A2AA-AFEE37EB2CC0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19676,4 +22059,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{711BD0AE-A67E-4DE0-BFB7-7F2D919E2D80}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="08edd21d-9f77-405a-872a-1371c16ee465"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="3322fca5-43da-49d1-b081-466ee88b9b9d"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/raw/VCAS-rove_time.xlsx
+++ b/data/raw/VCAS-rove_time.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathansalas/R_Projects/VCAS1_prelim_efficiency/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A79AE96-8031-8845-A78B-6332E5128C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8671877-AC2A-A547-BA6E-A4CC95B327E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19940" activeTab="1" xr2:uid="{0490BC07-0248-8949-839E-74C08EF47166}"/>
   </bookViews>
@@ -2170,7 +2170,7 @@
   <dimension ref="A1:A36"/>
   <sheetViews>
     <sheetView zoomScale="86" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7966,8 +7966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8F4A8F4-AAF9-534C-A76C-45D54A4AA321}">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="125" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="125" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21789,6 +21789,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3322fca5-43da-49d1-b081-466ee88b9b9d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="08edd21d-9f77-405a-872a-1371c16ee465" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BF6C17F5D6D98C42BF7485206F8FA016" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d5edc83b350af0a5b53db876fcbb948f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3322fca5-43da-49d1-b081-466ee88b9b9d" xmlns:ns3="08edd21d-9f77-405a-872a-1371c16ee465" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="af4f449426634c4d4ecdf601b9961ca0" ns2:_="" ns3:_="">
     <xsd:import namespace="3322fca5-43da-49d1-b081-466ee88b9b9d"/>
@@ -22023,17 +22034,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3322fca5-43da-49d1-b081-466ee88b9b9d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="08edd21d-9f77-405a-872a-1371c16ee465" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84C9AB0F-2376-4442-8FD0-7F9F6F9B731B}">
   <ds:schemaRefs>
@@ -22043,6 +22043,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{711BD0AE-A67E-4DE0-BFB7-7F2D919E2D80}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="08edd21d-9f77-405a-872a-1371c16ee465"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="3322fca5-43da-49d1-b081-466ee88b9b9d"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B10E5675-4834-416E-A2AA-AFEE37EB2CC0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -22059,21 +22076,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{711BD0AE-A67E-4DE0-BFB7-7F2D919E2D80}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="08edd21d-9f77-405a-872a-1371c16ee465"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="3322fca5-43da-49d1-b081-466ee88b9b9d"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>